--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="335">
   <si>
     <t>operator</t>
   </si>
@@ -83,6 +83,12 @@
     <t>EXCLUDE</t>
   </si>
   <si>
+    <t>ExpectedNoOfCdrIn24Hour</t>
+  </si>
+  <si>
+    <t>AggregationStyle</t>
+  </si>
+  <si>
     <t>agni</t>
   </si>
   <si>
@@ -389,600 +395,603 @@
     <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra</t>
   </si>
   <si>
-    <t>bt</t>
+    <t>GNL</t>
+  </si>
+  <si>
+    <t>.log</t>
+  </si>
+  <si>
+    <t>Vault.TelcobridgeBogra</t>
+  </si>
+  <si>
+    <t>getco</t>
+  </si>
+  <si>
+    <t>10.255.200.21</t>
+  </si>
+  <si>
+    <t>getco_ip</t>
+  </si>
+  <si>
+    <t>EBg)B"g5Jn3Mu"_q</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\getco\ip</t>
+  </si>
+  <si>
+    <t>getco_10.255.200.21_REVE</t>
+  </si>
+  <si>
+    <t>10.154.150.21</t>
+  </si>
+  <si>
+    <t>getco_tdm</t>
+  </si>
+  <si>
+    <t>@fFSVt463NKk</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\getco\tdm</t>
+  </si>
+  <si>
+    <t>getco_10.154.150.21_HUWAEI</t>
+  </si>
+  <si>
+    <t>imamNetwork</t>
+  </si>
+  <si>
+    <t>10.255.200.22</t>
+  </si>
+  <si>
+    <t>imamNetwork_ip</t>
+  </si>
+  <si>
+    <t>XB\+t~[!)!3a#r8n</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\imamNetwork\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.22</t>
+  </si>
+  <si>
+    <t>imamNetwork_tdm</t>
+  </si>
+  <si>
+    <t>ZTE</t>
+  </si>
+  <si>
+    <t>$*cA2zy90QlO</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\imamNetwork\tdm</t>
+  </si>
+  <si>
+    <t>DHK</t>
+  </si>
+  <si>
+    <t>Vault.Zte</t>
+  </si>
+  <si>
+    <t>jibonDhara</t>
+  </si>
+  <si>
+    <t>10.255.200.23</t>
+  </si>
+  <si>
+    <t>jibonDhara_ip</t>
+  </si>
+  <si>
+    <t>6[.3hb2U=\Avj+6n</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\jibonDhara\ip</t>
+  </si>
+  <si>
+    <t>Vault.JslcataleyaDhk</t>
+  </si>
+  <si>
+    <t>10.154.150.23</t>
+  </si>
+  <si>
+    <t>jibonDhara_tdm</t>
+  </si>
+  <si>
+    <t>N@774HA6Vi2J</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\jibonDhara\tdm</t>
+  </si>
+  <si>
+    <t>Vault.JslZteDhk</t>
+  </si>
+  <si>
+    <t>mmCommunications</t>
+  </si>
+  <si>
+    <t>10.255.200.24</t>
+  </si>
+  <si>
+    <t>mmCommunications_ip</t>
+  </si>
+  <si>
+    <t>S?Rs&amp;v2$'kZ"_+ex</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\mmCommunications\ip</t>
+  </si>
+  <si>
+    <t>mmCommunications_10.255.200.24_CATALEYA</t>
+  </si>
+  <si>
+    <t>mmCommunications_tdm</t>
+  </si>
+  <si>
+    <t>v&amp;8DhE29A9G%</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\mmCommunications\tdm</t>
+  </si>
+  <si>
+    <t>mmCommunications_10.255.200.24_ZTE</t>
+  </si>
+  <si>
+    <t>mnh</t>
+  </si>
+  <si>
+    <t>10.255.200.25</t>
+  </si>
+  <si>
+    <t>mnh_ip</t>
+  </si>
+  <si>
+    <t>Q`"8Te^T"L6cvK]V</t>
+  </si>
+  <si>
+    <t>g:\telcobright\vault\resources\cdr\mnh\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.25</t>
+  </si>
+  <si>
+    <t>mnh_tdm</t>
+  </si>
+  <si>
+    <t>vGadKQ*N&amp;646</t>
+  </si>
+  <si>
+    <t>g:\telcobright\vault\resources\cdr\mnh\tdm</t>
+  </si>
+  <si>
+    <t>b,c</t>
+  </si>
+  <si>
+    <t>mothertelecom</t>
+  </si>
+  <si>
+    <t>10.255.200.55</t>
+  </si>
+  <si>
+    <t>mothertelecom_ip</t>
+  </si>
+  <si>
+    <t>h"4FPj.\]Xs7R*yA</t>
+  </si>
+  <si>
+    <t>j:\telcobright\vault\resources\cdr\mothertelecom\ip</t>
+  </si>
+  <si>
+    <t>vaultDialogic</t>
+  </si>
+  <si>
+    <t>10.154.150.55</t>
+  </si>
+  <si>
+    <t>mothertelecom_tdm</t>
+  </si>
+  <si>
+    <t>NOKIA</t>
+  </si>
+  <si>
+    <t>b07G7uf$Rt24</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\mothertelecom\tdm</t>
+  </si>
+  <si>
+    <t>vault.Nokia</t>
+  </si>
+  <si>
+    <t>newGenerationTelecom</t>
+  </si>
+  <si>
+    <t>10.255.200.54</t>
+  </si>
+  <si>
+    <t>newGenerTelecom_ip</t>
+  </si>
+  <si>
+    <t>`D2j+fP{bXj,H#6~</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\newGenerationTelecom\ip</t>
+  </si>
+  <si>
+    <t>vault.Reve</t>
+  </si>
+  <si>
+    <t>10.154.150.54</t>
+  </si>
+  <si>
+    <t>newGenerTelecom_tdm</t>
+  </si>
+  <si>
+    <t>X57T0LYt@4sd</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\newGenerationTelecom\tdm</t>
+  </si>
+  <si>
+    <t>Vault.Nokia</t>
+  </si>
+  <si>
+    <t>paradise</t>
+  </si>
+  <si>
+    <t>10.255.200.36</t>
+  </si>
+  <si>
+    <t>paradise_ip</t>
+  </si>
+  <si>
+    <t>G5_(XnTV[DK++_\k</t>
+  </si>
+  <si>
+    <t>g:\telcobright\vault\resources\cdr\paradise\ip</t>
+  </si>
+  <si>
+    <t>paradise_10.255.200.36_CATALEYA</t>
+  </si>
+  <si>
+    <t>10.154.150.36</t>
+  </si>
+  <si>
+    <t>paradise_tdm</t>
+  </si>
+  <si>
+    <t>KqM0of^j6Q6^</t>
+  </si>
+  <si>
+    <t>g:\telcobright\vault\resources\cdr\paradise\tdm</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>10.255.200.37</t>
+  </si>
+  <si>
+    <t>purple_ip</t>
+  </si>
+  <si>
+    <t>gDa=sGR2anV5h'72</t>
+  </si>
+  <si>
+    <t>h:\telcobright\vault\resources\cdr\purple\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.37</t>
+  </si>
+  <si>
+    <t>purple_tdm</t>
+  </si>
+  <si>
+    <t>5jg5I$f262&amp;7</t>
+  </si>
+  <si>
+    <t>h:\telcobright\vault\resources\cdr\purple\tdm</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>vault.Huwaei</t>
+  </si>
+  <si>
+    <t>ringTech</t>
+  </si>
+  <si>
+    <t>10.255.200.38</t>
+  </si>
+  <si>
+    <t>ringTech_ip</t>
+  </si>
+  <si>
+    <t>GNEW</t>
+  </si>
+  <si>
+    <t>Hm$vRDZ"9$#ArCmy</t>
+  </si>
+  <si>
+    <t>h:\telcobright\vault\resources\cdr\ringTech\ip</t>
+  </si>
+  <si>
+    <t>.cdr</t>
+  </si>
+  <si>
+    <t>vault.GNEW</t>
+  </si>
+  <si>
+    <t>10.154.150.38</t>
+  </si>
+  <si>
+    <t>ringTech_tdm</t>
+  </si>
+  <si>
+    <t>bq73k9F$4w95</t>
+  </si>
+  <si>
+    <t>h:\telcobright\vault\resources\cdr\ringTech\tdm</t>
+  </si>
+  <si>
+    <t>Haseen</t>
+  </si>
+  <si>
+    <t>vaultZte</t>
+  </si>
+  <si>
+    <t>sheba</t>
+  </si>
+  <si>
+    <t>10.255.200.51</t>
+  </si>
+  <si>
+    <t>sheba_ip</t>
+  </si>
+  <si>
+    <t>]V!2$Q*5L!SvX&gt;qn</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\sheba\ip</t>
+  </si>
+  <si>
+    <t>sheba_10.255.200.51_REVE</t>
+  </si>
+  <si>
+    <t>10.154.150.51</t>
+  </si>
+  <si>
+    <t>sheba_tdm</t>
+  </si>
+  <si>
+    <t>6ri6S*He829^</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\sheba\tdm</t>
+  </si>
+  <si>
+    <t>ICX</t>
+  </si>
+  <si>
+    <t>softex</t>
+  </si>
+  <si>
+    <t>10.255.200.52</t>
+  </si>
+  <si>
+    <t>softex_ip</t>
+  </si>
+  <si>
+    <t>8B^3j;Np7Qm@vwG*</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\softex\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.52</t>
+  </si>
+  <si>
+    <t>softex_tdm</t>
+  </si>
+  <si>
+    <t>eof4FT20^lUL</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\softex\tdm</t>
+  </si>
+  <si>
+    <t>srTelecom</t>
+  </si>
+  <si>
+    <t>10.255.200.35</t>
+  </si>
+  <si>
+    <t>srTelecom_ip</t>
+  </si>
+  <si>
+    <t>TYSDP*Fp@w\37a,;</t>
+  </si>
+  <si>
+    <t>c:\telcobright\vault\resources\cdr\srTelecom\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.35</t>
+  </si>
+  <si>
+    <t>srTelecom_tdm</t>
+  </si>
+  <si>
+    <t>q9%0p3la#WO8</t>
+  </si>
+  <si>
+    <t>c:\telcobright\vault\resources\cdr\srTelecom\tdm</t>
+  </si>
+  <si>
+    <t>SRT</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>10.255.200.57</t>
+  </si>
+  <si>
+    <t>summit_ip</t>
+  </si>
+  <si>
+    <t>MdReMz!rm$&amp;KJh7{</t>
+  </si>
+  <si>
+    <t>j:\telcobright\vault\resources\cdr\summit\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.57</t>
+  </si>
+  <si>
+    <t>summit_tdm</t>
+  </si>
+  <si>
+    <t>g*GVC$HG1110</t>
+  </si>
+  <si>
+    <t>j:\telcobright\vault\resources\cdr\summit\tdm</t>
+  </si>
+  <si>
+    <t>vault.ZTE</t>
+  </si>
+  <si>
+    <t>teleExchange</t>
+  </si>
+  <si>
+    <t>10.255.200.53</t>
+  </si>
+  <si>
+    <t>teleExchange_ip</t>
+  </si>
+  <si>
+    <t>6n=Mu)d.M[;&gt;&lt;~6z</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\teleExchange\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.53</t>
+  </si>
+  <si>
+    <t>teleExchange_tdm</t>
+  </si>
+  <si>
+    <t>102UQ1a&amp;5*nY</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm</t>
+  </si>
+  <si>
+    <t>teleExchange_10.154.150.53_HUWAEI</t>
+  </si>
+  <si>
+    <t>10.154.150.60</t>
+  </si>
+  <si>
+    <t>teleExchange_tdm1</t>
+  </si>
+  <si>
+    <t>9I+wLs=CrUf#6fl</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm1</t>
+  </si>
+  <si>
+    <t>Vault.Telcobridge</t>
+  </si>
+  <si>
+    <t>telePlusNewyork</t>
+  </si>
+  <si>
+    <t>10.255.200.56</t>
+  </si>
+  <si>
+    <t>telePlusNewyork_ip</t>
+  </si>
+  <si>
+    <t>WTL</t>
+  </si>
+  <si>
+    <t>z5&lt;JN+Hy&lt;ME;CdN+</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\ip</t>
+  </si>
+  <si>
+    <t>vault.WTL</t>
+  </si>
+  <si>
+    <t>telePlusNetwork</t>
+  </si>
+  <si>
+    <t>10.154.150.56</t>
+  </si>
+  <si>
+    <t>telePlusNewyork_tdm</t>
+  </si>
+  <si>
+    <t>^E9cB9@r1lL7</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\tdm</t>
+  </si>
+  <si>
+    <t>voiceTel</t>
+  </si>
+  <si>
+    <t>10.255.200.58</t>
+  </si>
+  <si>
+    <t>voiceTel_ip</t>
+  </si>
+  <si>
+    <t>t$"Zqe=7=;qjc9mS</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\voiceTel\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.58</t>
+  </si>
+  <si>
+    <t>voiceTel_tdm</t>
+  </si>
+  <si>
+    <t>7ssLh!Evz612</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\voiceTel\tdm</t>
+  </si>
+  <si>
+    <t>PREF</t>
+  </si>
+  <si>
+    <t>SWITCH</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>idCDRformat</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
   <si>
     <t>.dat</t>
   </si>
   <si>
-    <t>Vault.TelcobridgeBogra</t>
-  </si>
-  <si>
-    <t>getco</t>
-  </si>
-  <si>
-    <t>10.255.200.21</t>
-  </si>
-  <si>
-    <t>getco_ip</t>
-  </si>
-  <si>
-    <t>EBg)B"g5Jn3Mu"_q</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\getco\ip</t>
-  </si>
-  <si>
-    <t>getco_10.255.200.21_REVE</t>
-  </si>
-  <si>
-    <t>10.154.150.21</t>
-  </si>
-  <si>
-    <t>getco_tdm</t>
-  </si>
-  <si>
-    <t>@fFSVt463NKk</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\getco\tdm</t>
-  </si>
-  <si>
-    <t>getco_10.154.150.21_HUWAEI</t>
-  </si>
-  <si>
-    <t>imamNetwork</t>
-  </si>
-  <si>
-    <t>10.255.200.22</t>
-  </si>
-  <si>
-    <t>imamNetwork_ip</t>
-  </si>
-  <si>
-    <t>XB\+t~[!)!3a#r8n</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\imamNetwork\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.22</t>
-  </si>
-  <si>
-    <t>imamNetwork_tdm</t>
-  </si>
-  <si>
-    <t>ZTE</t>
-  </si>
-  <si>
-    <t>$*cA2zy90QlO</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\imamNetwork\tdm</t>
-  </si>
-  <si>
-    <t>DHK</t>
-  </si>
-  <si>
-    <t>Vault.Zte</t>
-  </si>
-  <si>
-    <t>jibonDhara</t>
-  </si>
-  <si>
-    <t>10.255.200.23</t>
-  </si>
-  <si>
-    <t>jibonDhara_ip</t>
-  </si>
-  <si>
-    <t>6[.3hb2U=\Avj+6n</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\jibonDhara\ip</t>
-  </si>
-  <si>
-    <t>Vault.JslcataleyaDhk</t>
-  </si>
-  <si>
-    <t>10.154.150.23</t>
-  </si>
-  <si>
-    <t>jibonDhara_tdm</t>
-  </si>
-  <si>
-    <t>N@774HA6Vi2J</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\jibonDhara\tdm</t>
-  </si>
-  <si>
-    <t>Vault.JslZteDhk</t>
-  </si>
-  <si>
-    <t>mmCommunications</t>
-  </si>
-  <si>
-    <t>10.255.200.24</t>
-  </si>
-  <si>
-    <t>mmCommunications_ip</t>
-  </si>
-  <si>
-    <t>S?Rs&amp;v2$'kZ"_+ex</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\mmCommunications\ip</t>
-  </si>
-  <si>
-    <t>mmCommunications_10.255.200.24_CATALEYA</t>
-  </si>
-  <si>
-    <t>mmCommunications_tdm</t>
-  </si>
-  <si>
-    <t>v&amp;8DhE29A9G%</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\mmCommunications\tdm</t>
-  </si>
-  <si>
-    <t>mmCommunications_10.255.200.24_ZTE</t>
-  </si>
-  <si>
-    <t>mnh</t>
-  </si>
-  <si>
-    <t>10.255.200.25</t>
-  </si>
-  <si>
-    <t>mnh_ip</t>
-  </si>
-  <si>
-    <t>Q`"8Te^T"L6cvK]V</t>
-  </si>
-  <si>
-    <t>g:\telcobright\vault\resources\cdr\mnh\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.25</t>
-  </si>
-  <si>
-    <t>mnh_tdm</t>
-  </si>
-  <si>
-    <t>vGadKQ*N&amp;646</t>
-  </si>
-  <si>
-    <t>g:\telcobright\vault\resources\cdr\mnh\tdm</t>
-  </si>
-  <si>
-    <t>b,c</t>
-  </si>
-  <si>
-    <t>mothertelecom</t>
-  </si>
-  <si>
-    <t>10.255.200.55</t>
-  </si>
-  <si>
-    <t>mothertelecom_ip</t>
-  </si>
-  <si>
-    <t>h"4FPj.\]Xs7R*yA</t>
-  </si>
-  <si>
-    <t>j:\telcobright\vault\resources\cdr\mothertelecom\ip</t>
-  </si>
-  <si>
-    <t>vaultDialogic</t>
-  </si>
-  <si>
-    <t>10.154.150.55</t>
-  </si>
-  <si>
-    <t>mothertelecom_tdm</t>
-  </si>
-  <si>
-    <t>NOKIA</t>
-  </si>
-  <si>
-    <t>b07G7uf$Rt24</t>
-  </si>
-  <si>
-    <t>e:\telcobright\vault\resources\cdr\mothertelecom\tdm</t>
-  </si>
-  <si>
-    <t>vault.Nokia</t>
-  </si>
-  <si>
-    <t>newGenerationTelecom</t>
-  </si>
-  <si>
-    <t>10.255.200.54</t>
-  </si>
-  <si>
-    <t>newGenerTelecom_ip</t>
-  </si>
-  <si>
-    <t>`D2j+fP{bXj,H#6~</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\newGenerationTelecom\ip</t>
-  </si>
-  <si>
-    <t>vault.Reve</t>
-  </si>
-  <si>
-    <t>10.154.150.54</t>
-  </si>
-  <si>
-    <t>newGenerTelecom_tdm</t>
-  </si>
-  <si>
-    <t>X57T0LYt@4sd</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\newGenerationTelecom\tdm</t>
-  </si>
-  <si>
-    <t>Vault.Nokia</t>
-  </si>
-  <si>
-    <t>paradise</t>
-  </si>
-  <si>
-    <t>10.255.200.36</t>
-  </si>
-  <si>
-    <t>paradise_ip</t>
-  </si>
-  <si>
-    <t>G5_(XnTV[DK++_\k</t>
-  </si>
-  <si>
-    <t>g:\telcobright\vault\resources\cdr\paradise\ip</t>
-  </si>
-  <si>
-    <t>paradise_10.255.200.36_CATALEYA</t>
-  </si>
-  <si>
-    <t>10.154.150.36</t>
-  </si>
-  <si>
-    <t>paradise_tdm</t>
-  </si>
-  <si>
-    <t>KqM0of^j6Q6^</t>
-  </si>
-  <si>
-    <t>g:\telcobright\vault\resources\cdr\paradise\tdm</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>10.255.200.37</t>
-  </si>
-  <si>
-    <t>purple_ip</t>
-  </si>
-  <si>
-    <t>gDa=sGR2anV5h'72</t>
-  </si>
-  <si>
-    <t>h:\telcobright\vault\resources\cdr\purple\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.37</t>
-  </si>
-  <si>
-    <t>purple_tdm</t>
-  </si>
-  <si>
-    <t>5jg5I$f262&amp;7</t>
-  </si>
-  <si>
-    <t>h:\telcobright\vault\resources\cdr\purple\tdm</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>vault.Huwaei</t>
-  </si>
-  <si>
-    <t>ringTech</t>
-  </si>
-  <si>
-    <t>10.255.200.38</t>
-  </si>
-  <si>
-    <t>ringTech_ip</t>
-  </si>
-  <si>
-    <t>GNEW</t>
-  </si>
-  <si>
-    <t>Hm$vRDZ"9$#ArCmy</t>
-  </si>
-  <si>
-    <t>h:\telcobright\vault\resources\cdr\ringTech\ip</t>
-  </si>
-  <si>
-    <t>.cdr</t>
-  </si>
-  <si>
-    <t>vault.GNEW</t>
-  </si>
-  <si>
-    <t>10.154.150.38</t>
-  </si>
-  <si>
-    <t>ringTech_tdm</t>
-  </si>
-  <si>
-    <t>bq73k9F$4w95</t>
-  </si>
-  <si>
-    <t>h:\telcobright\vault\resources\cdr\ringTech\tdm</t>
-  </si>
-  <si>
-    <t>Haseen</t>
-  </si>
-  <si>
-    <t>vaultZte</t>
-  </si>
-  <si>
-    <t>sheba</t>
-  </si>
-  <si>
-    <t>10.255.200.51</t>
-  </si>
-  <si>
-    <t>sheba_ip</t>
-  </si>
-  <si>
-    <t>]V!2$Q*5L!SvX&gt;qn</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\sheba\ip</t>
-  </si>
-  <si>
-    <t>sheba_10.255.200.51_REVE</t>
-  </si>
-  <si>
-    <t>10.154.150.51</t>
-  </si>
-  <si>
-    <t>sheba_tdm</t>
-  </si>
-  <si>
-    <t>6ri6S*He829^</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\sheba\tdm</t>
-  </si>
-  <si>
-    <t>ICX</t>
-  </si>
-  <si>
-    <t>softex</t>
-  </si>
-  <si>
-    <t>10.255.200.52</t>
-  </si>
-  <si>
-    <t>softex_ip</t>
-  </si>
-  <si>
-    <t>8B^3j;Np7Qm@vwG*</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\softex\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.52</t>
-  </si>
-  <si>
-    <t>softex_tdm</t>
-  </si>
-  <si>
-    <t>eof4FT20^lUL</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\softex\tdm</t>
-  </si>
-  <si>
-    <t>srTelecom</t>
-  </si>
-  <si>
-    <t>10.255.200.35</t>
-  </si>
-  <si>
-    <t>srTelecom_ip</t>
-  </si>
-  <si>
-    <t>TYSDP*Fp@w\37a,;</t>
-  </si>
-  <si>
-    <t>c:\telcobright\vault\resources\cdr\srTelecom\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.35</t>
-  </si>
-  <si>
-    <t>srTelecom_tdm</t>
-  </si>
-  <si>
-    <t>q9%0p3la#WO8</t>
-  </si>
-  <si>
-    <t>c:\telcobright\vault\resources\cdr\srTelecom\tdm</t>
-  </si>
-  <si>
-    <t>SRT</t>
-  </si>
-  <si>
-    <t>vault</t>
-  </si>
-  <si>
-    <t>summit</t>
-  </si>
-  <si>
-    <t>10.255.200.57</t>
-  </si>
-  <si>
-    <t>summit_ip</t>
-  </si>
-  <si>
-    <t>MdReMz!rm$&amp;KJh7{</t>
-  </si>
-  <si>
-    <t>j:\telcobright\vault\resources\cdr\summit\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.57</t>
-  </si>
-  <si>
-    <t>summit_tdm</t>
-  </si>
-  <si>
-    <t>g*GVC$HG1110</t>
-  </si>
-  <si>
-    <t>j:\telcobright\vault\resources\cdr\summit\tdm</t>
-  </si>
-  <si>
-    <t>vault.ZTE</t>
-  </si>
-  <si>
-    <t>teleExchange</t>
-  </si>
-  <si>
-    <t>10.255.200.53</t>
-  </si>
-  <si>
-    <t>teleExchange_ip</t>
-  </si>
-  <si>
-    <t>6n=Mu)d.M[;&gt;&lt;~6z</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\teleExchange\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.53</t>
-  </si>
-  <si>
-    <t>teleExchange_tdm</t>
-  </si>
-  <si>
-    <t>102UQ1a&amp;5*nY</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm</t>
-  </si>
-  <si>
-    <t>teleExchange_10.154.150.53_HUWAEI</t>
-  </si>
-  <si>
-    <t>10.154.150.60</t>
-  </si>
-  <si>
-    <t>teleExchange_tdm1</t>
-  </si>
-  <si>
-    <t>9I+wLs=CrUf#6fl</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm1</t>
-  </si>
-  <si>
-    <t>Vault.Telcobridge</t>
-  </si>
-  <si>
-    <t>telePlusNewyork</t>
-  </si>
-  <si>
-    <t>10.255.200.56</t>
-  </si>
-  <si>
-    <t>telePlusNewyork_ip</t>
-  </si>
-  <si>
-    <t>WTL</t>
-  </si>
-  <si>
-    <t>z5&lt;JN+Hy&lt;ME;CdN+</t>
-  </si>
-  <si>
-    <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\ip</t>
-  </si>
-  <si>
-    <t>vault.WTL</t>
-  </si>
-  <si>
-    <t>telePlusNetwork</t>
-  </si>
-  <si>
-    <t>10.154.150.56</t>
-  </si>
-  <si>
-    <t>telePlusNewyork_tdm</t>
-  </si>
-  <si>
-    <t>^E9cB9@r1lL7</t>
-  </si>
-  <si>
-    <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\tdm</t>
-  </si>
-  <si>
-    <t>voiceTel</t>
-  </si>
-  <si>
-    <t>10.255.200.58</t>
-  </si>
-  <si>
-    <t>voiceTel_ip</t>
-  </si>
-  <si>
-    <t>t$"Zqe=7=;qjc9mS</t>
-  </si>
-  <si>
-    <t>e:\telcobright\vault\resources\cdr\voiceTel\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.58</t>
-  </si>
-  <si>
-    <t>voiceTel_tdm</t>
-  </si>
-  <si>
-    <t>7ssLh!Evz612</t>
-  </si>
-  <si>
-    <t>e:\telcobright\vault\resources\cdr\voiceTel\tdm</t>
-  </si>
-  <si>
-    <t>PREF</t>
-  </si>
-  <si>
-    <t>SWITCH</t>
-  </si>
-  <si>
-    <t>EXT</t>
-  </si>
-  <si>
-    <t>idCDRformat</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>VCDR</t>
   </si>
   <si>
@@ -1008,9 +1017,6 @@
   </si>
   <si>
     <t>sdr</t>
-  </si>
-  <si>
-    <t>.log</t>
   </si>
   <si>
     <t>CDR</t>
@@ -2364,12 +2370,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2391,9 +2397,12 @@
     <col min="19" max="19" width="43" customWidth="1"/>
     <col min="20" max="20" width="19.8571428571429" customWidth="1"/>
     <col min="21" max="21" width="11.2857142857143" customWidth="1"/>
+    <col min="22" max="22" width="25.4285714285714" customWidth="1"/>
+    <col min="23" max="23" width="31.7142857142857" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:22">
+    <row r="1" ht="16.5" spans="1:24">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2460,10 +2469,16 @@
       <c r="V1" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="W1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" spans="1:22">
+    <row r="2" ht="15.75" spans="1:23">
       <c r="A2" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="22">
         <v>1</v>
@@ -2475,19 +2490,19 @@
         <v>4</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" s="22">
         <v>1</v>
@@ -2504,7 +2519,7 @@
         <v>.csv</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="22">
         <v>0</v>
@@ -2519,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T2" s="22">
         <v>0</v>
@@ -2528,12 +2543,15 @@
         <v>0</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="W2">
+        <v>285</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:22">
+    <row r="3" ht="15" spans="1:23">
       <c r="A3" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="22">
         <v>1</v>
@@ -2542,22 +2560,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" s="22">
         <v>1</v>
@@ -2575,7 +2593,7 @@
         <v>.gz</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" s="22">
         <v>1</v>
@@ -2590,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T3" s="22">
         <v>0</v>
@@ -2599,12 +2617,15 @@
         <v>0</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="W3">
+        <v>286</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:22">
+    <row r="4" ht="15" spans="1:23">
       <c r="A4" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="22">
         <v>3</v>
@@ -2616,19 +2637,19 @@
         <v>4</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J4" s="22">
         <v>3</v>
@@ -2645,7 +2666,7 @@
         <v>.txt</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O4" s="22">
         <v>0</v>
@@ -2660,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T4" s="22">
         <v>0</v>
@@ -2669,12 +2690,15 @@
         <v>0</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="W4">
+        <v>287</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:22">
+    <row r="5" ht="15" spans="1:23">
       <c r="A5" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="22">
         <v>3</v>
@@ -2683,22 +2707,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J5" s="22">
         <v>3</v>
@@ -2707,11 +2731,11 @@
         <v>49</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M5" s="39"/>
       <c r="N5" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O5" s="22">
         <v>1</v>
@@ -2726,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T5" s="22">
         <v>0</v>
@@ -2735,12 +2759,15 @@
         <v>0</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="W5">
+        <v>288</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:22">
+    <row r="6" ht="15" spans="1:23">
       <c r="A6" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="22">
         <v>2</v>
@@ -2752,19 +2779,19 @@
         <v>4</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J6" s="22">
         <v>2</v>
@@ -2782,7 +2809,7 @@
         <v>.gz</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O6" s="22">
         <v>0</v>
@@ -2797,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T6" s="22">
         <v>0</v>
@@ -2806,12 +2833,15 @@
         <v>0</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="W6">
+        <v>289</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:22">
+    <row r="7" ht="15" spans="1:23">
       <c r="A7" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" s="22">
         <v>2</v>
@@ -2820,22 +2850,22 @@
         <v>9</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J7" s="22">
         <v>2</v>
@@ -2853,7 +2883,7 @@
         <v>.dat</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O7" s="22">
         <v>1</v>
@@ -2868,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T7" s="22">
         <v>0</v>
@@ -2877,12 +2907,15 @@
         <v>0</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="W7">
+        <v>290</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="1" ht="14.25" spans="1:22">
+    <row r="8" s="15" customFormat="1" ht="14.25" spans="1:23">
       <c r="A8" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="24">
         <v>4</v>
@@ -2894,19 +2927,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J8" s="24">
         <v>4</v>
@@ -2923,7 +2956,7 @@
         <v>.txt</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O8" s="24">
         <v>0</v>
@@ -2938,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T8" s="24">
         <v>0</v>
@@ -2947,12 +2980,15 @@
         <v>0</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="W8">
+        <v>291</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:22">
+    <row r="9" ht="15" spans="1:23">
       <c r="A9" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="22">
         <v>4</v>
@@ -2961,22 +2997,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J9" s="22">
         <v>4</v>
@@ -2994,7 +3030,7 @@
         <v>.dat</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O9" s="22">
         <v>1</v>
@@ -3009,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T9" s="22">
         <v>0</v>
@@ -3018,12 +3054,15 @@
         <v>0</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="W9">
+        <v>292</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:22">
+    <row r="10" ht="15" spans="1:23">
       <c r="A10" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" s="26">
         <v>12</v>
@@ -3035,17 +3074,17 @@
         <v>4</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J10" s="26">
         <v>12</v>
@@ -3060,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="22">
         <v>0</v>
@@ -3075,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T10" s="26">
         <v>0</v>
@@ -3084,12 +3123,15 @@
         <v>0</v>
       </c>
       <c r="V10" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="W10">
+        <v>293</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:22">
+    <row r="11" ht="15" spans="1:23">
       <c r="A11" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" s="26">
         <v>12</v>
@@ -3098,20 +3140,20 @@
         <v>2</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J11" s="26">
         <v>12</v>
@@ -3120,14 +3162,14 @@
         <v>68</v>
       </c>
       <c r="L11" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M11" s="39" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O11" s="22">
         <v>1</v>
@@ -3142,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T11" s="26">
         <v>0</v>
@@ -3151,12 +3193,15 @@
         <v>0</v>
       </c>
       <c r="V11" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="W11">
+        <v>294</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:22">
+    <row r="12" ht="15" spans="1:23">
       <c r="A12" s="21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="22">
         <v>12</v>
@@ -3165,22 +3210,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J12" s="22">
         <v>12</v>
@@ -3189,14 +3234,14 @@
         <v>68</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M12" s="39" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O12" s="22">
         <v>0</v>
@@ -3211,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T12" s="22">
         <v>0</v>
@@ -3220,12 +3265,15 @@
         <v>0</v>
       </c>
       <c r="V12" s="21" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="W12">
+        <v>295</v>
       </c>
     </row>
-    <row r="13" s="16" customFormat="1" ht="15" spans="1:22">
+    <row r="13" s="16" customFormat="1" ht="15" spans="1:23">
       <c r="A13" s="29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B13" s="30">
         <v>18</v>
@@ -3237,19 +3285,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J13" s="30">
         <v>18</v>
@@ -3266,7 +3314,7 @@
         <v>.txt</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O13" s="30">
         <v>0</v>
@@ -3281,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T13" s="30">
         <v>0</v>
@@ -3290,12 +3338,15 @@
         <v>0</v>
       </c>
       <c r="V13" s="29" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="W13">
+        <v>296</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:22">
+    <row r="14" ht="15" spans="1:23">
       <c r="A14" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B14" s="22">
         <v>18</v>
@@ -3304,22 +3355,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J14" s="22">
         <v>18</v>
@@ -3337,7 +3388,7 @@
         <v>.gz</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O14" s="22">
         <v>1</v>
@@ -3352,21 +3403,24 @@
         <v>1</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T14" s="22">
         <v>0</v>
       </c>
       <c r="U14" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="W14">
+        <v>297</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:22">
+    <row r="15" ht="15" spans="1:23">
       <c r="A15" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B15" s="22">
         <v>18</v>
@@ -3375,22 +3429,22 @@
         <v>2</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J15" s="22">
         <v>18</v>
@@ -3408,7 +3462,7 @@
         <v>.log</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O15" s="22">
         <v>1</v>
@@ -3423,21 +3477,24 @@
         <v>1</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="T15" s="22">
         <v>0</v>
       </c>
       <c r="U15" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="W15">
+        <v>298</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:22">
+    <row r="16" ht="15" spans="1:23">
       <c r="A16" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B16" s="22">
         <v>6</v>
@@ -3449,19 +3506,19 @@
         <v>4</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J16" s="22">
         <v>6</v>
@@ -3478,13 +3535,13 @@
         <v>.txt</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O16" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="22">
         <v>1</v>
@@ -3493,21 +3550,24 @@
         <v>1</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T16" s="22">
         <v>0</v>
       </c>
       <c r="U16" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="W16">
+        <v>299</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:22">
+    <row r="17" ht="15" spans="1:23">
       <c r="A17" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B17" s="22">
         <v>6</v>
@@ -3516,22 +3576,22 @@
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J17" s="22">
         <v>6</v>
@@ -3540,11 +3600,11 @@
         <v>70</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="39"/>
       <c r="N17" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O17" s="22">
         <v>1</v>
@@ -3559,21 +3619,24 @@
         <v>1</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T17" s="22">
         <v>0</v>
       </c>
       <c r="U17" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="W17">
+        <v>300</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:22">
+    <row r="18" ht="15" spans="1:23">
       <c r="A18" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B18" s="22">
         <v>6</v>
@@ -3582,22 +3645,22 @@
         <v>2</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J18" s="22">
         <v>6</v>
@@ -3605,14 +3668,14 @@
       <c r="K18" s="37">
         <v>57</v>
       </c>
-      <c r="L18" s="37" t="s">
-        <v>123</v>
+      <c r="L18" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="M18" s="39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O18" s="22">
         <v>0</v>
@@ -3627,21 +3690,24 @@
         <v>1</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T18" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="22">
         <v>0</v>
       </c>
       <c r="V18" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="W18">
+        <v>301</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:22">
+    <row r="19" ht="15" spans="1:23">
       <c r="A19" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B19" s="22">
         <v>7</v>
@@ -3653,19 +3719,19 @@
         <v>4</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J19" s="22">
         <v>7</v>
@@ -3683,7 +3749,7 @@
         <v>.csv</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O19" s="22">
         <v>1</v>
@@ -3698,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="T19" s="22">
         <v>0</v>
@@ -3707,12 +3773,15 @@
         <v>0</v>
       </c>
       <c r="V19" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="W19">
+        <v>302</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:22">
+    <row r="20" ht="15" spans="1:23">
       <c r="A20" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B20" s="22">
         <v>7</v>
@@ -3721,22 +3790,22 @@
         <v>1</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J20" s="22">
         <v>7</v>
@@ -3754,7 +3823,7 @@
         <v>.dat</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O20" s="22">
         <v>1</v>
@@ -3769,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="T20" s="22">
         <v>0</v>
@@ -3778,12 +3847,15 @@
         <v>0</v>
       </c>
       <c r="V20" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="W20">
+        <v>303</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:22">
+    <row r="21" ht="15" spans="1:23">
       <c r="A21" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B21" s="22">
         <v>8</v>
@@ -3795,19 +3867,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J21" s="22">
         <v>8</v>
@@ -3825,7 +3897,7 @@
         <v>.txt</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O21" s="22">
         <v>0</v>
@@ -3840,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T21" s="22">
         <v>0</v>
@@ -3849,12 +3921,15 @@
         <v>0</v>
       </c>
       <c r="V21" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="W21">
+        <v>304</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:22">
+    <row r="22" ht="15" spans="1:23">
       <c r="A22" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B22" s="22">
         <v>8</v>
@@ -3863,22 +3938,22 @@
         <v>1</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J22" s="22">
         <v>8</v>
@@ -3888,14 +3963,14 @@
         <v>17</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M22" s="39" t="str">
         <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F35,0),1)</f>
         <v>.DAT</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O22" s="22">
         <v>0</v>
@@ -3910,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T22" s="22">
         <v>0</v>
@@ -3919,12 +3994,15 @@
         <v>0</v>
       </c>
       <c r="V22" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="W22">
+        <v>305</v>
       </c>
     </row>
-    <row r="23" s="17" customFormat="1" ht="15" spans="1:22">
+    <row r="23" s="17" customFormat="1" ht="15" spans="1:23">
       <c r="A23" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" s="22">
         <v>9</v>
@@ -3936,19 +4014,19 @@
         <v>4</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J23" s="22">
         <v>9</v>
@@ -3965,13 +4043,13 @@
         <v>.txt</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O23" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="22">
         <v>1</v>
@@ -3980,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T23" s="22">
         <v>0</v>
@@ -3989,12 +4067,15 @@
         <v>0</v>
       </c>
       <c r="V23" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="W23">
+        <v>306</v>
       </c>
     </row>
-    <row r="24" s="17" customFormat="1" ht="15" spans="1:22">
+    <row r="24" s="17" customFormat="1" ht="15" spans="1:23">
       <c r="A24" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="22">
         <v>9</v>
@@ -4003,22 +4084,22 @@
         <v>7</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J24" s="22">
         <v>9</v>
@@ -4036,13 +4117,13 @@
         <v>.DAT</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O24" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="22">
         <v>1</v>
@@ -4051,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="T24" s="22">
         <v>0</v>
@@ -4060,12 +4141,15 @@
         <v>0</v>
       </c>
       <c r="V24" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="W24">
+        <v>307</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:22">
+    <row r="25" ht="15" spans="1:23">
       <c r="A25" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B25" s="22">
         <v>10</v>
@@ -4077,19 +4161,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J25" s="22">
         <v>10</v>
@@ -4107,7 +4191,7 @@
         <v>.txt</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O25" s="22">
         <v>1</v>
@@ -4122,21 +4206,24 @@
         <v>1</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T25" s="22">
         <v>0</v>
       </c>
       <c r="U25" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="W25">
+        <v>308</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:22">
+    <row r="26" ht="15" spans="1:23">
       <c r="A26" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B26" s="22">
         <v>10</v>
@@ -4145,22 +4232,22 @@
         <v>1</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J26" s="22">
         <v>10</v>
@@ -4178,7 +4265,7 @@
         <v>.DAT</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O26" s="22">
         <v>1</v>
@@ -4193,21 +4280,24 @@
         <v>1</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="T26" s="22">
         <v>0</v>
       </c>
       <c r="U26" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="W26">
+        <v>309</v>
       </c>
     </row>
-    <row r="27" s="18" customFormat="1" ht="14.25" spans="1:22">
+    <row r="27" s="18" customFormat="1" ht="14.25" spans="1:23">
       <c r="A27" s="18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B27" s="35">
         <v>11</v>
@@ -4219,19 +4309,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J27" s="35">
         <v>11</v>
@@ -4248,7 +4338,7 @@
         <v>.txt</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O27" s="35">
         <v>0</v>
@@ -4263,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T27" s="35">
         <v>0</v>
@@ -4272,12 +4362,15 @@
         <v>0</v>
       </c>
       <c r="V27" s="18" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="W27">
+        <v>310</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:22">
+    <row r="28" ht="15" spans="1:23">
       <c r="A28" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B28" s="22">
         <v>11</v>
@@ -4286,22 +4379,22 @@
         <v>1</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J28" s="22">
         <v>11</v>
@@ -4310,14 +4403,14 @@
         <v>68</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M28" s="39" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F41,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O28" s="22">
         <v>0</v>
@@ -4332,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T28" s="22">
         <v>0</v>
@@ -4341,12 +4434,15 @@
         <v>0</v>
       </c>
       <c r="V28" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="W28">
+        <v>311</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:22">
+    <row r="29" ht="15" spans="1:23">
       <c r="A29" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B29" s="22">
         <v>24</v>
@@ -4358,19 +4454,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J29" s="22">
         <v>24</v>
@@ -4388,7 +4484,7 @@
         <v>.gz</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O29" s="22">
         <v>1</v>
@@ -4403,21 +4499,24 @@
         <v>1</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="T29" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="W29">
+        <v>312</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:22">
+    <row r="30" ht="15" spans="1:23">
       <c r="A30" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B30" s="22">
         <v>24</v>
@@ -4426,22 +4525,22 @@
         <v>1</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J30" s="22">
         <v>24</v>
@@ -4450,14 +4549,14 @@
         <v>74</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M30" s="39" t="str">
         <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F65,0),1)</f>
         <v>.DAT</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O30" s="22">
         <v>0</v>
@@ -4472,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="T30" s="22">
         <v>0</v>
@@ -4481,12 +4580,15 @@
         <v>0</v>
       </c>
       <c r="V30" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="W30">
+        <v>313</v>
       </c>
     </row>
-    <row r="31" s="18" customFormat="1" ht="14.25" spans="1:22">
+    <row r="31" s="18" customFormat="1" ht="14.25" spans="1:23">
       <c r="A31" s="18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B31" s="35">
         <v>23</v>
@@ -4498,19 +4600,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J31" s="35">
         <v>23</v>
@@ -4527,7 +4629,7 @@
         <v>.csv</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O31" s="35">
         <v>0</v>
@@ -4542,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="T31" s="35">
         <v>0</v>
@@ -4551,12 +4653,15 @@
         <v>0</v>
       </c>
       <c r="V31" s="18" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="W31">
+        <v>314</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:22">
+    <row r="32" ht="15" spans="1:23">
       <c r="A32" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B32" s="22">
         <v>23</v>
@@ -4565,22 +4670,22 @@
         <v>1</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J32" s="22">
         <v>23</v>
@@ -4589,14 +4694,14 @@
         <v>75</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M32" s="39" t="str">
         <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F63,0),1)</f>
         <v>.DAT</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O32" s="22">
         <v>0</v>
@@ -4611,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="T32" s="22">
         <v>0</v>
@@ -4620,12 +4725,15 @@
         <v>0</v>
       </c>
       <c r="V32" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="W32">
+        <v>315</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:22">
+    <row r="33" ht="15" spans="1:23">
       <c r="A33" s="21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B33" s="22">
         <v>15</v>
@@ -4637,19 +4745,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J33" s="22">
         <v>15</v>
@@ -4667,7 +4775,7 @@
         <v>.txt</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O33" s="22">
         <v>1</v>
@@ -4682,21 +4790,24 @@
         <v>1</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="T33" s="22">
         <v>0</v>
       </c>
       <c r="U33" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="21" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="W33">
+        <v>316</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:22">
+    <row r="34" ht="15" spans="1:23">
       <c r="A34" s="21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B34" s="22">
         <v>15</v>
@@ -4705,22 +4816,22 @@
         <v>1</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J34" s="22">
         <v>15</v>
@@ -4730,14 +4841,14 @@
         <v>3</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M34" s="39" t="str">
         <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F45,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O34" s="22">
         <v>0</v>
@@ -4752,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T34" s="22">
         <v>0</v>
@@ -4761,12 +4872,15 @@
         <v>0</v>
       </c>
       <c r="V34" s="21" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="W34">
+        <v>317</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:22">
+    <row r="35" ht="15" spans="1:23">
       <c r="A35" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B35" s="22">
         <v>16</v>
@@ -4778,19 +4892,19 @@
         <v>4</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J35" s="22">
         <v>16</v>
@@ -4807,7 +4921,7 @@
         <v>.txt</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O35" s="22">
         <v>0</v>
@@ -4822,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T35" s="22">
         <v>0</v>
@@ -4831,12 +4945,15 @@
         <v>0</v>
       </c>
       <c r="V35" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="W35">
+        <v>318</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:22">
+    <row r="36" ht="15" spans="1:23">
       <c r="A36" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B36" s="22">
         <v>16</v>
@@ -4845,22 +4962,22 @@
         <v>2</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J36" s="22">
         <v>16</v>
@@ -4870,14 +4987,14 @@
         <v>3</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M36" s="39" t="str">
         <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F47,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O36" s="22">
         <v>0</v>
@@ -4892,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="T36" s="22">
         <v>0</v>
@@ -4901,12 +5018,15 @@
         <v>0</v>
       </c>
       <c r="V36" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="W36">
+        <v>319</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:22">
+    <row r="37" ht="15" spans="1:23">
       <c r="A37" s="21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B37" s="22">
         <v>17</v>
@@ -4918,19 +5038,19 @@
         <v>4</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J37" s="22">
         <v>17</v>
@@ -4942,10 +5062,10 @@
         <v>0</v>
       </c>
       <c r="M37" s="39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O37" s="22">
         <v>0</v>
@@ -4960,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="21" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="T37" s="22">
         <v>0</v>
@@ -4969,12 +5089,15 @@
         <v>0</v>
       </c>
       <c r="V37" s="21" t="s">
-        <v>225</v>
+        <v>227</v>
+      </c>
+      <c r="W37">
+        <v>320</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:22">
+    <row r="38" ht="15" spans="1:23">
       <c r="A38" s="21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B38" s="22">
         <v>17</v>
@@ -4983,22 +5106,22 @@
         <v>1</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J38" s="22">
         <v>17</v>
@@ -5008,14 +5131,14 @@
         <v>17</v>
       </c>
       <c r="L38" s="38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M38" s="39" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F49,0),1)</f>
         <v>.DAT</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O38" s="22">
         <v>1</v>
@@ -5030,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="T38" s="22">
         <v>0</v>
@@ -5039,12 +5162,15 @@
         <v>0</v>
       </c>
       <c r="V38" s="21" t="s">
-        <v>225</v>
+        <v>227</v>
+      </c>
+      <c r="W38">
+        <v>321</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:22">
+    <row r="39" ht="15" spans="1:23">
       <c r="A39" s="21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B39" s="22">
         <v>20</v>
@@ -5056,19 +5182,19 @@
         <v>4</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J39" s="22">
         <v>20</v>
@@ -5086,7 +5212,7 @@
         <v>.csv</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O39" s="22">
         <v>1</v>
@@ -5101,21 +5227,24 @@
         <v>1</v>
       </c>
       <c r="S39" s="21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="T39" s="22">
         <v>0</v>
       </c>
       <c r="U39" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="21" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="W39">
+        <v>322</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:22">
+    <row r="40" ht="15" spans="1:23">
       <c r="A40" s="21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B40" s="22">
         <v>20</v>
@@ -5124,22 +5253,22 @@
         <v>1</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J40" s="22">
         <v>20</v>
@@ -5149,14 +5278,14 @@
         <v>3</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M40" s="39" t="str">
         <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F56,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O40" s="22">
         <v>0</v>
@@ -5171,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T40" s="22">
         <v>0</v>
@@ -5180,12 +5309,15 @@
         <v>0</v>
       </c>
       <c r="V40" s="21" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="W40">
+        <v>323</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:22">
+    <row r="41" ht="15" spans="1:23">
       <c r="A41" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B41" s="22">
         <v>21</v>
@@ -5197,19 +5329,19 @@
         <v>4</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J41" s="22">
         <v>21</v>
@@ -5226,7 +5358,7 @@
         <v>.txt</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O41" s="22">
         <v>0</v>
@@ -5241,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T41" s="22">
         <v>0</v>
@@ -5250,12 +5382,15 @@
         <v>0</v>
       </c>
       <c r="V41" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="W41">
+        <v>324</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:22">
+    <row r="42" ht="15" spans="1:23">
       <c r="A42" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B42" s="22">
         <v>21</v>
@@ -5264,22 +5399,22 @@
         <v>1</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J42" s="22">
         <v>21</v>
@@ -5297,7 +5432,7 @@
         <v>.dat</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O42" s="22">
         <v>0</v>
@@ -5312,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T42" s="22">
         <v>0</v>
@@ -5321,36 +5456,39 @@
         <v>0</v>
       </c>
       <c r="V42" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="W42">
+        <v>325</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:22">
+    <row r="43" ht="15" spans="1:23">
       <c r="A43" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B43" s="22">
         <v>19</v>
       </c>
       <c r="C43" s="34">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J43" s="22">
         <v>19</v>
@@ -5368,7 +5506,7 @@
         <v>.txt</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O43" s="22">
         <v>1</v>
@@ -5383,45 +5521,48 @@
         <v>1</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T43" s="22">
         <v>0</v>
       </c>
       <c r="U43" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="W43">
+        <v>326</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:22">
+    <row r="44" ht="15" spans="1:23">
       <c r="A44" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B44" s="22">
         <v>19</v>
       </c>
       <c r="C44" s="34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J44" s="22">
         <v>19</v>
@@ -5431,14 +5572,14 @@
         <v>3</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M44" s="39" t="str">
         <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F54,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O44" s="22">
         <v>0</v>
@@ -5453,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T44" s="22">
         <v>0</v>
@@ -5462,12 +5603,15 @@
         <v>0</v>
       </c>
       <c r="V44" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="W44">
+        <v>327</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:22">
+    <row r="45" ht="15" spans="1:23">
       <c r="A45" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B45" s="22">
         <v>26</v>
@@ -5479,19 +5623,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J45" s="22">
         <v>26</v>
@@ -5509,7 +5653,7 @@
         <v>.gz</v>
       </c>
       <c r="N45" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O45" s="22">
         <v>1</v>
@@ -5524,21 +5668,24 @@
         <v>1</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T45" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="W45">
+        <v>328</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:22">
+    <row r="46" ht="15" spans="1:23">
       <c r="A46" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B46" s="22">
         <v>26</v>
@@ -5547,22 +5694,22 @@
         <v>9</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J46" s="22">
         <v>26</v>
@@ -5580,7 +5727,7 @@
         <v>.DAT</v>
       </c>
       <c r="N46" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O46" s="22">
         <v>0</v>
@@ -5595,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="T46" s="22">
         <v>0</v>
@@ -5604,12 +5751,15 @@
         <v>0</v>
       </c>
       <c r="V46" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="W46">
+        <v>329</v>
       </c>
     </row>
-    <row r="47" s="15" customFormat="1" ht="14.25" spans="1:22">
+    <row r="47" s="15" customFormat="1" ht="14.25" spans="1:23">
       <c r="A47" s="15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B47" s="24">
         <v>22</v>
@@ -5621,19 +5771,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J47" s="24">
         <v>22</v>
@@ -5650,7 +5800,7 @@
         <v>.txt</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O47" s="24">
         <v>0</v>
@@ -5665,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T47" s="24">
         <v>0</v>
@@ -5674,12 +5824,15 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="W47">
+        <v>330</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:22">
+    <row r="48" ht="15" spans="1:23">
       <c r="A48" s="21" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B48" s="22">
         <v>22</v>
@@ -5688,22 +5841,22 @@
         <v>1</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J48" s="22">
         <v>22</v>
@@ -5721,7 +5874,7 @@
         <v>.dat</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O48" s="22">
         <v>1</v>
@@ -5736,21 +5889,24 @@
         <v>1</v>
       </c>
       <c r="S48" s="21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="T48" s="22">
         <v>0</v>
       </c>
       <c r="U48" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="21" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="W48">
+        <v>331</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:22">
+    <row r="49" ht="15" spans="1:23">
       <c r="A49" s="21" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B49" s="22">
         <v>22</v>
@@ -5759,22 +5915,22 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J49" s="22">
         <v>22</v>
@@ -5792,7 +5948,7 @@
         <v>.log</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O49" s="22">
         <v>1</v>
@@ -5807,21 +5963,24 @@
         <v>1</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="T49" s="22">
         <v>0</v>
       </c>
       <c r="U49" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="21" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="W49">
+        <v>332</v>
       </c>
     </row>
-    <row r="50" s="19" customFormat="1" ht="14.25" spans="1:22">
+    <row r="50" s="19" customFormat="1" ht="14.25" spans="1:23">
       <c r="A50" s="19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B50" s="36">
         <v>25</v>
@@ -5833,19 +5992,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J50" s="36">
         <v>25</v>
@@ -5858,7 +6017,7 @@
       </c>
       <c r="M50" s="51"/>
       <c r="N50" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O50" s="36">
         <v>0</v>
@@ -5873,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T50" s="36">
         <v>0</v>
@@ -5882,12 +6041,15 @@
         <v>0</v>
       </c>
       <c r="V50" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="W50">
+        <v>333</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:22">
+    <row r="51" ht="15" spans="1:23">
       <c r="A51" s="21" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B51" s="22">
         <v>25</v>
@@ -5896,22 +6058,22 @@
         <v>1</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J51" s="22">
         <v>25</v>
@@ -5928,7 +6090,7 @@
         <v>.dat</v>
       </c>
       <c r="N51" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O51" s="22">
         <v>0</v>
@@ -5943,21 +6105,24 @@
         <v>1</v>
       </c>
       <c r="S51" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="T51" s="22">
         <v>0</v>
       </c>
       <c r="U51" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="W51">
+        <v>334</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:22">
+    <row r="52" ht="15" spans="1:23">
       <c r="A52" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B52" s="22">
         <v>27</v>
@@ -5969,19 +6134,19 @@
         <v>4</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J52" s="22">
         <v>27</v>
@@ -5998,7 +6163,7 @@
         <v>.csv</v>
       </c>
       <c r="N52" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O52" s="22">
         <v>0</v>
@@ -6013,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="T52" s="22">
         <v>0</v>
@@ -6022,12 +6187,15 @@
         <v>0</v>
       </c>
       <c r="V52" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="W52">
+        <v>335</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:22">
+    <row r="53" ht="15" spans="1:23">
       <c r="A53" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B53" s="22">
         <v>27</v>
@@ -6036,22 +6204,22 @@
         <v>1</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J53" s="22">
         <v>27</v>
@@ -6068,7 +6236,7 @@
         <v>.dat</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O53" s="22">
         <v>1</v>
@@ -6083,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="T53" s="22">
         <v>0</v>
@@ -6092,7 +6260,10 @@
         <v>0</v>
       </c>
       <c r="V53" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="W53">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -6124,24 +6295,24 @@
     <row r="1" ht="12.75" customHeight="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -6163,178 +6334,178 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
-        <v>124</v>
+        <v>323</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="2:9">
       <c r="B3" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="9">
         <v>31</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="2:9">
       <c r="B4" s="6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>25</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="6">
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>28</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="2:9">
       <c r="B7" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9">
         <v>27</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="2:9">
       <c r="B9" s="11" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="2:9">
@@ -6342,41 +6513,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="2:9">
       <c r="B11" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="2:9">
@@ -6484,7 +6655,7 @@
     <row r="24" ht="12.75" customHeight="1"/>
     <row r="25" ht="12.75" customHeight="1" spans="3:3">
       <c r="C25" s="14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\allDeployment\cas\_helper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -392,9 +397,6 @@
     <t>RitUtipi9Ras25je</t>
   </si>
   <si>
-    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra</t>
-  </si>
-  <si>
     <t>GNL</t>
   </si>
   <si>
@@ -1023,19 +1025,16 @@
   </si>
   <si>
     <t>PLEASE DO NOT MODIFY ANYTHING IN THIS SHEET</t>
+  </si>
+  <si>
+    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\bogra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1137,12 +1136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans Mono&quot;"/>
@@ -1155,129 +1148,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1316,7 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,158 +1222,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1533,211 +1261,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1778,21 +1309,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="19"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1801,121 +1329,85 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="23"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NE automation data"/>
@@ -1931,16 +1423,12 @@
           <cell r="C2" t="str">
             <v>HUWAEI</v>
           </cell>
-        </row>
-        <row r="2">
           <cell r="E2" t="str">
             <v>.dat</v>
           </cell>
           <cell r="F2" t="str">
             <v>HUWAEI</v>
           </cell>
-        </row>
-        <row r="2">
           <cell r="H2">
             <v>3</v>
           </cell>
@@ -1955,16 +1443,12 @@
           <cell r="C3" t="str">
             <v>GENBAND</v>
           </cell>
-        </row>
-        <row r="3">
           <cell r="E3" t="str">
             <v>.gz</v>
           </cell>
           <cell r="F3" t="str">
             <v>GENBAND</v>
           </cell>
-        </row>
-        <row r="3">
           <cell r="H3">
             <v>31</v>
           </cell>
@@ -1979,16 +1463,12 @@
           <cell r="C4" t="str">
             <v>CATALEYA</v>
           </cell>
-        </row>
-        <row r="4">
           <cell r="E4" t="str">
             <v>.txt</v>
           </cell>
           <cell r="F4" t="str">
             <v>CATALEYA</v>
           </cell>
-        </row>
-        <row r="4">
           <cell r="H4">
             <v>25</v>
           </cell>
@@ -2003,16 +1483,12 @@
           <cell r="C5" t="str">
             <v>ZTE</v>
           </cell>
-        </row>
-        <row r="5">
           <cell r="E5" t="str">
             <v>.DAT</v>
           </cell>
           <cell r="F5" t="str">
             <v>ZTE</v>
           </cell>
-        </row>
-        <row r="5">
           <cell r="H5">
             <v>17</v>
           </cell>
@@ -2027,16 +1503,12 @@
           <cell r="C6" t="str">
             <v>REVE</v>
           </cell>
-        </row>
-        <row r="6">
           <cell r="E6" t="str">
             <v>.csv</v>
           </cell>
           <cell r="F6" t="str">
             <v>REVE</v>
           </cell>
-        </row>
-        <row r="6">
           <cell r="H6">
             <v>28</v>
           </cell>
@@ -2051,16 +1523,12 @@
           <cell r="C7" t="str">
             <v>NOKIA</v>
           </cell>
-        </row>
-        <row r="7">
           <cell r="E7" t="str">
             <v>.DAT</v>
           </cell>
           <cell r="F7" t="str">
             <v>NOKIA</v>
           </cell>
-        </row>
-        <row r="7">
           <cell r="H7">
             <v>36</v>
           </cell>
@@ -2075,16 +1543,12 @@
           <cell r="C8" t="str">
             <v>DIALOGIC</v>
           </cell>
-        </row>
-        <row r="8">
           <cell r="E8" t="str">
             <v>.gz</v>
           </cell>
           <cell r="F8" t="str">
             <v>DIALOGIC</v>
           </cell>
-        </row>
-        <row r="8">
           <cell r="H8">
             <v>27</v>
           </cell>
@@ -2099,16 +1563,12 @@
           <cell r="C9" t="str">
             <v>TELCOBRIDGE</v>
           </cell>
-        </row>
-        <row r="9">
           <cell r="E9" t="str">
             <v>.log</v>
           </cell>
           <cell r="F9" t="str">
             <v>TELCOBRIDGE</v>
           </cell>
-        </row>
-        <row r="9">
           <cell r="H9">
             <v>37</v>
           </cell>
@@ -2123,13 +1583,9 @@
           <cell r="C10" t="str">
             <v>WTL</v>
           </cell>
-        </row>
-        <row r="10">
           <cell r="F10" t="str">
             <v>WTL</v>
           </cell>
-        </row>
-        <row r="10">
           <cell r="H10">
             <v>38</v>
           </cell>
@@ -2144,16 +1600,12 @@
           <cell r="C11" t="str">
             <v>GNEW</v>
           </cell>
-        </row>
-        <row r="11">
           <cell r="E11" t="str">
             <v>.csv</v>
           </cell>
           <cell r="F11" t="str">
             <v>GNEW</v>
           </cell>
-        </row>
-        <row r="11">
           <cell r="H11">
             <v>39</v>
           </cell>
@@ -2364,3903 +1816,3902 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="13.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="19.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="16.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="59.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.7142857142857" customWidth="1"/>
-    <col min="13" max="13" width="14.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="8.57142857142857" customWidth="1"/>
-    <col min="15" max="15" width="15.5714285714286" customWidth="1"/>
-    <col min="16" max="17" width="18.5714285714286" customWidth="1"/>
-    <col min="18" max="18" width="16.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
     <col min="19" max="19" width="43" customWidth="1"/>
-    <col min="20" max="20" width="19.8571428571429" customWidth="1"/>
-    <col min="21" max="21" width="11.2857142857143" customWidth="1"/>
-    <col min="22" max="22" width="25.4285714285714" customWidth="1"/>
-    <col min="23" max="23" width="31.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" customWidth="1"/>
+    <col min="22" max="22" width="25.42578125" customWidth="1"/>
+    <col min="23" max="23" width="31.7109375" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:24">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:24" ht="15">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:23">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:24" ht="15">
+      <c r="A2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22">
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="22">
-        <v>1</v>
-      </c>
-      <c r="K2" s="37">
+      <c r="J2" s="21">
+        <v>1</v>
+      </c>
+      <c r="K2" s="35">
         <v>29</v>
       </c>
-      <c r="L2" s="38" t="str">
+      <c r="L2" s="36" t="str">
         <f t="array" ref="L2">INDEX(Sheet2!$B$2:$C$21,MATCH(G2,Sheet2!$C$2:C21,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M2" s="39" t="str">
+      <c r="M2" s="37" t="str">
         <f t="array" ref="M2">INDEX(Sheet2!$E$2:$F$21,MATCH(G2,Sheet2!$F$2:F21,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="22">
-        <v>0</v>
-      </c>
-      <c r="P2" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="22">
-        <v>1</v>
-      </c>
-      <c r="R2" s="22">
-        <v>1</v>
-      </c>
-      <c r="S2" s="21" t="s">
+      <c r="O2" s="21">
+        <v>0</v>
+      </c>
+      <c r="P2" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>1</v>
+      </c>
+      <c r="R2" s="21">
+        <v>1</v>
+      </c>
+      <c r="S2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="22">
-        <v>0</v>
-      </c>
-      <c r="U2" s="22">
-        <v>0</v>
-      </c>
-      <c r="V2" s="21" t="s">
+      <c r="T2" s="21">
+        <v>0</v>
+      </c>
+      <c r="U2" s="21">
+        <v>0</v>
+      </c>
+      <c r="V2" s="20" t="s">
         <v>23</v>
       </c>
       <c r="W2">
         <v>285</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:23">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:24" ht="15">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="22">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="22">
-        <v>1</v>
-      </c>
-      <c r="K3" s="37">
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="35">
         <f t="array" ref="K3">INDEX(Sheet2!$H$2:$I$21,MATCH(G3,Sheet2!$I$2:I7,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L3" s="38" t="str">
+      <c r="L3" s="36" t="str">
         <f t="array" ref="L3">INDEX(Sheet2!$B$2:$C$21,MATCH(G3,Sheet2!$C$2:C22,0),1)</f>
         <v>VCDR</v>
       </c>
-      <c r="M3" s="39" t="str">
+      <c r="M3" s="37" t="str">
         <f t="array" ref="M3">INDEX(Sheet2!$E$2:$F$21,MATCH(G3,Sheet2!$F$2:F22,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="22">
-        <v>1</v>
-      </c>
-      <c r="P3" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>1</v>
-      </c>
-      <c r="R3" s="22">
-        <v>1</v>
-      </c>
-      <c r="S3" s="21" t="s">
+      <c r="O3" s="21">
+        <v>1</v>
+      </c>
+      <c r="P3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>1</v>
+      </c>
+      <c r="R3" s="21">
+        <v>1</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="22">
-        <v>0</v>
-      </c>
-      <c r="U3" s="22">
-        <v>0</v>
-      </c>
-      <c r="V3" s="21" t="s">
+      <c r="T3" s="21">
+        <v>0</v>
+      </c>
+      <c r="U3" s="21">
+        <v>0</v>
+      </c>
+      <c r="V3" s="20" t="s">
         <v>23</v>
       </c>
       <c r="W3">
         <v>286</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:23">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:24" ht="15">
+      <c r="A4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>3</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>3</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="35">
         <v>690</v>
       </c>
-      <c r="L4" s="38" t="str">
+      <c r="L4" s="36" t="str">
         <f t="array" ref="L4">INDEX(Sheet2!$B$2:$C$21,MATCH(G4,Sheet2!$C$2:C25,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M4" s="39" t="str">
+      <c r="M4" s="37" t="str">
         <f t="array" ref="M4">INDEX(Sheet2!$E$2:$F$21,MATCH(G4,Sheet2!$F$2:F25,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="22">
-        <v>0</v>
-      </c>
-      <c r="P4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>1</v>
-      </c>
-      <c r="R4" s="22">
-        <v>1</v>
-      </c>
-      <c r="S4" s="21" t="s">
+      <c r="O4" s="21">
+        <v>0</v>
+      </c>
+      <c r="P4" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>1</v>
+      </c>
+      <c r="R4" s="21">
+        <v>1</v>
+      </c>
+      <c r="S4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="22">
-        <v>0</v>
-      </c>
-      <c r="U4" s="22">
-        <v>0</v>
-      </c>
-      <c r="V4" s="21" t="s">
+      <c r="T4" s="21">
+        <v>0</v>
+      </c>
+      <c r="U4" s="21">
+        <v>0</v>
+      </c>
+      <c r="V4" s="20" t="s">
         <v>39</v>
       </c>
       <c r="W4">
         <v>287</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:23">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:24" ht="15">
+      <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>3</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="35">
         <v>49</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="21" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="22">
-        <v>1</v>
-      </c>
-      <c r="P5" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>1</v>
-      </c>
-      <c r="R5" s="22">
-        <v>1</v>
-      </c>
-      <c r="S5" s="21" t="s">
+      <c r="O5" s="21">
+        <v>1</v>
+      </c>
+      <c r="P5" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>1</v>
+      </c>
+      <c r="R5" s="21">
+        <v>1</v>
+      </c>
+      <c r="S5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="22">
-        <v>0</v>
-      </c>
-      <c r="U5" s="22">
-        <v>0</v>
-      </c>
-      <c r="V5" s="21" t="s">
+      <c r="T5" s="21">
+        <v>0</v>
+      </c>
+      <c r="U5" s="21">
+        <v>0</v>
+      </c>
+      <c r="V5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="W5">
         <v>288</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:23">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:24" ht="15">
+      <c r="A6" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>10</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>2</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="35">
         <f t="array" ref="K6">INDEX(Sheet2!$H$2:$I$21,MATCH(G6,Sheet2!$I$2:I8,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L6" s="38" t="str">
+      <c r="L6" s="36" t="str">
         <f t="array" ref="L6">INDEX(Sheet2!$B$2:$C$21,MATCH(G6,Sheet2!$C$2:C23,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M6" s="39" t="str">
+      <c r="M6" s="37" t="str">
         <f t="array" ref="M6">INDEX(Sheet2!$E$2:$F$21,MATCH(G6,Sheet2!$F$2:F23,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="22">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>1</v>
-      </c>
-      <c r="R6" s="22">
-        <v>1</v>
-      </c>
-      <c r="S6" s="21" t="s">
+      <c r="O6" s="21">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <v>1</v>
+      </c>
+      <c r="S6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="22">
-        <v>0</v>
-      </c>
-      <c r="U6" s="22">
-        <v>0</v>
-      </c>
-      <c r="V6" s="21" t="s">
+      <c r="T6" s="21">
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
+        <v>0</v>
+      </c>
+      <c r="V6" s="20" t="s">
         <v>52</v>
       </c>
       <c r="W6">
         <v>289</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:23">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:24" ht="15">
+      <c r="A7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>9</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>2</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="35">
         <f t="array" ref="K7">INDEX(Sheet2!$H$2:$I$21,MATCH(G7,Sheet2!$I$2:I9,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L7" s="38" t="str">
+      <c r="L7" s="36" t="str">
         <f t="array" ref="L7">INDEX(Sheet2!$B$2:$C$21,MATCH(G7,Sheet2!$C$2:C24,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M7" s="39" t="str">
+      <c r="M7" s="37" t="str">
         <f t="array" ref="M7">INDEX(Sheet2!$E$2:$F$21,MATCH(G7,Sheet2!$F$2:F24,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="22">
-        <v>1</v>
-      </c>
-      <c r="P7" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>1</v>
-      </c>
-      <c r="R7" s="22">
-        <v>1</v>
-      </c>
-      <c r="S7" s="21" t="s">
+      <c r="O7" s="21">
+        <v>1</v>
+      </c>
+      <c r="P7" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>1</v>
+      </c>
+      <c r="R7" s="21">
+        <v>1</v>
+      </c>
+      <c r="S7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="22">
-        <v>0</v>
-      </c>
-      <c r="U7" s="22">
-        <v>0</v>
-      </c>
-      <c r="V7" s="21" t="s">
+      <c r="T7" s="21">
+        <v>0</v>
+      </c>
+      <c r="U7" s="21">
+        <v>0</v>
+      </c>
+      <c r="V7" s="20" t="s">
         <v>52</v>
       </c>
       <c r="W7">
         <v>290</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:24" s="14" customFormat="1" ht="14.25">
+      <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>4</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <v>4</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="23">
         <v>71</v>
       </c>
-      <c r="L8" s="40" t="str">
+      <c r="L8" s="38" t="str">
         <f t="array" ref="L8">INDEX(Sheet2!$B$2:$C$21,MATCH(G8,Sheet2!$C$2:C27,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M8" s="41" t="str">
+      <c r="M8" s="39" t="str">
         <f t="array" ref="M8">INDEX(Sheet2!$E$2:$F$21,MATCH(G8,Sheet2!$F$2:F27,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="24">
-        <v>0</v>
-      </c>
-      <c r="P8" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>1</v>
-      </c>
-      <c r="R8" s="24">
-        <v>1</v>
-      </c>
-      <c r="S8" s="15" t="s">
+      <c r="O8" s="23">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>1</v>
+      </c>
+      <c r="R8" s="23">
+        <v>1</v>
+      </c>
+      <c r="S8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="T8" s="24">
-        <v>0</v>
-      </c>
-      <c r="U8" s="24">
-        <v>0</v>
-      </c>
-      <c r="V8" s="15" t="s">
+      <c r="T8" s="23">
+        <v>0</v>
+      </c>
+      <c r="U8" s="23">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>65</v>
       </c>
       <c r="W8">
         <v>291</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:23">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:24" ht="15">
+      <c r="A9" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>4</v>
       </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>4</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="35">
         <f t="array" ref="K9">INDEX(Sheet2!$H$2:$I$21,MATCH(G9,Sheet2!$I$2:I13,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L9" s="38" t="str">
+      <c r="L9" s="36" t="str">
         <f t="array" ref="L9">INDEX(Sheet2!$B$2:$C$21,MATCH(G9,Sheet2!$C$2:C28,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M9" s="39" t="str">
+      <c r="M9" s="37" t="str">
         <f t="array" ref="M9">INDEX(Sheet2!$E$2:$F$21,MATCH(G9,Sheet2!$F$2:F28,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="22">
-        <v>1</v>
-      </c>
-      <c r="P9" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>1</v>
-      </c>
-      <c r="R9" s="22">
-        <v>1</v>
-      </c>
-      <c r="S9" s="21" t="s">
+      <c r="O9" s="21">
+        <v>1</v>
+      </c>
+      <c r="P9" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>1</v>
+      </c>
+      <c r="R9" s="21">
+        <v>1</v>
+      </c>
+      <c r="S9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="T9" s="22">
-        <v>0</v>
-      </c>
-      <c r="U9" s="22">
-        <v>0</v>
-      </c>
-      <c r="V9" s="21" t="s">
+      <c r="T9" s="21">
+        <v>0</v>
+      </c>
+      <c r="U9" s="21">
+        <v>0</v>
+      </c>
+      <c r="V9" s="20" t="s">
         <v>65</v>
       </c>
       <c r="W9">
         <v>292</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:23">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:24" ht="15">
+      <c r="A10" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>12</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>3</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <v>12</v>
       </c>
-      <c r="K10" s="42">
-        <v>0</v>
-      </c>
-      <c r="L10" s="43">
-        <v>0</v>
-      </c>
-      <c r="M10" s="44">
-        <v>0</v>
-      </c>
-      <c r="N10" s="25" t="s">
+      <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="41">
+        <v>0</v>
+      </c>
+      <c r="M10" s="42">
+        <v>0</v>
+      </c>
+      <c r="N10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>1</v>
-      </c>
-      <c r="R10" s="26">
-        <v>1</v>
-      </c>
-      <c r="S10" s="25" t="s">
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
+      <c r="P10" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>1</v>
+      </c>
+      <c r="R10" s="25">
+        <v>1</v>
+      </c>
+      <c r="S10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="26">
-        <v>0</v>
-      </c>
-      <c r="U10" s="22">
-        <v>0</v>
-      </c>
-      <c r="V10" s="25" t="s">
+      <c r="T10" s="25">
+        <v>0</v>
+      </c>
+      <c r="U10" s="21">
+        <v>0</v>
+      </c>
+      <c r="V10" s="24" t="s">
         <v>76</v>
       </c>
       <c r="W10">
         <v>293</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:23">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:24" ht="15">
+      <c r="A11" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>12</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>2</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>12</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="40">
         <v>68</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="39" t="str">
+      <c r="M11" s="37" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="22">
-        <v>1</v>
-      </c>
-      <c r="P11" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>1</v>
-      </c>
-      <c r="R11" s="26">
-        <v>1</v>
-      </c>
-      <c r="S11" s="21" t="s">
+      <c r="O11" s="21">
+        <v>1</v>
+      </c>
+      <c r="P11" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>1</v>
+      </c>
+      <c r="R11" s="25">
+        <v>1</v>
+      </c>
+      <c r="S11" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="T11" s="26">
-        <v>0</v>
-      </c>
-      <c r="U11" s="22">
-        <v>0</v>
-      </c>
-      <c r="V11" s="25" t="s">
+      <c r="T11" s="25">
+        <v>0</v>
+      </c>
+      <c r="U11" s="21">
+        <v>0</v>
+      </c>
+      <c r="V11" s="24" t="s">
         <v>76</v>
       </c>
       <c r="W11">
         <v>294</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:23">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:24" ht="15">
+      <c r="A12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>12</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="35">
         <v>68</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="39" t="str">
+      <c r="M12" s="37" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>1</v>
-      </c>
-      <c r="R12" s="22">
-        <v>1</v>
-      </c>
-      <c r="S12" s="21" t="s">
+      <c r="O12" s="21">
+        <v>0</v>
+      </c>
+      <c r="P12" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>1</v>
+      </c>
+      <c r="R12" s="21">
+        <v>1</v>
+      </c>
+      <c r="S12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="T12" s="22">
-        <v>0</v>
-      </c>
-      <c r="U12" s="22">
-        <v>0</v>
-      </c>
-      <c r="V12" s="21" t="s">
+      <c r="T12" s="21">
+        <v>0</v>
+      </c>
+      <c r="U12" s="21">
+        <v>0</v>
+      </c>
+      <c r="V12" s="20" t="s">
         <v>76</v>
       </c>
       <c r="W12">
         <v>295</v>
       </c>
     </row>
-    <row r="13" s="16" customFormat="1" ht="15" spans="1:23">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:24" s="15" customFormat="1" ht="15">
+      <c r="A13" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>18</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <v>3</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="29">
         <v>18</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="43">
         <v>40</v>
       </c>
-      <c r="L13" s="46" t="str">
+      <c r="L13" s="44" t="str">
         <f t="array" ref="L13">INDEX(Sheet2!$B$2:$C$21,MATCH(G13,Sheet2!$C$2:C50,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M13" s="47" t="str">
+      <c r="M13" s="45" t="str">
         <f t="array" ref="M13">INDEX(Sheet2!$E$2:$F$21,MATCH(G13,Sheet2!$F$2:F50,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="30">
-        <v>0</v>
-      </c>
-      <c r="P13" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="30">
-        <v>1</v>
-      </c>
-      <c r="R13" s="30">
-        <v>1</v>
-      </c>
-      <c r="S13" s="29" t="s">
+      <c r="O13" s="29">
+        <v>0</v>
+      </c>
+      <c r="P13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>1</v>
+      </c>
+      <c r="R13" s="29">
+        <v>1</v>
+      </c>
+      <c r="S13" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="T13" s="30">
-        <v>0</v>
-      </c>
-      <c r="U13" s="30">
-        <v>0</v>
-      </c>
-      <c r="V13" s="29" t="s">
+      <c r="T13" s="29">
+        <v>0</v>
+      </c>
+      <c r="U13" s="29">
+        <v>0</v>
+      </c>
+      <c r="V13" s="28" t="s">
         <v>93</v>
       </c>
       <c r="W13">
         <v>296</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:23">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:24" ht="15">
+      <c r="A14" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>18</v>
       </c>
-      <c r="C14" s="22">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <v>18</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="35">
         <f t="array" ref="K14">INDEX(Sheet2!$H$2:$I$21,MATCH(G14,Sheet2!$I$2:I36,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L14" s="38" t="str">
+      <c r="L14" s="36" t="str">
         <f t="array" ref="L14">INDEX(Sheet2!$B$2:$C$21,MATCH(G14,Sheet2!$C$2:C51,0),1)</f>
         <v>VCDR</v>
       </c>
-      <c r="M14" s="39" t="str">
+      <c r="M14" s="37" t="str">
         <f t="array" ref="M14">INDEX(Sheet2!$E$2:$F$21,MATCH(G14,Sheet2!$F$2:F51,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="22">
-        <v>1</v>
-      </c>
-      <c r="P14" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>1</v>
-      </c>
-      <c r="R14" s="22">
-        <v>1</v>
-      </c>
-      <c r="S14" s="21" t="s">
+      <c r="O14" s="21">
+        <v>1</v>
+      </c>
+      <c r="P14" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>1</v>
+      </c>
+      <c r="R14" s="21">
+        <v>1</v>
+      </c>
+      <c r="S14" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="T14" s="22">
-        <v>0</v>
-      </c>
-      <c r="U14" s="22">
-        <v>0</v>
-      </c>
-      <c r="V14" s="21" t="s">
+      <c r="T14" s="21">
+        <v>0</v>
+      </c>
+      <c r="U14" s="21">
+        <v>0</v>
+      </c>
+      <c r="V14" s="20" t="s">
         <v>93</v>
       </c>
       <c r="W14">
         <v>297</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:23">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:24" ht="15">
+      <c r="A15" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>18</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>2</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <v>18</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="35">
         <f t="array" ref="K15">INDEX(Sheet2!$H$2:$I$21,MATCH(G15,Sheet2!$I$2:I37,0),1)</f>
         <v>37</v>
       </c>
-      <c r="L15" s="38" t="str">
+      <c r="L15" s="36" t="str">
         <f t="array" ref="L15">INDEX(Sheet2!$B$2:$C$21,MATCH(G15,Sheet2!$C$2:C52,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M15" s="39" t="str">
+      <c r="M15" s="37" t="str">
         <f t="array" ref="M15">INDEX(Sheet2!$E$2:$F$21,MATCH(G15,Sheet2!$F$2:F52,0),1)</f>
         <v>.log</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="22">
-        <v>1</v>
-      </c>
-      <c r="P15" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>1</v>
-      </c>
-      <c r="R15" s="22">
-        <v>1</v>
-      </c>
-      <c r="S15" s="21" t="s">
+      <c r="O15" s="21">
+        <v>1</v>
+      </c>
+      <c r="P15" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>0</v>
+      </c>
+      <c r="R15" s="21">
+        <v>1</v>
+      </c>
+      <c r="S15" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="T15" s="22">
-        <v>0</v>
-      </c>
-      <c r="U15" s="22">
-        <v>0</v>
-      </c>
-      <c r="V15" s="21" t="s">
+      <c r="T15" s="21">
+        <v>0</v>
+      </c>
+      <c r="U15" s="21">
+        <v>0</v>
+      </c>
+      <c r="V15" s="20" t="s">
         <v>93</v>
       </c>
       <c r="W15">
         <v>298</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:23">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:24" ht="15">
+      <c r="A16" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>6</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>3</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>6</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="35">
         <v>32</v>
       </c>
-      <c r="L16" s="38" t="str">
+      <c r="L16" s="36" t="str">
         <f t="array" ref="L16">INDEX(Sheet2!$B$2:$C$21,MATCH(G16,Sheet2!$C$2:C29,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M16" s="39" t="str">
+      <c r="M16" s="37" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F29,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="22">
-        <v>1</v>
-      </c>
-      <c r="P16" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>1</v>
-      </c>
-      <c r="R16" s="22">
-        <v>1</v>
-      </c>
-      <c r="S16" s="21" t="s">
+      <c r="O16" s="21">
+        <v>1</v>
+      </c>
+      <c r="P16" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>1</v>
+      </c>
+      <c r="R16" s="21">
+        <v>1</v>
+      </c>
+      <c r="S16" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="T16" s="22">
-        <v>0</v>
-      </c>
-      <c r="U16" s="22">
-        <v>0</v>
-      </c>
-      <c r="V16" s="21" t="s">
+      <c r="T16" s="21">
+        <v>0</v>
+      </c>
+      <c r="U16" s="21">
+        <v>0</v>
+      </c>
+      <c r="V16" s="20" t="s">
         <v>110</v>
       </c>
       <c r="W16">
         <v>299</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:23">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:23" ht="15">
+      <c r="A17" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>6</v>
       </c>
-      <c r="C17" s="22">
-        <v>1</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <v>6</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="35">
         <v>70</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="21" t="s">
+      <c r="M17" s="37"/>
+      <c r="N17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="22">
-        <v>1</v>
-      </c>
-      <c r="P17" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>1</v>
-      </c>
-      <c r="R17" s="22">
-        <v>1</v>
-      </c>
-      <c r="S17" s="21" t="s">
+      <c r="O17" s="21">
+        <v>1</v>
+      </c>
+      <c r="P17" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>1</v>
+      </c>
+      <c r="R17" s="21">
+        <v>1</v>
+      </c>
+      <c r="S17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="T17" s="22">
-        <v>0</v>
-      </c>
-      <c r="U17" s="22">
-        <v>0</v>
-      </c>
-      <c r="V17" s="21" t="s">
+      <c r="T17" s="21">
+        <v>0</v>
+      </c>
+      <c r="U17" s="21">
+        <v>0</v>
+      </c>
+      <c r="V17" s="20" t="s">
         <v>110</v>
       </c>
       <c r="W17">
         <v>300</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:23">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="38" customFormat="1" ht="14.25">
+      <c r="A18" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="23">
         <v>6</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="23">
         <v>2</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J18" s="23">
+        <v>6</v>
+      </c>
+      <c r="K18" s="23">
+        <v>57</v>
+      </c>
+      <c r="L18" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="22">
-        <v>6</v>
-      </c>
-      <c r="K18" s="37">
-        <v>57</v>
-      </c>
-      <c r="L18" s="38" t="s">
+      <c r="M18" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="N18" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="23">
+        <v>0</v>
+      </c>
+      <c r="P18" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>0</v>
+      </c>
+      <c r="R18" s="23">
+        <v>1</v>
+      </c>
+      <c r="S18" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="N18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="22">
-        <v>0</v>
-      </c>
-      <c r="P18" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>1</v>
-      </c>
-      <c r="R18" s="22">
-        <v>1</v>
-      </c>
-      <c r="S18" s="21" t="s">
+      <c r="T18" s="23">
+        <v>1</v>
+      </c>
+      <c r="U18" s="23">
+        <v>0</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="W18" s="38">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15">
+      <c r="A19" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="T18" s="22">
-        <v>1</v>
-      </c>
-      <c r="U18" s="22">
-        <v>0</v>
-      </c>
-      <c r="V18" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="W18">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:23">
-      <c r="A19" s="21" t="s">
+      <c r="B19" s="21">
+        <v>7</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="22">
+      <c r="F19" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="21">
         <v>7</v>
       </c>
-      <c r="C19" s="22">
-        <v>2</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="22">
-        <v>7</v>
-      </c>
-      <c r="K19" s="37">
+      <c r="K19" s="35">
         <f t="array" ref="K19">INDEX(Sheet2!$H$2:$I$21,MATCH(G19,Sheet2!$I$2:I17,0),1)</f>
         <v>28</v>
       </c>
-      <c r="L19" s="38" t="str">
+      <c r="L19" s="36" t="str">
         <f t="array" ref="L19">INDEX(Sheet2!$B$2:$C$21,MATCH(G19,Sheet2!$C$2:C32,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M19" s="39" t="str">
+      <c r="M19" s="37" t="str">
         <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F32,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="22">
-        <v>1</v>
-      </c>
-      <c r="P19" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>1</v>
-      </c>
-      <c r="R19" s="22">
-        <v>1</v>
-      </c>
-      <c r="S19" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="T19" s="22">
-        <v>0</v>
-      </c>
-      <c r="U19" s="22">
-        <v>0</v>
-      </c>
-      <c r="V19" s="21" t="s">
-        <v>128</v>
+      <c r="O19" s="21">
+        <v>1</v>
+      </c>
+      <c r="P19" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>1</v>
+      </c>
+      <c r="R19" s="21">
+        <v>1</v>
+      </c>
+      <c r="S19" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="T19" s="21">
+        <v>0</v>
+      </c>
+      <c r="U19" s="21">
+        <v>0</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="W19">
         <v>302</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:23">
-      <c r="A20" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="22">
+    <row r="20" spans="1:23" ht="15">
+      <c r="A20" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="21">
         <v>7</v>
       </c>
-      <c r="C20" s="22">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="G20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="21" t="s">
+      <c r="I20" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <v>7</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="35">
         <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I18,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L20" s="38" t="str">
+      <c r="L20" s="36" t="str">
         <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C33,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M20" s="39" t="str">
+      <c r="M20" s="37" t="str">
         <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F33,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O20" s="22">
-        <v>1</v>
-      </c>
-      <c r="P20" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>1</v>
-      </c>
-      <c r="R20" s="22">
-        <v>1</v>
-      </c>
-      <c r="S20" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="T20" s="22">
-        <v>0</v>
-      </c>
-      <c r="U20" s="22">
-        <v>0</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>128</v>
+      <c r="O20" s="21">
+        <v>1</v>
+      </c>
+      <c r="P20" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>1</v>
+      </c>
+      <c r="R20" s="21">
+        <v>1</v>
+      </c>
+      <c r="S20" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="T20" s="21">
+        <v>0</v>
+      </c>
+      <c r="U20" s="21">
+        <v>0</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="W20">
         <v>303</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:23">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:23" ht="15">
+      <c r="A21" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="21">
+        <v>8</v>
+      </c>
+      <c r="C21" s="21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="22">
+      <c r="F21" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="21">
         <v>8</v>
       </c>
-      <c r="C21" s="22">
-        <v>2</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="22">
-        <v>8</v>
-      </c>
-      <c r="K21" s="37">
+      <c r="K21" s="35">
         <f t="array" ref="K21">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G21,[1]Sheet2!$I$2:I19,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L21" s="38" t="str">
+      <c r="L21" s="36" t="str">
         <f t="array" ref="L21">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G21,[1]Sheet2!$C$2:C34,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M21" s="39" t="str">
+      <c r="M21" s="37" t="str">
         <f t="array" ref="M21">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G21,[1]Sheet2!$F$2:F34,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="22">
-        <v>0</v>
-      </c>
-      <c r="P21" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="22">
-        <v>1</v>
-      </c>
-      <c r="R21" s="22">
-        <v>1</v>
-      </c>
-      <c r="S21" s="21" t="s">
+      <c r="O21" s="21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>1</v>
+      </c>
+      <c r="R21" s="21">
+        <v>1</v>
+      </c>
+      <c r="S21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="22">
-        <v>0</v>
-      </c>
-      <c r="U21" s="22">
-        <v>0</v>
-      </c>
-      <c r="V21" s="21" t="s">
-        <v>139</v>
+      <c r="T21" s="21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="21">
+        <v>0</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="W21">
         <v>304</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:23">
-      <c r="A22" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="22">
+    <row r="22" spans="1:23" ht="15">
+      <c r="A22" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="21">
         <v>8</v>
       </c>
-      <c r="C22" s="22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="G22" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="H22" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="I22" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <v>8</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="35">
         <f t="array" ref="K22">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G22,[1]Sheet2!$I$2:I20,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L22" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="M22" s="39" t="str">
+      <c r="L22" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" s="37" t="str">
         <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F35,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="22">
-        <v>1</v>
-      </c>
-      <c r="R22" s="22">
-        <v>1</v>
-      </c>
-      <c r="S22" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="T22" s="22">
-        <v>0</v>
-      </c>
-      <c r="U22" s="22">
-        <v>0</v>
-      </c>
-      <c r="V22" s="21" t="s">
-        <v>139</v>
+      <c r="O22" s="21">
+        <v>0</v>
+      </c>
+      <c r="P22" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>1</v>
+      </c>
+      <c r="R22" s="21">
+        <v>1</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="T22" s="21">
+        <v>0</v>
+      </c>
+      <c r="U22" s="21">
+        <v>0</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="W22">
         <v>305</v>
       </c>
     </row>
-    <row r="23" s="17" customFormat="1" ht="15" spans="1:23">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:23" s="16" customFormat="1" ht="15">
+      <c r="A23" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="21">
+        <v>9</v>
+      </c>
+      <c r="C23" s="32">
+        <v>18</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="22">
+      <c r="F23" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="21">
         <v>9</v>
       </c>
-      <c r="C23" s="34">
-        <v>18</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="J23" s="22">
-        <v>9</v>
-      </c>
-      <c r="K23" s="37">
+      <c r="K23" s="35">
         <v>30</v>
       </c>
-      <c r="L23" s="38" t="str">
+      <c r="L23" s="36" t="str">
         <f t="array" ref="L23">INDEX(Sheet2!$B$2:$C$21,MATCH(G23,Sheet2!$C$2:C36,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M23" s="39" t="str">
+      <c r="M23" s="37" t="str">
         <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F36,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="22">
-        <v>0</v>
-      </c>
-      <c r="P23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="22">
-        <v>1</v>
-      </c>
-      <c r="R23" s="22">
-        <v>1</v>
-      </c>
-      <c r="S23" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="T23" s="22">
-        <v>0</v>
-      </c>
-      <c r="U23" s="22">
-        <v>0</v>
-      </c>
-      <c r="V23" s="21" t="s">
-        <v>151</v>
+      <c r="O23" s="21">
+        <v>0</v>
+      </c>
+      <c r="P23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>1</v>
+      </c>
+      <c r="R23" s="21">
+        <v>1</v>
+      </c>
+      <c r="S23" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="T23" s="21">
+        <v>0</v>
+      </c>
+      <c r="U23" s="21">
+        <v>0</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="W23">
         <v>306</v>
       </c>
     </row>
-    <row r="24" s="17" customFormat="1" ht="15" spans="1:23">
-      <c r="A24" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="22">
+    <row r="24" spans="1:23" s="16" customFormat="1" ht="15">
+      <c r="A24" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="21">
         <v>9</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="32">
         <v>7</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="G24" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="21" t="s">
+      <c r="I24" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>9</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="35">
         <f t="array" ref="K24">INDEX(Sheet2!$H$2:$I$21,MATCH(G24,Sheet2!$I$2:I22,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L24" s="38" t="str">
+      <c r="L24" s="36" t="str">
         <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C37,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M24" s="39" t="str">
+      <c r="M24" s="37" t="str">
         <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F37,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="22">
-        <v>1</v>
-      </c>
-      <c r="P24" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>1</v>
-      </c>
-      <c r="R24" s="22">
-        <v>1</v>
-      </c>
-      <c r="S24" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="T24" s="22">
-        <v>0</v>
-      </c>
-      <c r="U24" s="22">
-        <v>0</v>
-      </c>
-      <c r="V24" s="21" t="s">
-        <v>151</v>
+      <c r="O24" s="21">
+        <v>1</v>
+      </c>
+      <c r="P24" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>1</v>
+      </c>
+      <c r="R24" s="21">
+        <v>1</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="T24" s="21">
+        <v>0</v>
+      </c>
+      <c r="U24" s="21">
+        <v>0</v>
+      </c>
+      <c r="V24" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="W24">
         <v>307</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:23">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:23" ht="15">
+      <c r="A25" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="21">
+        <v>10</v>
+      </c>
+      <c r="C25" s="21">
+        <v>2</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="22">
+      <c r="F25" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="21">
         <v>10</v>
       </c>
-      <c r="C25" s="22">
-        <v>2</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="J25" s="22">
-        <v>10</v>
-      </c>
-      <c r="K25" s="37">
+      <c r="K25" s="35">
         <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I23,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L25" s="38" t="str">
+      <c r="L25" s="36" t="str">
         <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C38,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M25" s="39" t="str">
+      <c r="M25" s="37" t="str">
         <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F38,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="N25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="22">
-        <v>1</v>
-      </c>
-      <c r="P25" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="22">
-        <v>1</v>
-      </c>
-      <c r="R25" s="22">
-        <v>1</v>
-      </c>
-      <c r="S25" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="22">
-        <v>0</v>
-      </c>
-      <c r="V25" s="21" t="s">
-        <v>162</v>
+      <c r="O25" s="21">
+        <v>1</v>
+      </c>
+      <c r="P25" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>1</v>
+      </c>
+      <c r="R25" s="21">
+        <v>1</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="T25" s="21">
+        <v>0</v>
+      </c>
+      <c r="U25" s="21">
+        <v>0</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="W25">
         <v>308</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:23">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:23" ht="15">
+      <c r="A26" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="21">
+        <v>10</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="22">
+      <c r="F26" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="21">
         <v>10</v>
       </c>
-      <c r="C26" s="22">
-        <v>1</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="22">
-        <v>10</v>
-      </c>
-      <c r="K26" s="37">
+      <c r="K26" s="35">
         <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I24,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L26" s="38" t="str">
+      <c r="L26" s="36" t="str">
         <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C39,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M26" s="39" t="str">
+      <c r="M26" s="37" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F39,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="22">
-        <v>1</v>
-      </c>
-      <c r="P26" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="22">
-        <v>1</v>
-      </c>
-      <c r="R26" s="22">
-        <v>1</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="T26" s="22">
-        <v>0</v>
-      </c>
-      <c r="U26" s="22">
-        <v>0</v>
-      </c>
-      <c r="V26" s="21" t="s">
-        <v>162</v>
+      <c r="O26" s="21">
+        <v>1</v>
+      </c>
+      <c r="P26" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>1</v>
+      </c>
+      <c r="R26" s="21">
+        <v>1</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="T26" s="21">
+        <v>0</v>
+      </c>
+      <c r="U26" s="21">
+        <v>0</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="W26">
         <v>309</v>
       </c>
     </row>
-    <row r="27" s="18" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:23" s="17" customFormat="1" ht="14.25">
+      <c r="A27" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="33">
+        <v>11</v>
+      </c>
+      <c r="C27" s="33">
+        <v>2</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="35">
+      <c r="F27" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" s="33">
         <v>11</v>
       </c>
-      <c r="C27" s="35">
-        <v>2</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J27" s="35">
-        <v>11</v>
-      </c>
-      <c r="K27" s="35">
+      <c r="K27" s="33">
         <v>730</v>
       </c>
-      <c r="L27" s="48" t="str">
+      <c r="L27" s="46" t="str">
         <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C40,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M27" s="49" t="str">
+      <c r="M27" s="47" t="str">
         <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F40,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="35">
-        <v>0</v>
-      </c>
-      <c r="P27" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="35">
-        <v>1</v>
-      </c>
-      <c r="R27" s="35">
-        <v>1</v>
-      </c>
-      <c r="S27" s="18" t="s">
+      <c r="O27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="33">
+        <v>1</v>
+      </c>
+      <c r="R27" s="33">
+        <v>1</v>
+      </c>
+      <c r="S27" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="T27" s="35">
-        <v>0</v>
-      </c>
-      <c r="U27" s="35">
-        <v>0</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>172</v>
+      <c r="T27" s="33">
+        <v>0</v>
+      </c>
+      <c r="U27" s="33">
+        <v>0</v>
+      </c>
+      <c r="V27" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="W27">
         <v>310</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:23">
-      <c r="A28" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="22">
+    <row r="28" spans="1:23" ht="15">
+      <c r="A28" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="21">
         <v>11</v>
       </c>
-      <c r="C28" s="22">
-        <v>1</v>
-      </c>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="21">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="G28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="21" t="s">
+      <c r="I28" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="J28" s="21">
+        <v>11</v>
+      </c>
+      <c r="K28" s="35">
+        <v>68</v>
+      </c>
+      <c r="L28" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J28" s="22">
-        <v>11</v>
-      </c>
-      <c r="K28" s="37">
-        <v>68</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="M28" s="39" t="str">
+      <c r="M28" s="37" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F41,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O28" s="22">
-        <v>0</v>
-      </c>
-      <c r="P28" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="22">
-        <v>1</v>
-      </c>
-      <c r="R28" s="22">
-        <v>1</v>
-      </c>
-      <c r="S28" s="21" t="s">
+      <c r="O28" s="21">
+        <v>0</v>
+      </c>
+      <c r="P28" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>1</v>
+      </c>
+      <c r="R28" s="21">
+        <v>1</v>
+      </c>
+      <c r="S28" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="T28" s="22">
-        <v>0</v>
-      </c>
-      <c r="U28" s="22">
-        <v>0</v>
-      </c>
-      <c r="V28" s="21" t="s">
-        <v>172</v>
+      <c r="T28" s="21">
+        <v>0</v>
+      </c>
+      <c r="U28" s="21">
+        <v>0</v>
+      </c>
+      <c r="V28" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="W28">
         <v>311</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:23">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:23" ht="15">
+      <c r="A29" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="21">
+        <v>24</v>
+      </c>
+      <c r="C29" s="21">
+        <v>2</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="22">
+      <c r="F29" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" s="21">
         <v>24</v>
       </c>
-      <c r="C29" s="22">
-        <v>2</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="J29" s="22">
-        <v>24</v>
-      </c>
-      <c r="K29" s="37">
+      <c r="K29" s="35">
         <f t="array" ref="K29">INDEX(Sheet2!$H$2:$I$21,MATCH(G29,Sheet2!$I$2:I49,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L29" s="38" t="str">
+      <c r="L29" s="36" t="str">
         <f t="array" ref="L29">INDEX(Sheet2!$B$2:$C$21,MATCH(G29,Sheet2!$C$2:C64,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M29" s="39" t="str">
+      <c r="M29" s="37" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F64,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="22">
-        <v>1</v>
-      </c>
-      <c r="P29" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="22">
-        <v>1</v>
-      </c>
-      <c r="R29" s="22">
-        <v>1</v>
-      </c>
-      <c r="S29" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="T29" s="22">
-        <v>0</v>
-      </c>
-      <c r="U29" s="22">
-        <v>0</v>
-      </c>
-      <c r="V29" s="21" t="s">
-        <v>182</v>
+      <c r="O29" s="21">
+        <v>1</v>
+      </c>
+      <c r="P29" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>0</v>
+      </c>
+      <c r="R29" s="21">
+        <v>1</v>
+      </c>
+      <c r="S29" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="T29" s="21">
+        <v>0</v>
+      </c>
+      <c r="U29" s="21">
+        <v>0</v>
+      </c>
+      <c r="V29" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W29">
         <v>312</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:23">
-      <c r="A30" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="22">
+    <row r="30" spans="1:23" ht="15">
+      <c r="A30" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="21">
         <v>24</v>
       </c>
-      <c r="C30" s="22">
-        <v>1</v>
-      </c>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="G30" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="H30" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="I30" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I30" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>24</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="35">
         <v>74</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="M30" s="39" t="str">
+      <c r="M30" s="37" t="str">
         <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F65,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="22">
-        <v>0</v>
-      </c>
-      <c r="P30" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="22">
-        <v>1</v>
-      </c>
-      <c r="R30" s="22">
-        <v>1</v>
-      </c>
-      <c r="S30" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="T30" s="22">
-        <v>0</v>
-      </c>
-      <c r="U30" s="22">
-        <v>0</v>
-      </c>
-      <c r="V30" s="21" t="s">
-        <v>182</v>
+      <c r="O30" s="21">
+        <v>0</v>
+      </c>
+      <c r="P30" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="21">
+        <v>1</v>
+      </c>
+      <c r="R30" s="21">
+        <v>1</v>
+      </c>
+      <c r="S30" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="T30" s="21">
+        <v>0</v>
+      </c>
+      <c r="U30" s="21">
+        <v>0</v>
+      </c>
+      <c r="V30" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W30">
         <v>313</v>
       </c>
     </row>
-    <row r="31" s="18" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:23" s="17" customFormat="1" ht="14.25">
+      <c r="A31" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="33">
+        <v>23</v>
+      </c>
+      <c r="C31" s="33">
+        <v>2</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="35">
+      <c r="F31" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" s="33">
         <v>23</v>
       </c>
-      <c r="C31" s="35">
-        <v>2</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="J31" s="35">
-        <v>23</v>
-      </c>
-      <c r="K31" s="35">
+      <c r="K31" s="33">
         <v>29</v>
       </c>
-      <c r="L31" s="48" t="str">
+      <c r="L31" s="46" t="str">
         <f t="array" ref="L31">INDEX(Sheet2!$B$2:$C$21,MATCH(G31,Sheet2!$C$2:C62,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M31" s="49" t="str">
+      <c r="M31" s="47" t="str">
         <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F62,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N31" s="18" t="s">
+      <c r="N31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="35">
-        <v>0</v>
-      </c>
-      <c r="P31" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="35">
-        <v>1</v>
-      </c>
-      <c r="R31" s="35">
-        <v>1</v>
-      </c>
-      <c r="S31" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="T31" s="35">
-        <v>0</v>
-      </c>
-      <c r="U31" s="35">
-        <v>0</v>
-      </c>
-      <c r="V31" s="18" t="s">
-        <v>194</v>
+      <c r="O31" s="33">
+        <v>0</v>
+      </c>
+      <c r="P31" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="33">
+        <v>1</v>
+      </c>
+      <c r="R31" s="33">
+        <v>1</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="T31" s="33">
+        <v>0</v>
+      </c>
+      <c r="U31" s="33">
+        <v>0</v>
+      </c>
+      <c r="V31" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="W31">
         <v>314</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:23">
-      <c r="A32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="22">
+    <row r="32" spans="1:23" ht="15">
+      <c r="A32" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="21">
         <v>23</v>
       </c>
-      <c r="C32" s="22">
-        <v>1</v>
-      </c>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="21">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="G32" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="G32" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="H32" s="21" t="s">
+      <c r="I32" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I32" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="J32" s="22">
+      <c r="J32" s="21">
         <v>23</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="35">
         <v>75</v>
       </c>
-      <c r="L32" s="38" t="s">
+      <c r="L32" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="M32" s="39" t="str">
+      <c r="M32" s="37" t="str">
         <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F63,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O32" s="22">
-        <v>0</v>
-      </c>
-      <c r="P32" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="22">
-        <v>1</v>
-      </c>
-      <c r="R32" s="22">
-        <v>1</v>
-      </c>
-      <c r="S32" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="T32" s="22">
-        <v>0</v>
-      </c>
-      <c r="U32" s="22">
-        <v>0</v>
-      </c>
-      <c r="V32" s="21" t="s">
-        <v>194</v>
+      <c r="O32" s="21">
+        <v>0</v>
+      </c>
+      <c r="P32" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>1</v>
+      </c>
+      <c r="R32" s="21">
+        <v>1</v>
+      </c>
+      <c r="S32" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="T32" s="21">
+        <v>0</v>
+      </c>
+      <c r="U32" s="21">
+        <v>0</v>
+      </c>
+      <c r="V32" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="W32">
         <v>315</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:23">
-      <c r="A33" s="21" t="s">
+    <row r="33" spans="1:23" ht="15">
+      <c r="A33" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="21">
+        <v>15</v>
+      </c>
+      <c r="C33" s="21">
+        <v>2</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="22">
+      <c r="F33" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" s="21">
         <v>15</v>
       </c>
-      <c r="C33" s="22">
-        <v>2</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J33" s="22">
-        <v>15</v>
-      </c>
-      <c r="K33" s="37">
+      <c r="K33" s="35">
         <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I29,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L33" s="38" t="str">
+      <c r="L33" s="36" t="str">
         <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C44,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M33" s="39" t="str">
+      <c r="M33" s="37" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F44,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O33" s="22">
-        <v>1</v>
-      </c>
-      <c r="P33" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>1</v>
-      </c>
-      <c r="R33" s="22">
-        <v>1</v>
-      </c>
-      <c r="S33" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="T33" s="22">
-        <v>0</v>
-      </c>
-      <c r="U33" s="22">
-        <v>0</v>
-      </c>
-      <c r="V33" s="21" t="s">
-        <v>205</v>
+      <c r="O33" s="21">
+        <v>1</v>
+      </c>
+      <c r="P33" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>1</v>
+      </c>
+      <c r="R33" s="21">
+        <v>1</v>
+      </c>
+      <c r="S33" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="T33" s="21">
+        <v>0</v>
+      </c>
+      <c r="U33" s="21">
+        <v>0</v>
+      </c>
+      <c r="V33" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="W33">
         <v>316</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:23">
-      <c r="A34" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B34" s="22">
+    <row r="34" spans="1:23" ht="15">
+      <c r="A34" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="21">
         <v>15</v>
       </c>
-      <c r="C34" s="22">
-        <v>1</v>
-      </c>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="21">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="G34" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="21" t="s">
+      <c r="I34" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J34" s="22">
+      <c r="J34" s="21">
         <v>15</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="35">
         <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I30,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L34" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="M34" s="39" t="str">
+      <c r="L34" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="M34" s="37" t="str">
         <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F45,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="22">
-        <v>0</v>
-      </c>
-      <c r="P34" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>1</v>
-      </c>
-      <c r="R34" s="22">
-        <v>1</v>
-      </c>
-      <c r="S34" s="21" t="s">
+      <c r="O34" s="21">
+        <v>0</v>
+      </c>
+      <c r="P34" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="21">
+        <v>1</v>
+      </c>
+      <c r="R34" s="21">
+        <v>1</v>
+      </c>
+      <c r="S34" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="T34" s="22">
-        <v>0</v>
-      </c>
-      <c r="U34" s="22">
-        <v>0</v>
-      </c>
-      <c r="V34" s="21" t="s">
-        <v>205</v>
+      <c r="T34" s="21">
+        <v>0</v>
+      </c>
+      <c r="U34" s="21">
+        <v>0</v>
+      </c>
+      <c r="V34" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="W34">
         <v>317</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:23">
-      <c r="A35" s="21" t="s">
+    <row r="35" spans="1:23" ht="15">
+      <c r="A35" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="21">
+        <v>16</v>
+      </c>
+      <c r="C35" s="21">
+        <v>3</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="22">
+      <c r="F35" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="21">
         <v>16</v>
       </c>
-      <c r="C35" s="22">
-        <v>3</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="J35" s="22">
-        <v>16</v>
-      </c>
-      <c r="K35" s="37">
+      <c r="K35" s="35">
         <v>30</v>
       </c>
-      <c r="L35" s="38" t="str">
+      <c r="L35" s="36" t="str">
         <f t="array" ref="L35">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G35,[1]Sheet2!$C$2:C46,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M35" s="39" t="str">
+      <c r="M35" s="37" t="str">
         <f t="array" ref="M35">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G35,[1]Sheet2!$F$2:F46,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N35" s="21" t="s">
+      <c r="N35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O35" s="22">
-        <v>0</v>
-      </c>
-      <c r="P35" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="22">
-        <v>1</v>
-      </c>
-      <c r="R35" s="22">
-        <v>1</v>
-      </c>
-      <c r="S35" s="21" t="s">
+      <c r="O35" s="21">
+        <v>0</v>
+      </c>
+      <c r="P35" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="21">
+        <v>1</v>
+      </c>
+      <c r="R35" s="21">
+        <v>1</v>
+      </c>
+      <c r="S35" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="T35" s="22">
-        <v>0</v>
-      </c>
-      <c r="U35" s="22">
-        <v>0</v>
-      </c>
-      <c r="V35" s="21" t="s">
-        <v>216</v>
+      <c r="T35" s="21">
+        <v>0</v>
+      </c>
+      <c r="U35" s="21">
+        <v>0</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="W35">
         <v>318</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:23">
-      <c r="A36" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="22">
+    <row r="36" spans="1:23" ht="15">
+      <c r="A36" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="21">
         <v>16</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="21">
         <v>2</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="G36" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G36" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="21" t="s">
+      <c r="I36" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="J36" s="22">
+      <c r="J36" s="21">
         <v>16</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="35">
         <f t="array" ref="K36">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G36,[1]Sheet2!$I$2:I32,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L36" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="M36" s="39" t="str">
+      <c r="L36" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="37" t="str">
         <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F47,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N36" s="21" t="s">
+      <c r="N36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O36" s="22">
-        <v>0</v>
-      </c>
-      <c r="P36" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="22">
-        <v>1</v>
-      </c>
-      <c r="R36" s="22">
-        <v>1</v>
-      </c>
-      <c r="S36" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="T36" s="22">
-        <v>0</v>
-      </c>
-      <c r="U36" s="22">
-        <v>0</v>
-      </c>
-      <c r="V36" s="21" t="s">
-        <v>216</v>
+      <c r="O36" s="21">
+        <v>0</v>
+      </c>
+      <c r="P36" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>1</v>
+      </c>
+      <c r="R36" s="21">
+        <v>1</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="T36" s="21">
+        <v>0</v>
+      </c>
+      <c r="U36" s="21">
+        <v>0</v>
+      </c>
+      <c r="V36" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="W36">
         <v>319</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:23">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:23" ht="15">
+      <c r="A37" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="21">
+        <v>17</v>
+      </c>
+      <c r="C37" s="21">
+        <v>2</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="22">
+      <c r="F37" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="J37" s="21">
         <v>17</v>
       </c>
-      <c r="C37" s="22">
-        <v>2</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="I37" s="21" t="s">
+      <c r="K37" s="35">
+        <v>56</v>
+      </c>
+      <c r="L37" s="36">
+        <v>0</v>
+      </c>
+      <c r="M37" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="J37" s="22">
-        <v>17</v>
-      </c>
-      <c r="K37" s="37">
-        <v>56</v>
-      </c>
-      <c r="L37" s="38">
-        <v>0</v>
-      </c>
-      <c r="M37" s="39" t="s">
+      <c r="N37" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="21">
+        <v>0</v>
+      </c>
+      <c r="P37" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>1</v>
+      </c>
+      <c r="R37" s="21">
+        <v>1</v>
+      </c>
+      <c r="S37" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="N37" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="22">
-        <v>0</v>
-      </c>
-      <c r="P37" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="22">
-        <v>1</v>
-      </c>
-      <c r="R37" s="22">
-        <v>1</v>
-      </c>
-      <c r="S37" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="T37" s="22">
-        <v>0</v>
-      </c>
-      <c r="U37" s="22">
-        <v>0</v>
-      </c>
-      <c r="V37" s="21" t="s">
-        <v>227</v>
+      <c r="T37" s="21">
+        <v>0</v>
+      </c>
+      <c r="U37" s="21">
+        <v>0</v>
+      </c>
+      <c r="V37" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="W37">
         <v>320</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:23">
-      <c r="A38" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B38" s="22">
+    <row r="38" spans="1:23" ht="15">
+      <c r="A38" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="21">
         <v>17</v>
       </c>
-      <c r="C38" s="22">
-        <v>1</v>
-      </c>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="21">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="G38" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="G38" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="21" t="s">
+      <c r="I38" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="I38" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="J38" s="22">
+      <c r="J38" s="21">
         <v>17</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="35">
         <f t="array" ref="K38">INDEX(Sheet2!$H$2:$I$21,MATCH(G38,Sheet2!$I$2:I34,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L38" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="M38" s="39" t="str">
+      <c r="L38" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="M38" s="37" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F49,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N38" s="21" t="s">
+      <c r="N38" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O38" s="22">
-        <v>1</v>
-      </c>
-      <c r="P38" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="22">
-        <v>1</v>
-      </c>
-      <c r="R38" s="22">
-        <v>1</v>
-      </c>
-      <c r="S38" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="T38" s="22">
-        <v>0</v>
-      </c>
-      <c r="U38" s="22">
-        <v>0</v>
-      </c>
-      <c r="V38" s="21" t="s">
-        <v>227</v>
+      <c r="O38" s="21">
+        <v>1</v>
+      </c>
+      <c r="P38" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="21">
+        <v>1</v>
+      </c>
+      <c r="R38" s="21">
+        <v>1</v>
+      </c>
+      <c r="S38" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="T38" s="21">
+        <v>0</v>
+      </c>
+      <c r="U38" s="21">
+        <v>0</v>
+      </c>
+      <c r="V38" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="W38">
         <v>321</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:23">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:23" ht="15">
+      <c r="A39" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="21">
+        <v>20</v>
+      </c>
+      <c r="C39" s="21">
+        <v>2</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B39" s="22">
+      <c r="F39" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="J39" s="21">
         <v>20</v>
       </c>
-      <c r="C39" s="22">
-        <v>2</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="J39" s="22">
-        <v>20</v>
-      </c>
-      <c r="K39" s="37">
+      <c r="K39" s="35">
         <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I40,0),1)</f>
         <v>28</v>
       </c>
-      <c r="L39" s="38" t="str">
+      <c r="L39" s="36" t="str">
         <f t="array" ref="L39">INDEX(Sheet2!$B$2:$C$21,MATCH(G39,Sheet2!$C$2:C55,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M39" s="39" t="str">
+      <c r="M39" s="37" t="str">
         <f t="array" ref="M39">INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F55,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N39" s="21" t="s">
+      <c r="N39" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O39" s="22">
-        <v>1</v>
-      </c>
-      <c r="P39" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="22">
-        <v>1</v>
-      </c>
-      <c r="R39" s="22">
-        <v>1</v>
-      </c>
-      <c r="S39" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="T39" s="22">
-        <v>0</v>
-      </c>
-      <c r="U39" s="22">
-        <v>0</v>
-      </c>
-      <c r="V39" s="21" t="s">
-        <v>241</v>
+      <c r="O39" s="21">
+        <v>1</v>
+      </c>
+      <c r="P39" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="21">
+        <v>1</v>
+      </c>
+      <c r="R39" s="21">
+        <v>1</v>
+      </c>
+      <c r="S39" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="T39" s="21">
+        <v>0</v>
+      </c>
+      <c r="U39" s="21">
+        <v>0</v>
+      </c>
+      <c r="V39" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="W39">
         <v>322</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:23">
-      <c r="A40" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" s="22">
+    <row r="40" spans="1:23" ht="15">
+      <c r="A40" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" s="21">
         <v>20</v>
       </c>
-      <c r="C40" s="22">
-        <v>1</v>
-      </c>
-      <c r="D40" s="21" t="s">
+      <c r="C40" s="21">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="G40" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="G40" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="21" t="s">
+      <c r="I40" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I40" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="J40" s="22">
+      <c r="J40" s="21">
         <v>20</v>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="35">
         <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I41,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L40" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="M40" s="39" t="str">
+      <c r="L40" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="M40" s="37" t="str">
         <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F56,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N40" s="21" t="s">
+      <c r="N40" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O40" s="22">
-        <v>0</v>
-      </c>
-      <c r="P40" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="22">
-        <v>1</v>
-      </c>
-      <c r="R40" s="22">
-        <v>1</v>
-      </c>
-      <c r="S40" s="21" t="s">
+      <c r="O40" s="21">
+        <v>0</v>
+      </c>
+      <c r="P40" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="21">
+        <v>1</v>
+      </c>
+      <c r="R40" s="21">
+        <v>1</v>
+      </c>
+      <c r="S40" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="T40" s="22">
-        <v>0</v>
-      </c>
-      <c r="U40" s="22">
-        <v>0</v>
-      </c>
-      <c r="V40" s="21" t="s">
-        <v>241</v>
+      <c r="T40" s="21">
+        <v>0</v>
+      </c>
+      <c r="U40" s="21">
+        <v>0</v>
+      </c>
+      <c r="V40" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="W40">
         <v>323</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:23">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:23" ht="15">
+      <c r="A41" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B41" s="21">
+        <v>21</v>
+      </c>
+      <c r="C41" s="21">
+        <v>2</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="B41" s="22">
+      <c r="F41" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J41" s="21">
         <v>21</v>
       </c>
-      <c r="C41" s="22">
-        <v>2</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="J41" s="22">
-        <v>21</v>
-      </c>
-      <c r="K41" s="37">
+      <c r="K41" s="35">
         <v>30</v>
       </c>
-      <c r="L41" s="38" t="str">
+      <c r="L41" s="36" t="str">
         <f t="array" ref="L41">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G41,[1]Sheet2!$C$2:C57,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M41" s="39" t="str">
+      <c r="M41" s="37" t="str">
         <f t="array" ref="M41">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G41,[1]Sheet2!$F$2:F57,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N41" s="21" t="s">
+      <c r="N41" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="22">
-        <v>0</v>
-      </c>
-      <c r="P41" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="22">
-        <v>1</v>
-      </c>
-      <c r="R41" s="22">
-        <v>1</v>
-      </c>
-      <c r="S41" s="21" t="s">
+      <c r="O41" s="21">
+        <v>0</v>
+      </c>
+      <c r="P41" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="21">
+        <v>1</v>
+      </c>
+      <c r="R41" s="21">
+        <v>1</v>
+      </c>
+      <c r="S41" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="T41" s="22">
-        <v>0</v>
-      </c>
-      <c r="U41" s="22">
-        <v>0</v>
-      </c>
-      <c r="V41" s="21" t="s">
-        <v>252</v>
+      <c r="T41" s="21">
+        <v>0</v>
+      </c>
+      <c r="U41" s="21">
+        <v>0</v>
+      </c>
+      <c r="V41" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="W41">
         <v>324</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:23">
-      <c r="A42" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B42" s="22">
+    <row r="42" spans="1:23" ht="15">
+      <c r="A42" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="21">
         <v>21</v>
       </c>
-      <c r="C42" s="22">
-        <v>1</v>
-      </c>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="21">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="G42" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="21" t="s">
+      <c r="I42" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I42" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="J42" s="22">
+      <c r="J42" s="21">
         <v>21</v>
       </c>
-      <c r="K42" s="37">
+      <c r="K42" s="35">
         <f t="array" ref="K42">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G42,[1]Sheet2!$I$2:I43,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L42" s="38" t="str">
+      <c r="L42" s="36" t="str">
         <f t="array" ref="L42">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G42,[1]Sheet2!$C$2:C58,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M42" s="39" t="str">
+      <c r="M42" s="37" t="str">
         <f t="array" ref="M42">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G42,[1]Sheet2!$F$2:F58,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N42" s="21" t="s">
+      <c r="N42" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O42" s="22">
-        <v>0</v>
-      </c>
-      <c r="P42" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="22">
-        <v>1</v>
-      </c>
-      <c r="R42" s="22">
-        <v>1</v>
-      </c>
-      <c r="S42" s="21" t="s">
+      <c r="O42" s="21">
+        <v>0</v>
+      </c>
+      <c r="P42" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="21">
+        <v>1</v>
+      </c>
+      <c r="R42" s="21">
+        <v>1</v>
+      </c>
+      <c r="S42" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="T42" s="22">
-        <v>0</v>
-      </c>
-      <c r="U42" s="22">
-        <v>0</v>
-      </c>
-      <c r="V42" s="21" t="s">
-        <v>252</v>
+      <c r="T42" s="21">
+        <v>0</v>
+      </c>
+      <c r="U42" s="21">
+        <v>0</v>
+      </c>
+      <c r="V42" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="W42">
         <v>325</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:23">
-      <c r="A43" s="21" t="s">
+    <row r="43" spans="1:23" ht="15">
+      <c r="A43" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" s="21">
+        <v>19</v>
+      </c>
+      <c r="C43" s="32">
+        <v>2</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B43" s="22">
+      <c r="F43" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="J43" s="21">
         <v>19</v>
       </c>
-      <c r="C43" s="34">
-        <v>2</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="J43" s="22">
-        <v>19</v>
-      </c>
-      <c r="K43" s="37">
+      <c r="K43" s="35">
         <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I38,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L43" s="38" t="str">
+      <c r="L43" s="36" t="str">
         <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C53,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M43" s="39" t="str">
+      <c r="M43" s="37" t="str">
         <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F53,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N43" s="21" t="s">
+      <c r="N43" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O43" s="22">
-        <v>1</v>
-      </c>
-      <c r="P43" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="22">
-        <v>1</v>
-      </c>
-      <c r="R43" s="22">
-        <v>1</v>
-      </c>
-      <c r="S43" s="21" t="s">
+      <c r="O43" s="21">
+        <v>1</v>
+      </c>
+      <c r="P43" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="21">
+        <v>1</v>
+      </c>
+      <c r="R43" s="21">
+        <v>1</v>
+      </c>
+      <c r="S43" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="T43" s="22">
-        <v>0</v>
-      </c>
-      <c r="U43" s="22">
-        <v>0</v>
-      </c>
-      <c r="V43" s="21" t="s">
-        <v>261</v>
+      <c r="T43" s="21">
+        <v>0</v>
+      </c>
+      <c r="U43" s="21">
+        <v>0</v>
+      </c>
+      <c r="V43" s="20" t="s">
+        <v>260</v>
       </c>
       <c r="W43">
         <v>326</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:23">
-      <c r="A44" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44" s="22">
+    <row r="44" spans="1:23" ht="15">
+      <c r="A44" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="21">
         <v>19</v>
       </c>
-      <c r="C44" s="34">
-        <v>1</v>
-      </c>
-      <c r="D44" s="21" t="s">
+      <c r="C44" s="32">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="G44" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="G44" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H44" s="21" t="s">
+      <c r="I44" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="I44" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="J44" s="22">
+      <c r="J44" s="21">
         <v>19</v>
       </c>
-      <c r="K44" s="37">
+      <c r="K44" s="35">
         <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I39,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L44" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="M44" s="39" t="str">
+      <c r="L44" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M44" s="37" t="str">
         <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F54,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="N44" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="O44" s="22">
-        <v>0</v>
-      </c>
-      <c r="P44" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="22">
-        <v>1</v>
-      </c>
-      <c r="R44" s="22">
-        <v>1</v>
-      </c>
-      <c r="S44" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="T44" s="22">
-        <v>0</v>
-      </c>
-      <c r="U44" s="22">
-        <v>0</v>
-      </c>
-      <c r="V44" s="21" t="s">
-        <v>261</v>
+      <c r="O44" s="21">
+        <v>0</v>
+      </c>
+      <c r="P44" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="21">
+        <v>1</v>
+      </c>
+      <c r="R44" s="21">
+        <v>1</v>
+      </c>
+      <c r="S44" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="T44" s="21">
+        <v>0</v>
+      </c>
+      <c r="U44" s="21">
+        <v>0</v>
+      </c>
+      <c r="V44" s="20" t="s">
+        <v>260</v>
       </c>
       <c r="W44">
         <v>327</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:23">
-      <c r="A45" s="21" t="s">
+    <row r="45" spans="1:23" ht="15">
+      <c r="A45" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="21">
+        <v>26</v>
+      </c>
+      <c r="C45" s="32">
+        <v>10</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="B45" s="22">
+      <c r="F45" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="J45" s="21">
         <v>26</v>
       </c>
-      <c r="C45" s="34">
-        <v>10</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="J45" s="22">
-        <v>26</v>
-      </c>
-      <c r="K45" s="37">
+      <c r="K45" s="35">
         <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I53,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L45" s="38" t="str">
+      <c r="L45" s="36" t="str">
         <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C68,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M45" s="39" t="str">
+      <c r="M45" s="37" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F68,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N45" s="21" t="s">
+      <c r="N45" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O45" s="22">
-        <v>1</v>
-      </c>
-      <c r="P45" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="22">
-        <v>1</v>
-      </c>
-      <c r="R45" s="22">
-        <v>1</v>
-      </c>
-      <c r="S45" s="21" t="s">
+      <c r="O45" s="21">
+        <v>1</v>
+      </c>
+      <c r="P45" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="21">
+        <v>0</v>
+      </c>
+      <c r="R45" s="21">
+        <v>1</v>
+      </c>
+      <c r="S45" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="T45" s="22">
-        <v>0</v>
-      </c>
-      <c r="U45" s="22">
-        <v>0</v>
-      </c>
-      <c r="V45" s="21" t="s">
-        <v>272</v>
+      <c r="T45" s="21">
+        <v>0</v>
+      </c>
+      <c r="U45" s="21">
+        <v>0</v>
+      </c>
+      <c r="V45" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="W45">
         <v>328</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:23">
-      <c r="A46" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" s="22">
+    <row r="46" spans="1:23" ht="15">
+      <c r="A46" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="21">
         <v>26</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="32">
         <v>9</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="G46" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="G46" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H46" s="21" t="s">
+      <c r="I46" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="I46" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="J46" s="22">
+      <c r="J46" s="21">
         <v>26</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="35">
         <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I54,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L46" s="38" t="str">
+      <c r="L46" s="36" t="str">
         <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C69,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M46" s="39" t="str">
+      <c r="M46" s="37" t="str">
         <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F69,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N46" s="21" t="s">
+      <c r="N46" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O46" s="22">
-        <v>0</v>
-      </c>
-      <c r="P46" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="22">
-        <v>1</v>
-      </c>
-      <c r="R46" s="22">
-        <v>1</v>
-      </c>
-      <c r="S46" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="T46" s="22">
-        <v>0</v>
-      </c>
-      <c r="U46" s="22">
-        <v>0</v>
-      </c>
-      <c r="V46" s="21" t="s">
-        <v>272</v>
+      <c r="O46" s="21">
+        <v>0</v>
+      </c>
+      <c r="P46" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="21">
+        <v>1</v>
+      </c>
+      <c r="R46" s="21">
+        <v>1</v>
+      </c>
+      <c r="S46" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="T46" s="21">
+        <v>0</v>
+      </c>
+      <c r="U46" s="21">
+        <v>0</v>
+      </c>
+      <c r="V46" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="W46">
         <v>329</v>
       </c>
     </row>
-    <row r="47" s="15" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:23" s="14" customFormat="1" ht="14.25">
+      <c r="A47" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="23">
+        <v>22</v>
+      </c>
+      <c r="C47" s="23">
+        <v>3</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B47" s="24">
+      <c r="F47" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="J47" s="23">
         <v>22</v>
       </c>
-      <c r="C47" s="24">
-        <v>3</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="J47" s="24">
-        <v>22</v>
-      </c>
-      <c r="K47" s="24">
+      <c r="K47" s="23">
         <v>72</v>
       </c>
-      <c r="L47" s="40" t="str">
+      <c r="L47" s="38" t="str">
         <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C59,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M47" s="41" t="str">
+      <c r="M47" s="39" t="str">
         <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F59,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N47" s="15" t="s">
+      <c r="N47" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O47" s="24">
-        <v>0</v>
-      </c>
-      <c r="P47" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="24">
-        <v>1</v>
-      </c>
-      <c r="R47" s="24">
-        <v>1</v>
-      </c>
-      <c r="S47" s="15" t="s">
+      <c r="O47" s="23">
+        <v>0</v>
+      </c>
+      <c r="P47" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>1</v>
+      </c>
+      <c r="R47" s="23">
+        <v>1</v>
+      </c>
+      <c r="S47" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="T47" s="24">
-        <v>0</v>
-      </c>
-      <c r="U47" s="24">
-        <v>0</v>
-      </c>
-      <c r="V47" s="15" t="s">
-        <v>282</v>
+      <c r="T47" s="23">
+        <v>0</v>
+      </c>
+      <c r="U47" s="23">
+        <v>0</v>
+      </c>
+      <c r="V47" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="W47">
         <v>330</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:23">
-      <c r="A48" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B48" s="22">
+    <row r="48" spans="1:23" ht="15">
+      <c r="A48" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="21">
         <v>22</v>
       </c>
-      <c r="C48" s="22">
-        <v>1</v>
-      </c>
-      <c r="D48" s="21" t="s">
+      <c r="C48" s="21">
+        <v>1</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="F48" s="21" t="s">
+      <c r="E48" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="G48" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H48" s="21" t="s">
+      <c r="I48" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I48" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="J48" s="22">
+      <c r="J48" s="21">
         <v>22</v>
       </c>
-      <c r="K48" s="37">
+      <c r="K48" s="35">
         <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I45,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L48" s="38" t="str">
+      <c r="L48" s="36" t="str">
         <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C60,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M48" s="39" t="str">
+      <c r="M48" s="37" t="str">
         <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F60,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N48" s="21" t="s">
+      <c r="N48" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O48" s="22">
-        <v>1</v>
-      </c>
-      <c r="P48" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="22">
-        <v>1</v>
-      </c>
-      <c r="R48" s="22">
-        <v>1</v>
-      </c>
-      <c r="S48" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="T48" s="22">
-        <v>0</v>
-      </c>
-      <c r="U48" s="22">
-        <v>0</v>
-      </c>
-      <c r="V48" s="21" t="s">
-        <v>282</v>
+      <c r="O48" s="21">
+        <v>1</v>
+      </c>
+      <c r="P48" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="21">
+        <v>1</v>
+      </c>
+      <c r="R48" s="21">
+        <v>1</v>
+      </c>
+      <c r="S48" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="T48" s="21">
+        <v>0</v>
+      </c>
+      <c r="U48" s="21">
+        <v>0</v>
+      </c>
+      <c r="V48" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="W48">
         <v>331</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:23">
-      <c r="A49" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" s="22">
+    <row r="49" spans="1:23" ht="15">
+      <c r="A49" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="21">
         <v>22</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <v>2</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="F49" s="21" t="s">
+      <c r="E49" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="G49" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="H49" s="21" t="s">
+      <c r="I49" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="I49" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="J49" s="22">
+      <c r="J49" s="21">
         <v>22</v>
       </c>
-      <c r="K49" s="37">
+      <c r="K49" s="35">
         <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I46,0),1)</f>
         <v>37</v>
       </c>
-      <c r="L49" s="38" t="str">
+      <c r="L49" s="36" t="str">
         <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C61,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M49" s="39" t="str">
+      <c r="M49" s="37" t="str">
         <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F61,0),1)</f>
         <v>.log</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="22">
-        <v>1</v>
-      </c>
-      <c r="P49" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="22">
-        <v>1</v>
-      </c>
-      <c r="R49" s="22">
-        <v>1</v>
-      </c>
-      <c r="S49" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="T49" s="22">
-        <v>0</v>
-      </c>
-      <c r="U49" s="22">
-        <v>0</v>
-      </c>
-      <c r="V49" s="21" t="s">
-        <v>282</v>
+      <c r="O49" s="21">
+        <v>1</v>
+      </c>
+      <c r="P49" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="21">
+        <v>0</v>
+      </c>
+      <c r="R49" s="21">
+        <v>1</v>
+      </c>
+      <c r="S49" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="T49" s="21">
+        <v>0</v>
+      </c>
+      <c r="U49" s="21">
+        <v>0</v>
+      </c>
+      <c r="V49" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="W49">
         <v>332</v>
       </c>
     </row>
-    <row r="50" s="19" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:23" s="18" customFormat="1" ht="14.25">
+      <c r="A50" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50" s="34">
+        <v>25</v>
+      </c>
+      <c r="C50" s="34">
+        <v>2</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="B50" s="36">
+      <c r="F50" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="J50" s="34">
         <v>25</v>
       </c>
-      <c r="C50" s="36">
-        <v>2</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I50" s="19" t="s">
+      <c r="K50" s="34">
+        <v>73</v>
+      </c>
+      <c r="L50" s="48">
+        <v>20</v>
+      </c>
+      <c r="M50" s="49"/>
+      <c r="N50" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="34">
+        <v>0</v>
+      </c>
+      <c r="P50" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="34">
+        <v>1</v>
+      </c>
+      <c r="R50" s="34">
+        <v>1</v>
+      </c>
+      <c r="S50" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="J50" s="36">
-        <v>25</v>
-      </c>
-      <c r="K50" s="36">
-        <v>73</v>
-      </c>
-      <c r="L50" s="50">
-        <v>20</v>
-      </c>
-      <c r="M50" s="51"/>
-      <c r="N50" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O50" s="36">
-        <v>0</v>
-      </c>
-      <c r="P50" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="36">
-        <v>1</v>
-      </c>
-      <c r="R50" s="36">
-        <v>1</v>
-      </c>
-      <c r="S50" s="19" t="s">
+      <c r="T50" s="34">
+        <v>0</v>
+      </c>
+      <c r="U50" s="34">
+        <v>0</v>
+      </c>
+      <c r="V50" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="T50" s="36">
-        <v>0</v>
-      </c>
-      <c r="U50" s="36">
-        <v>0</v>
-      </c>
-      <c r="V50" s="19" t="s">
-        <v>304</v>
       </c>
       <c r="W50">
         <v>333</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:23">
-      <c r="A51" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="B51" s="22">
+    <row r="51" spans="1:23" ht="15">
+      <c r="A51" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" s="21">
         <v>25</v>
       </c>
-      <c r="C51" s="22">
-        <v>1</v>
-      </c>
-      <c r="D51" s="21" t="s">
+      <c r="C51" s="21">
+        <v>1</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="F51" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="G51" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H51" s="21" t="s">
+      <c r="I51" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="I51" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="J51" s="22">
+      <c r="J51" s="21">
         <v>25</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="35">
         <f t="array" ref="K51">INDEX(Sheet2!$H$2:$I$21,MATCH(G51,Sheet2!$I$2:I52,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51" s="36">
         <v>2</v>
       </c>
-      <c r="M51" s="39" t="str">
+      <c r="M51" s="37" t="str">
         <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F67,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N51" s="21" t="s">
+      <c r="N51" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O51" s="22">
-        <v>0</v>
-      </c>
-      <c r="P51" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="22">
-        <v>1</v>
-      </c>
-      <c r="R51" s="22">
-        <v>1</v>
-      </c>
-      <c r="S51" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="T51" s="22">
-        <v>0</v>
-      </c>
-      <c r="U51" s="22">
-        <v>0</v>
-      </c>
-      <c r="V51" s="21" t="s">
-        <v>304</v>
+      <c r="O51" s="21">
+        <v>0</v>
+      </c>
+      <c r="P51" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="21">
+        <v>1</v>
+      </c>
+      <c r="R51" s="21">
+        <v>1</v>
+      </c>
+      <c r="S51" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="T51" s="21">
+        <v>0</v>
+      </c>
+      <c r="U51" s="21">
+        <v>0</v>
+      </c>
+      <c r="V51" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="W51">
         <v>334</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:23">
-      <c r="A52" s="21" t="s">
+    <row r="52" spans="1:23" ht="15">
+      <c r="A52" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B52" s="21">
+        <v>27</v>
+      </c>
+      <c r="C52" s="21">
+        <v>2</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B52" s="22">
+      <c r="F52" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="J52" s="21">
         <v>27</v>
       </c>
-      <c r="C52" s="22">
-        <v>2</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="J52" s="22">
-        <v>27</v>
-      </c>
-      <c r="K52" s="37">
+      <c r="K52" s="35">
         <v>29</v>
       </c>
-      <c r="L52" s="38" t="str">
+      <c r="L52" s="36" t="str">
         <f t="array" ref="L52">INDEX(Sheet2!$B$2:$C$21,MATCH(G52,Sheet2!$C$2:C70,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M52" s="39" t="str">
+      <c r="M52" s="37" t="str">
         <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F70,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N52" s="21" t="s">
+      <c r="N52" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O52" s="22">
-        <v>0</v>
-      </c>
-      <c r="P52" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="22">
-        <v>1</v>
-      </c>
-      <c r="R52" s="22">
-        <v>1</v>
-      </c>
-      <c r="S52" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="T52" s="22">
-        <v>0</v>
-      </c>
-      <c r="U52" s="22">
-        <v>0</v>
-      </c>
-      <c r="V52" s="21" t="s">
-        <v>309</v>
+      <c r="O52" s="21">
+        <v>0</v>
+      </c>
+      <c r="P52" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="21">
+        <v>1</v>
+      </c>
+      <c r="R52" s="21">
+        <v>1</v>
+      </c>
+      <c r="S52" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="T52" s="21">
+        <v>0</v>
+      </c>
+      <c r="U52" s="21">
+        <v>0</v>
+      </c>
+      <c r="V52" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="W52">
         <v>335</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:23">
-      <c r="A53" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="B53" s="22">
+    <row r="53" spans="1:23" ht="15">
+      <c r="A53" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="21">
         <v>27</v>
       </c>
-      <c r="C53" s="22">
-        <v>1</v>
-      </c>
-      <c r="D53" s="21" t="s">
+      <c r="C53" s="21">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F53" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="G53" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="G53" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="21" t="s">
+      <c r="I53" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="I53" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="J53" s="22">
+      <c r="J53" s="21">
         <v>27</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="35">
         <f t="array" ref="K53">INDEX(Sheet2!$H$2:$I$21,MATCH(G53,Sheet2!$I$2:I56,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L53" s="52">
+      <c r="L53" s="50">
         <v>2</v>
       </c>
-      <c r="M53" s="39" t="str">
+      <c r="M53" s="37" t="str">
         <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F71,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N53" s="21" t="s">
+      <c r="N53" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O53" s="22">
-        <v>1</v>
-      </c>
-      <c r="P53" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="22">
-        <v>1</v>
-      </c>
-      <c r="R53" s="22">
-        <v>0</v>
-      </c>
-      <c r="S53" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="T53" s="22">
-        <v>0</v>
-      </c>
-      <c r="U53" s="22">
-        <v>0</v>
-      </c>
-      <c r="V53" s="21" t="s">
-        <v>309</v>
+      <c r="O53" s="21">
+        <v>1</v>
+      </c>
+      <c r="P53" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="21">
+        <v>1</v>
+      </c>
+      <c r="R53" s="21">
+        <v>0</v>
+      </c>
+      <c r="S53" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="T53" s="21">
+        <v>0</v>
+      </c>
+      <c r="U53" s="21">
+        <v>0</v>
+      </c>
+      <c r="V53" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="W53">
         <v>336</v>
@@ -6271,48 +5722,46 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7142857142857" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.71428571428571" customWidth="1"/>
-    <col min="8" max="8" width="10.7142857142857" customWidth="1"/>
-    <col min="9" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="1" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -6332,16 +5781,16 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="2:9">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>61</v>
@@ -6354,16 +5803,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" spans="2:9">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>34</v>
@@ -6376,16 +5825,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" spans="2:9">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>42</v>
@@ -6398,38 +5847,38 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" spans="2:9">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="6">
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" spans="2:9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>26</v>
@@ -6442,38 +5891,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" spans="2:9">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" spans="2:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>55</v>
@@ -6486,16 +5935,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" spans="2:9">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>106</v>
@@ -6508,49 +5957,49 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" spans="2:9">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="B10" s="11">
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" spans="2:9">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" spans="2:9">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -6560,7 +6009,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="2:9">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -6570,7 +6019,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1" spans="2:9">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -6580,7 +6029,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1" spans="2:9">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
@@ -6590,7 +6039,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="2:9">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -6600,7 +6049,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1" spans="2:9">
+    <row r="17" spans="2:9" ht="12.75" customHeight="1">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -6610,7 +6059,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1" spans="2:9">
+    <row r="18" spans="2:9" ht="12.75" customHeight="1">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -6620,7 +6069,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1" spans="2:9">
+    <row r="19" spans="2:9" ht="12.75" customHeight="1">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
@@ -6630,7 +6079,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1" spans="2:9">
+    <row r="20" spans="2:9" ht="12.75" customHeight="1">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -6640,7 +6089,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1" spans="2:9">
+    <row r="21" spans="2:9" ht="12.75" customHeight="1">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -6650,21 +6099,37 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1" spans="3:3">
-      <c r="C25" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="22" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="25" spans="2:9" ht="12.75" customHeight="1">
+      <c r="C25" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+    </row>
+    <row r="26" spans="2:9" ht="12.75" customHeight="1">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+    </row>
+    <row r="27" spans="2:9" ht="12.75" customHeight="1">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+    </row>
+    <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="29" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="30" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="31" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="32" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -7639,7 +7104,6 @@
     <mergeCell ref="C25:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="336">
   <si>
     <t>operator</t>
   </si>
@@ -1028,6 +1028,9 @@
   </si>
   <si>
     <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\bogra</t>
+  </si>
+  <si>
+    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\Khulna</t>
   </si>
 </sst>
 </file>
@@ -1822,11 +1825,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3111,7 +3114,7 @@
         <v>123</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J18" s="23">
         <v>6</v>
@@ -3156,78 +3159,75 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15">
-      <c r="A19" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="21">
-        <v>7</v>
-      </c>
-      <c r="C19" s="21">
+    <row r="19" spans="1:23" s="38" customFormat="1" ht="14.25">
+      <c r="A19" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="23">
+        <v>6</v>
+      </c>
+      <c r="C19" s="23">
         <v>2</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="21">
-        <v>7</v>
-      </c>
-      <c r="K19" s="35">
-        <f t="array" ref="K19">INDEX(Sheet2!$H$2:$I$21,MATCH(G19,Sheet2!$I$2:I17,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L19" s="36" t="str">
-        <f t="array" ref="L19">INDEX(Sheet2!$B$2:$C$21,MATCH(G19,Sheet2!$C$2:C32,0),1)</f>
-        <v>cdr</v>
-      </c>
-      <c r="M19" s="37" t="str">
-        <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F32,0),1)</f>
-        <v>.csv</v>
-      </c>
-      <c r="N19" s="20" t="s">
+      <c r="D19" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J19" s="23">
+        <v>6</v>
+      </c>
+      <c r="K19" s="23">
+        <v>57</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="21">
-        <v>1</v>
-      </c>
-      <c r="P19" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>1</v>
-      </c>
-      <c r="R19" s="21">
-        <v>1</v>
-      </c>
-      <c r="S19" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="T19" s="21">
-        <v>0</v>
-      </c>
-      <c r="U19" s="21">
-        <v>0</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="W19">
-        <v>302</v>
+      <c r="O19" s="23">
+        <v>0</v>
+      </c>
+      <c r="P19" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>0</v>
+      </c>
+      <c r="R19" s="23">
+        <v>1</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="T19" s="23">
+        <v>1</v>
+      </c>
+      <c r="U19" s="23">
+        <v>0</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="W19" s="38">
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15">
@@ -3238,40 +3238,40 @@
         <v>7</v>
       </c>
       <c r="C20" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J20" s="21">
         <v>7</v>
       </c>
       <c r="K20" s="35">
-        <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I18,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I17,0),1)</f>
+        <v>28</v>
       </c>
       <c r="L20" s="36" t="str">
-        <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C33,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C32,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M20" s="37" t="str">
-        <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F33,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F32,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N20" s="20" t="s">
         <v>29</v>
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="T20" s="21">
         <v>0</v>
@@ -3301,60 +3301,60 @@
         <v>127</v>
       </c>
       <c r="W20">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15">
       <c r="A21" s="20" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B21" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J21" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21" s="35">
-        <f t="array" ref="K21">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G21,[1]Sheet2!$I$2:I19,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I18,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L21" s="36" t="str">
-        <f t="array" ref="L21">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G21,[1]Sheet2!$C$2:C34,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C33,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M21" s="37" t="str">
-        <f t="array" ref="M21">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G21,[1]Sheet2!$F$2:F34,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F33,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N21" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O21" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="21">
         <v>1</v>
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="20" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="T21" s="21">
         <v>0</v>
@@ -3372,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="W21">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15">
@@ -3386,39 +3386,40 @@
         <v>8</v>
       </c>
       <c r="C22" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J22" s="21">
         <v>8</v>
       </c>
       <c r="K22" s="35">
-        <f t="array" ref="K22">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G22,[1]Sheet2!$I$2:I20,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>148</v>
+        <f t="array" ref="K22">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G22,[1]Sheet2!$I$2:I19,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L22" s="36" t="str">
+        <f t="array" ref="L22">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G22,[1]Sheet2!$C$2:C34,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M22" s="37" t="str">
-        <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F35,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F34,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N22" s="20" t="s">
         <v>29</v>
@@ -3436,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="20" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="T22" s="21">
         <v>0</v>
@@ -3448,50 +3449,50 @@
         <v>138</v>
       </c>
       <c r="W22">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" s="16" customFormat="1" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15">
       <c r="A23" s="20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B23" s="21">
-        <v>9</v>
-      </c>
-      <c r="C23" s="32">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J23" s="21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K23" s="35">
-        <v>30</v>
-      </c>
-      <c r="L23" s="36" t="str">
-        <f t="array" ref="L23">INDEX(Sheet2!$B$2:$C$21,MATCH(G23,Sheet2!$C$2:C36,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="K23">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G23,[1]Sheet2!$I$2:I20,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>148</v>
       </c>
       <c r="M23" s="37" t="str">
-        <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F36,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F35,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N23" s="20" t="s">
         <v>29</v>
@@ -3509,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="T23" s="21">
         <v>0</v>
@@ -3518,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="V23" s="20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="W23">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="16" customFormat="1" ht="15">
@@ -3532,49 +3533,48 @@
         <v>9</v>
       </c>
       <c r="C24" s="32">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J24" s="21">
         <v>9</v>
       </c>
       <c r="K24" s="35">
-        <f t="array" ref="K24">INDEX(Sheet2!$H$2:$I$21,MATCH(G24,Sheet2!$I$2:I22,0),1)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L24" s="36" t="str">
-        <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C37,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C36,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M24" s="37" t="str">
-        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F37,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F36,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N24" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O24" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="21">
         <v>1</v>
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="T24" s="21">
         <v>0</v>
@@ -3595,51 +3595,51 @@
         <v>150</v>
       </c>
       <c r="W24">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="16" customFormat="1" ht="15">
       <c r="A25" s="20" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B25" s="21">
-        <v>10</v>
-      </c>
-      <c r="C25" s="21">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="32">
+        <v>7</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J25" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K25" s="35">
-        <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I23,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I22,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L25" s="36" t="str">
-        <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C38,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C37,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M25" s="37" t="str">
-        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F38,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F37,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N25" s="20" t="s">
         <v>29</v>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="T25" s="21">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="V25" s="20" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="W25">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15">
@@ -3680,40 +3680,40 @@
         <v>10</v>
       </c>
       <c r="C26" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>162</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J26" s="21">
         <v>10</v>
       </c>
       <c r="K26" s="35">
-        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I24,0),1)</f>
-        <v>17</v>
+        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I23,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L26" s="36" t="str">
-        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C39,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C38,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M26" s="37" t="str">
-        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F39,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F38,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N26" s="20" t="s">
         <v>29</v>
@@ -3731,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="T26" s="21">
         <v>0</v>
@@ -3743,214 +3743,214 @@
         <v>161</v>
       </c>
       <c r="W26">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15">
+      <c r="A27" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="21">
+        <v>10</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" s="21">
+        <v>10</v>
+      </c>
+      <c r="K27" s="35">
+        <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I24,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L27" s="36" t="str">
+        <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C39,0),1)</f>
+        <v>ICX</v>
+      </c>
+      <c r="M27" s="37" t="str">
+        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F39,0),1)</f>
+        <v>.DAT</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="21">
+        <v>1</v>
+      </c>
+      <c r="P27" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>1</v>
+      </c>
+      <c r="R27" s="21">
+        <v>1</v>
+      </c>
+      <c r="S27" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="T27" s="21">
+        <v>0</v>
+      </c>
+      <c r="U27" s="21">
+        <v>0</v>
+      </c>
+      <c r="V27" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="W27">
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="17" customFormat="1" ht="14.25">
-      <c r="A27" s="17" t="s">
+    <row r="28" spans="1:23" s="17" customFormat="1" ht="14.25">
+      <c r="A28" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B28" s="33">
         <v>11</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C28" s="33">
         <v>2</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E28" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H28" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I28" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J28" s="33">
         <v>11</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K28" s="33">
         <v>730</v>
       </c>
-      <c r="L27" s="46" t="str">
-        <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C40,0),1)</f>
+      <c r="L28" s="46" t="str">
+        <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C40,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M27" s="47" t="str">
-        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F40,0),1)</f>
+      <c r="M28" s="47" t="str">
+        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F40,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="33">
-        <v>0</v>
-      </c>
-      <c r="P27" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="33">
-        <v>1</v>
-      </c>
-      <c r="R27" s="33">
-        <v>1</v>
-      </c>
-      <c r="S27" s="17" t="s">
+      <c r="O28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="33">
+        <v>1</v>
+      </c>
+      <c r="R28" s="33">
+        <v>1</v>
+      </c>
+      <c r="S28" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="T27" s="33">
-        <v>0</v>
-      </c>
-      <c r="U27" s="33">
-        <v>0</v>
-      </c>
-      <c r="V27" s="17" t="s">
+      <c r="T28" s="33">
+        <v>0</v>
+      </c>
+      <c r="U28" s="33">
+        <v>0</v>
+      </c>
+      <c r="V28" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="W27">
+      <c r="W28">
         <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15">
-      <c r="A28" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="21">
-        <v>11</v>
-      </c>
-      <c r="C28" s="21">
-        <v>1</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="J28" s="21">
-        <v>11</v>
-      </c>
-      <c r="K28" s="35">
-        <v>68</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="M28" s="37" t="str">
-        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F41,0),1)</f>
-        <v>.dat</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" s="21">
-        <v>0</v>
-      </c>
-      <c r="P28" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="21">
-        <v>1</v>
-      </c>
-      <c r="R28" s="21">
-        <v>1</v>
-      </c>
-      <c r="S28" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="T28" s="21">
-        <v>0</v>
-      </c>
-      <c r="U28" s="21">
-        <v>0</v>
-      </c>
-      <c r="V28" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="W28">
-        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15">
       <c r="A29" s="20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B29" s="21">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C29" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J29" s="21">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K29" s="35">
-        <f t="array" ref="K29">INDEX(Sheet2!$H$2:$I$21,MATCH(G29,Sheet2!$I$2:I49,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="L29" s="36" t="str">
-        <f t="array" ref="L29">INDEX(Sheet2!$B$2:$C$21,MATCH(G29,Sheet2!$C$2:C64,0),1)</f>
-        <v>sdr</v>
+        <v>68</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="M29" s="37" t="str">
-        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F64,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N29" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O29" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="21">
         <v>1</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="T29" s="21">
         <v>0</v>
@@ -3959,10 +3959,10 @@
         <v>0</v>
       </c>
       <c r="V29" s="20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="W29">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="15">
@@ -3973,56 +3973,58 @@
         <v>24</v>
       </c>
       <c r="C30" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J30" s="21">
         <v>24</v>
       </c>
       <c r="K30" s="35">
-        <v>74</v>
-      </c>
-      <c r="L30" s="36" t="s">
-        <v>85</v>
+        <f t="array" ref="K30">INDEX(Sheet2!$H$2:$I$21,MATCH(G30,Sheet2!$I$2:I49,0),1)</f>
+        <v>27</v>
+      </c>
+      <c r="L30" s="36" t="str">
+        <f t="array" ref="L30">INDEX(Sheet2!$B$2:$C$21,MATCH(G30,Sheet2!$C$2:C64,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M30" s="37" t="str">
-        <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F65,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F64,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N30" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O30" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="21">
         <v>1</v>
       </c>
       <c r="S30" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="T30" s="21">
         <v>0</v>
@@ -4034,205 +4036,203 @@
         <v>181</v>
       </c>
       <c r="W30">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15">
+      <c r="A31" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="21">
+        <v>24</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="21">
+        <v>24</v>
+      </c>
+      <c r="K31" s="35">
+        <v>74</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="37" t="str">
+        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
+        <v>.DAT</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="21">
+        <v>0</v>
+      </c>
+      <c r="P31" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>1</v>
+      </c>
+      <c r="R31" s="21">
+        <v>1</v>
+      </c>
+      <c r="S31" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="T31" s="21">
+        <v>0</v>
+      </c>
+      <c r="U31" s="21">
+        <v>0</v>
+      </c>
+      <c r="V31" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="W31">
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="17" customFormat="1" ht="14.25">
-      <c r="A31" s="17" t="s">
+    <row r="32" spans="1:23" s="17" customFormat="1" ht="14.25">
+      <c r="A32" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B32" s="33">
         <v>23</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C32" s="33">
         <v>2</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D32" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F32" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H32" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I32" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J32" s="33">
         <v>23</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K32" s="33">
         <v>29</v>
       </c>
-      <c r="L31" s="46" t="str">
-        <f t="array" ref="L31">INDEX(Sheet2!$B$2:$C$21,MATCH(G31,Sheet2!$C$2:C62,0),1)</f>
+      <c r="L32" s="46" t="str">
+        <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C62,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M31" s="47" t="str">
-        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F62,0),1)</f>
+      <c r="M32" s="47" t="str">
+        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F62,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="33">
-        <v>0</v>
-      </c>
-      <c r="P31" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="33">
-        <v>1</v>
-      </c>
-      <c r="R31" s="33">
-        <v>1</v>
-      </c>
-      <c r="S31" s="17" t="s">
+      <c r="O32" s="33">
+        <v>0</v>
+      </c>
+      <c r="P32" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="33">
+        <v>1</v>
+      </c>
+      <c r="R32" s="33">
+        <v>1</v>
+      </c>
+      <c r="S32" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="T31" s="33">
-        <v>0</v>
-      </c>
-      <c r="U31" s="33">
-        <v>0</v>
-      </c>
-      <c r="V31" s="17" t="s">
+      <c r="T32" s="33">
+        <v>0</v>
+      </c>
+      <c r="U32" s="33">
+        <v>0</v>
+      </c>
+      <c r="V32" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="W31">
+      <c r="W32">
         <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="15">
-      <c r="A32" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="21">
-        <v>23</v>
-      </c>
-      <c r="C32" s="21">
-        <v>1</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="J32" s="21">
-        <v>23</v>
-      </c>
-      <c r="K32" s="35">
-        <v>75</v>
-      </c>
-      <c r="L32" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="M32" s="37" t="str">
-        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F63,0),1)</f>
-        <v>.DAT</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O32" s="21">
-        <v>0</v>
-      </c>
-      <c r="P32" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="21">
-        <v>1</v>
-      </c>
-      <c r="R32" s="21">
-        <v>1</v>
-      </c>
-      <c r="S32" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="T32" s="21">
-        <v>0</v>
-      </c>
-      <c r="U32" s="21">
-        <v>0</v>
-      </c>
-      <c r="V32" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="W32">
-        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="15">
       <c r="A33" s="20" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B33" s="21">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C33" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J33" s="21">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K33" s="35">
-        <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I29,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L33" s="36" t="str">
-        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C44,0),1)</f>
-        <v>esdr</v>
+        <v>75</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="M33" s="37" t="str">
-        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F44,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N33" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O33" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="21">
         <v>1</v>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="T33" s="21">
         <v>0</v>
@@ -4250,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="V33" s="20" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="W33">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="15">
@@ -4264,48 +4264,49 @@
         <v>15</v>
       </c>
       <c r="C34" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J34" s="21">
         <v>15</v>
       </c>
       <c r="K34" s="35">
-        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I30,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L34" s="36" t="s">
-        <v>214</v>
+        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I29,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L34" s="36" t="str">
+        <f t="array" ref="L34">INDEX(Sheet2!$B$2:$C$21,MATCH(G34,Sheet2!$C$2:C44,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M34" s="37" t="str">
-        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F45,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F44,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N34" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O34" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="21">
         <v>1</v>
@@ -4314,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="20" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="T34" s="21">
         <v>0</v>
@@ -4326,50 +4327,50 @@
         <v>204</v>
       </c>
       <c r="W34">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15">
       <c r="A35" s="20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B35" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="21">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="J35" s="21">
+        <v>15</v>
+      </c>
+      <c r="K35" s="35">
+        <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I30,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="J35" s="21">
-        <v>16</v>
-      </c>
-      <c r="K35" s="35">
-        <v>30</v>
-      </c>
-      <c r="L35" s="36" t="str">
-        <f t="array" ref="L35">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G35,[1]Sheet2!$C$2:C46,0),1)</f>
-        <v>esdr</v>
+      <c r="L35" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="M35" s="37" t="str">
-        <f t="array" ref="M35">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G35,[1]Sheet2!$F$2:F46,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N35" s="20" t="s">
         <v>29</v>
@@ -4387,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="20" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="T35" s="21">
         <v>0</v>
@@ -4396,10 +4397,10 @@
         <v>0</v>
       </c>
       <c r="V35" s="20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="W35">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15">
@@ -4410,39 +4411,39 @@
         <v>16</v>
       </c>
       <c r="C36" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J36" s="21">
         <v>16</v>
       </c>
       <c r="K36" s="35">
-        <f t="array" ref="K36">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G36,[1]Sheet2!$I$2:I32,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L36" s="36" t="s">
-        <v>224</v>
+        <v>30</v>
+      </c>
+      <c r="L36" s="36" t="str">
+        <f t="array" ref="L36">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G36,[1]Sheet2!$C$2:C46,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M36" s="37" t="str">
-        <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F47,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F46,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N36" s="20" t="s">
         <v>29</v>
@@ -4460,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="20" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="T36" s="21">
         <v>0</v>
@@ -4472,48 +4473,50 @@
         <v>215</v>
       </c>
       <c r="W36">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15">
       <c r="A37" s="20" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B37" s="21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="21">
         <v>2</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J37" s="21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" s="35">
-        <v>56</v>
-      </c>
-      <c r="L37" s="36">
-        <v>0</v>
-      </c>
-      <c r="M37" s="37" t="s">
-        <v>232</v>
+        <f t="array" ref="K37">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G37,[1]Sheet2!$I$2:I32,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="37" t="str">
+        <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F47,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N37" s="20" t="s">
         <v>29</v>
@@ -4531,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="T37" s="21">
         <v>0</v>
@@ -4540,10 +4543,10 @@
         <v>0</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="W37">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15">
@@ -4554,48 +4557,46 @@
         <v>17</v>
       </c>
       <c r="C38" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J38" s="21">
         <v>17</v>
       </c>
       <c r="K38" s="35">
-        <f t="array" ref="K38">INDEX(Sheet2!$H$2:$I$21,MATCH(G38,Sheet2!$I$2:I34,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L38" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="M38" s="37" t="str">
-        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F49,0),1)</f>
-        <v>.DAT</v>
+        <v>56</v>
+      </c>
+      <c r="L38" s="36">
+        <v>0</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>232</v>
       </c>
       <c r="N38" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O38" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="21">
         <v>1</v>
@@ -4604,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="20" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="T38" s="21">
         <v>0</v>
@@ -4616,51 +4617,50 @@
         <v>226</v>
       </c>
       <c r="W38">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15">
       <c r="A39" s="20" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B39" s="21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C39" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J39" s="21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K39" s="35">
-        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I40,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L39" s="36" t="str">
-        <f t="array" ref="L39">INDEX(Sheet2!$B$2:$C$21,MATCH(G39,Sheet2!$C$2:C55,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I34,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="M39" s="37" t="str">
-        <f t="array" ref="M39">INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F55,0),1)</f>
-        <v>.csv</v>
+        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N39" s="20" t="s">
         <v>29</v>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="20" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T39" s="21">
         <v>0</v>
@@ -4687,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="V39" s="20" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="W39">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15">
@@ -4701,48 +4701,49 @@
         <v>20</v>
       </c>
       <c r="C40" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J40" s="21">
         <v>20</v>
       </c>
       <c r="K40" s="35">
-        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I41,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L40" s="36" t="s">
-        <v>250</v>
+        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I40,0),1)</f>
+        <v>28</v>
+      </c>
+      <c r="L40" s="36" t="str">
+        <f t="array" ref="L40">INDEX(Sheet2!$B$2:$C$21,MATCH(G40,Sheet2!$C$2:C55,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M40" s="37" t="str">
-        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F56,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F55,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N40" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O40" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="21">
         <v>1</v>
@@ -4751,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="20" t="s">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="T40" s="21">
         <v>0</v>
@@ -4763,50 +4764,50 @@
         <v>240</v>
       </c>
       <c r="W40">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15">
       <c r="A41" s="20" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B41" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J41" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41" s="35">
-        <v>30</v>
-      </c>
-      <c r="L41" s="36" t="str">
-        <f t="array" ref="L41">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G41,[1]Sheet2!$C$2:C57,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I41,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>250</v>
       </c>
       <c r="M41" s="37" t="str">
-        <f t="array" ref="M41">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G41,[1]Sheet2!$F$2:F57,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N41" s="20" t="s">
         <v>29</v>
@@ -4824,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="20" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="T41" s="21">
         <v>0</v>
@@ -4833,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="V41" s="20" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="W41">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15">
@@ -4847,40 +4848,39 @@
         <v>21</v>
       </c>
       <c r="C42" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J42" s="21">
         <v>21</v>
       </c>
       <c r="K42" s="35">
-        <f t="array" ref="K42">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G42,[1]Sheet2!$I$2:I43,0),1)</f>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L42" s="36" t="str">
-        <f t="array" ref="L42">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G42,[1]Sheet2!$C$2:C58,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L42">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G42,[1]Sheet2!$C$2:C57,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M42" s="37" t="str">
-        <f t="array" ref="M42">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G42,[1]Sheet2!$F$2:F58,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M42">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G42,[1]Sheet2!$F$2:F57,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N42" s="20" t="s">
         <v>29</v>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="20" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="T42" s="21">
         <v>0</v>
@@ -4910,60 +4910,60 @@
         <v>251</v>
       </c>
       <c r="W42">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15">
       <c r="A43" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B43" s="21">
-        <v>19</v>
-      </c>
-      <c r="C43" s="32">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C43" s="21">
+        <v>1</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J43" s="21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K43" s="35">
-        <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I38,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K43">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G43,[1]Sheet2!$I$2:I43,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L43" s="36" t="str">
-        <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C53,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L43">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G43,[1]Sheet2!$C$2:C58,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M43" s="37" t="str">
-        <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F53,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M43">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G43,[1]Sheet2!$F$2:F58,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N43" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O43" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="21">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="20" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="T43" s="21">
         <v>0</v>
@@ -4981,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="V43" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="W43">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15">
@@ -4995,48 +4995,49 @@
         <v>19</v>
       </c>
       <c r="C44" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J44" s="21">
         <v>19</v>
       </c>
       <c r="K44" s="35">
-        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I39,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L44" s="36" t="s">
-        <v>269</v>
+        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I38,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L44" s="36" t="str">
+        <f t="array" ref="L44">INDEX(Sheet2!$B$2:$C$21,MATCH(G44,Sheet2!$C$2:C53,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M44" s="37" t="str">
-        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F54,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F53,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N44" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O44" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="21">
         <v>1</v>
@@ -5045,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="20" t="s">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="T44" s="21">
         <v>0</v>
@@ -5057,69 +5058,68 @@
         <v>260</v>
       </c>
       <c r="W44">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="15">
       <c r="A45" s="20" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B45" s="21">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C45" s="32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J45" s="21">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K45" s="35">
-        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I53,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="L45" s="36" t="str">
-        <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C68,0),1)</f>
-        <v>sdr</v>
+        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I39,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>269</v>
       </c>
       <c r="M45" s="37" t="str">
-        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F68,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N45" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O45" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="21">
         <v>1</v>
       </c>
       <c r="S45" s="20" t="s">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="T45" s="21">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="V45" s="20" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="W45">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15">
@@ -5142,58 +5142,58 @@
         <v>26</v>
       </c>
       <c r="C46" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J46" s="21">
         <v>26</v>
       </c>
       <c r="K46" s="35">
-        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I54,0),1)</f>
-        <v>17</v>
+        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I53,0),1)</f>
+        <v>27</v>
       </c>
       <c r="L46" s="36" t="str">
-        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C69,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C68,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M46" s="37" t="str">
-        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F69,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F68,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N46" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O46" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="21">
         <v>1</v>
       </c>
       <c r="S46" s="20" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="T46" s="21">
         <v>0</v>
@@ -5205,154 +5205,154 @@
         <v>271</v>
       </c>
       <c r="W46">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15">
+      <c r="A47" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="21">
+        <v>26</v>
+      </c>
+      <c r="C47" s="32">
+        <v>9</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="J47" s="21">
+        <v>26</v>
+      </c>
+      <c r="K47" s="35">
+        <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I54,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L47" s="36" t="str">
+        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C69,0),1)</f>
+        <v>ICX</v>
+      </c>
+      <c r="M47" s="37" t="str">
+        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F69,0),1)</f>
+        <v>.DAT</v>
+      </c>
+      <c r="N47" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" s="21">
+        <v>0</v>
+      </c>
+      <c r="P47" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>1</v>
+      </c>
+      <c r="R47" s="21">
+        <v>1</v>
+      </c>
+      <c r="S47" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="T47" s="21">
+        <v>0</v>
+      </c>
+      <c r="U47" s="21">
+        <v>0</v>
+      </c>
+      <c r="V47" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="W47">
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="14" customFormat="1" ht="14.25">
-      <c r="A47" s="14" t="s">
+    <row r="48" spans="1:23" s="14" customFormat="1" ht="14.25">
+      <c r="A48" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B48" s="23">
         <v>22</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C48" s="23">
         <v>3</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D48" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E48" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F48" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G48" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H48" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I48" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J48" s="23">
         <v>22</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K48" s="23">
         <v>72</v>
       </c>
-      <c r="L47" s="38" t="str">
-        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C59,0),1)</f>
+      <c r="L48" s="38" t="str">
+        <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C59,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M47" s="39" t="str">
-        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F59,0),1)</f>
+      <c r="M48" s="39" t="str">
+        <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F59,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="N48" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O47" s="23">
-        <v>0</v>
-      </c>
-      <c r="P47" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="23">
-        <v>1</v>
-      </c>
-      <c r="R47" s="23">
-        <v>1</v>
-      </c>
-      <c r="S47" s="14" t="s">
+      <c r="O48" s="23">
+        <v>0</v>
+      </c>
+      <c r="P48" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="23">
+        <v>1</v>
+      </c>
+      <c r="R48" s="23">
+        <v>1</v>
+      </c>
+      <c r="S48" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="T47" s="23">
-        <v>0</v>
-      </c>
-      <c r="U47" s="23">
-        <v>0</v>
-      </c>
-      <c r="V47" s="14" t="s">
+      <c r="T48" s="23">
+        <v>0</v>
+      </c>
+      <c r="U48" s="23">
+        <v>0</v>
+      </c>
+      <c r="V48" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="W47">
+      <c r="W48">
         <v>330</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="15">
-      <c r="A48" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B48" s="21">
-        <v>22</v>
-      </c>
-      <c r="C48" s="21">
-        <v>1</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="J48" s="21">
-        <v>22</v>
-      </c>
-      <c r="K48" s="35">
-        <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I45,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L48" s="36" t="str">
-        <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C60,0),1)</f>
-        <v>b</v>
-      </c>
-      <c r="M48" s="37" t="str">
-        <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F60,0),1)</f>
-        <v>.dat</v>
-      </c>
-      <c r="N48" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O48" s="21">
-        <v>1</v>
-      </c>
-      <c r="P48" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="21">
-        <v>1</v>
-      </c>
-      <c r="R48" s="21">
-        <v>1</v>
-      </c>
-      <c r="S48" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="T48" s="21">
-        <v>0</v>
-      </c>
-      <c r="U48" s="21">
-        <v>0</v>
-      </c>
-      <c r="V48" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="W48">
-        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="15">
@@ -5363,42 +5363,42 @@
         <v>22</v>
       </c>
       <c r="C49" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>106</v>
+        <v>292</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J49" s="21">
         <v>22</v>
       </c>
       <c r="K49" s="35">
-        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I46,0),1)</f>
-        <v>37</v>
+        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I45,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L49" s="36" t="str">
-        <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C61,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C60,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M49" s="37" t="str">
-        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F61,0),1)</f>
-        <v>.log</v>
-      </c>
-      <c r="N49" s="7" t="s">
+        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F60,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N49" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O49" s="21">
@@ -5408,13 +5408,13 @@
         <v>1</v>
       </c>
       <c r="Q49" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="21">
         <v>1</v>
       </c>
       <c r="S49" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T49" s="21">
         <v>0</v>
@@ -5426,192 +5426,193 @@
         <v>281</v>
       </c>
       <c r="W49">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15">
+      <c r="A50" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50" s="21">
+        <v>22</v>
+      </c>
+      <c r="C50" s="21">
+        <v>2</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="J50" s="21">
+        <v>22</v>
+      </c>
+      <c r="K50" s="35">
+        <f t="array" ref="K50">INDEX(Sheet2!$H$2:$I$21,MATCH(G50,Sheet2!$I$2:I46,0),1)</f>
+        <v>37</v>
+      </c>
+      <c r="L50" s="36" t="str">
+        <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C61,0),1)</f>
+        <v>cdr</v>
+      </c>
+      <c r="M50" s="37" t="str">
+        <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F61,0),1)</f>
+        <v>.log</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="21">
+        <v>1</v>
+      </c>
+      <c r="P50" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="21">
+        <v>0</v>
+      </c>
+      <c r="R50" s="21">
+        <v>1</v>
+      </c>
+      <c r="S50" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="T50" s="21">
+        <v>0</v>
+      </c>
+      <c r="U50" s="21">
+        <v>0</v>
+      </c>
+      <c r="V50" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="W50">
         <v>332</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="18" customFormat="1" ht="14.25">
-      <c r="A50" s="18" t="s">
+    <row r="51" spans="1:23" s="18" customFormat="1" ht="14.25">
+      <c r="A51" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B51" s="34">
         <v>25</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C51" s="34">
         <v>2</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D51" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E51" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F51" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G51" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H51" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I51" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="J50" s="34">
+      <c r="J51" s="34">
         <v>25</v>
       </c>
-      <c r="K50" s="34">
+      <c r="K51" s="34">
         <v>73</v>
       </c>
-      <c r="L50" s="48">
+      <c r="L51" s="48">
         <v>20</v>
       </c>
-      <c r="M50" s="49"/>
-      <c r="N50" s="18" t="s">
+      <c r="M51" s="49"/>
+      <c r="N51" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O50" s="34">
-        <v>0</v>
-      </c>
-      <c r="P50" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="34">
-        <v>1</v>
-      </c>
-      <c r="R50" s="34">
-        <v>1</v>
-      </c>
-      <c r="S50" s="18" t="s">
+      <c r="O51" s="34">
+        <v>0</v>
+      </c>
+      <c r="P51" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="34">
+        <v>1</v>
+      </c>
+      <c r="R51" s="34">
+        <v>1</v>
+      </c>
+      <c r="S51" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="T50" s="34">
-        <v>0</v>
-      </c>
-      <c r="U50" s="34">
-        <v>0</v>
-      </c>
-      <c r="V50" s="18" t="s">
+      <c r="T51" s="34">
+        <v>0</v>
+      </c>
+      <c r="U51" s="34">
+        <v>0</v>
+      </c>
+      <c r="V51" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="W50">
+      <c r="W51">
         <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="15">
-      <c r="A51" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="B51" s="21">
-        <v>25</v>
-      </c>
-      <c r="C51" s="21">
-        <v>1</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="J51" s="21">
-        <v>25</v>
-      </c>
-      <c r="K51" s="35">
-        <f t="array" ref="K51">INDEX(Sheet2!$H$2:$I$21,MATCH(G51,Sheet2!$I$2:I52,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L51" s="36">
-        <v>2</v>
-      </c>
-      <c r="M51" s="37" t="str">
-        <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F67,0),1)</f>
-        <v>.dat</v>
-      </c>
-      <c r="N51" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O51" s="21">
-        <v>0</v>
-      </c>
-      <c r="P51" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="21">
-        <v>1</v>
-      </c>
-      <c r="R51" s="21">
-        <v>1</v>
-      </c>
-      <c r="S51" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="T51" s="21">
-        <v>0</v>
-      </c>
-      <c r="U51" s="21">
-        <v>0</v>
-      </c>
-      <c r="V51" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="W51">
-        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15">
       <c r="A52" s="20" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B52" s="21">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52" s="21">
+        <v>1</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="J52" s="21">
+        <v>25</v>
+      </c>
+      <c r="K52" s="35">
+        <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I52,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L52" s="36">
         <v>2</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="J52" s="21">
-        <v>27</v>
-      </c>
-      <c r="K52" s="35">
-        <v>29</v>
-      </c>
-      <c r="L52" s="36" t="str">
-        <f t="array" ref="L52">INDEX(Sheet2!$B$2:$C$21,MATCH(G52,Sheet2!$C$2:C70,0),1)</f>
-        <v>cdr</v>
-      </c>
       <c r="M52" s="37" t="str">
-        <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F70,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F67,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N52" s="20" t="s">
         <v>29</v>
@@ -5629,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="20" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="T52" s="21">
         <v>0</v>
@@ -5638,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="V52" s="20" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="W52">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15">
@@ -5652,57 +5653,57 @@
         <v>27</v>
       </c>
       <c r="C53" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J53" s="21">
         <v>27</v>
       </c>
       <c r="K53" s="35">
-        <f t="array" ref="K53">INDEX(Sheet2!$H$2:$I$21,MATCH(G53,Sheet2!$I$2:I56,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L53" s="50">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="L53" s="36" t="str">
+        <f t="array" ref="L53">INDEX(Sheet2!$B$2:$C$21,MATCH(G53,Sheet2!$C$2:C70,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M53" s="37" t="str">
-        <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F71,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F70,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N53" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O53" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="21">
         <v>1</v>
       </c>
       <c r="R53" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="20" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="T53" s="21">
         <v>0</v>
@@ -5714,6 +5715,79 @@
         <v>308</v>
       </c>
       <c r="W53">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15">
+      <c r="A54" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B54" s="21">
+        <v>27</v>
+      </c>
+      <c r="C54" s="21">
+        <v>1</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="J54" s="21">
+        <v>27</v>
+      </c>
+      <c r="K54" s="35">
+        <f t="array" ref="K54">INDEX(Sheet2!$H$2:$I$21,MATCH(G54,Sheet2!$I$2:I56,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L54" s="50">
+        <v>2</v>
+      </c>
+      <c r="M54" s="37" t="str">
+        <f t="array" ref="M54">INDEX(Sheet2!$E$2:$F$21,MATCH(G54,Sheet2!$F$2:F71,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N54" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="21">
+        <v>1</v>
+      </c>
+      <c r="P54" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>1</v>
+      </c>
+      <c r="R54" s="21">
+        <v>0</v>
+      </c>
+      <c r="S54" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="T54" s="21">
+        <v>0</v>
+      </c>
+      <c r="U54" s="21">
+        <v>0</v>
+      </c>
+      <c r="V54" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="W54">
         <v>336</v>
       </c>
     </row>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\allDeployment\cas\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\allDeployment\cas\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="342">
   <si>
     <t>operator</t>
   </si>
@@ -1031,6 +1031,24 @@
   </si>
   <si>
     <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\Khulna</t>
+  </si>
+  <si>
+    <t>MargeProcessing</t>
+  </si>
+  <si>
+    <t>PreDecodeAsTextFile</t>
+  </si>
+  <si>
+    <t>MaxConcurrentFilesForParallelPreDecoding</t>
+  </si>
+  <si>
+    <t>MinRowCountToStartBatchCdrProcessing</t>
+  </si>
+  <si>
+    <t>MaxNumberOfFilesInPreDecodedDirectory</t>
+  </si>
+  <si>
+    <t>maxParallelFileForPreDecode</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1291,7 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1383,6 +1401,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1825,11 +1844,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD3" sqref="AD3:AD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1854,9 +1873,13 @@
     <col min="22" max="22" width="25.42578125" customWidth="1"/>
     <col min="23" max="23" width="31.7109375" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="27" max="27" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15">
+    <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1929,8 +1952,26 @@
       <c r="X1" s="19" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>341</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="15">
+    <row r="2" spans="1:30" ht="15.75" thickTop="1">
       <c r="A2" s="20" t="s">
         <v>23</v>
       </c>
@@ -2002,8 +2043,29 @@
       <c r="W2">
         <v>285</v>
       </c>
+      <c r="X2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <v>70000</v>
+      </c>
+      <c r="AC2" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="15">
+    <row r="3" spans="1:30" ht="15">
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
@@ -2076,8 +2138,29 @@
       <c r="W3">
         <v>286</v>
       </c>
+      <c r="X3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>30</v>
+      </c>
+      <c r="AB3">
+        <v>70000</v>
+      </c>
+      <c r="AC3">
+        <v>500</v>
+      </c>
+      <c r="AD3" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="15">
+    <row r="4" spans="1:30" ht="15">
       <c r="A4" s="20" t="s">
         <v>39</v>
       </c>
@@ -2149,8 +2232,29 @@
       <c r="W4">
         <v>287</v>
       </c>
+      <c r="X4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC4" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD4" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="15">
+    <row r="5" spans="1:30" ht="15">
       <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
@@ -2218,8 +2322,29 @@
       <c r="W5">
         <v>288</v>
       </c>
+      <c r="X5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC5" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD5" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="15">
+    <row r="6" spans="1:30" ht="15">
       <c r="A6" s="20" t="s">
         <v>52</v>
       </c>
@@ -2292,8 +2417,29 @@
       <c r="W6">
         <v>289</v>
       </c>
+      <c r="X6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC6" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD6" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="15">
+    <row r="7" spans="1:30" ht="15">
       <c r="A7" s="20" t="s">
         <v>52</v>
       </c>
@@ -2366,8 +2512,29 @@
       <c r="W7">
         <v>290</v>
       </c>
+      <c r="X7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC7" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD7" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" s="14" customFormat="1" ht="14.25">
+    <row r="8" spans="1:30" s="14" customFormat="1" ht="15">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2606,29 @@
       <c r="W8">
         <v>291</v>
       </c>
+      <c r="X8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC8" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD8" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" ht="15">
+    <row r="9" spans="1:30" ht="15">
       <c r="A9" s="20" t="s">
         <v>65</v>
       </c>
@@ -2513,8 +2701,29 @@
       <c r="W9">
         <v>292</v>
       </c>
+      <c r="X9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC9" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD9" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="15">
+    <row r="10" spans="1:30" ht="15">
       <c r="A10" s="24" t="s">
         <v>76</v>
       </c>
@@ -2582,8 +2791,29 @@
       <c r="W10">
         <v>293</v>
       </c>
+      <c r="X10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC10" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD10" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="15">
+    <row r="11" spans="1:30" ht="15">
       <c r="A11" s="24" t="s">
         <v>76</v>
       </c>
@@ -2652,8 +2882,29 @@
       <c r="W11">
         <v>294</v>
       </c>
+      <c r="X11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC11" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD11" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="15">
+    <row r="12" spans="1:30" ht="15">
       <c r="A12" s="20" t="s">
         <v>76</v>
       </c>
@@ -2724,8 +2975,29 @@
       <c r="W12">
         <v>295</v>
       </c>
+      <c r="X12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB12" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC12" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD12" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" s="15" customFormat="1" ht="15">
+    <row r="13" spans="1:30" s="15" customFormat="1" ht="15">
       <c r="A13" s="28" t="s">
         <v>93</v>
       </c>
@@ -2797,8 +3069,29 @@
       <c r="W13">
         <v>296</v>
       </c>
+      <c r="X13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC13" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD13" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" ht="15">
+    <row r="14" spans="1:30" ht="15">
       <c r="A14" s="20" t="s">
         <v>93</v>
       </c>
@@ -2871,8 +3164,29 @@
       <c r="W14">
         <v>297</v>
       </c>
+      <c r="X14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB14" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC14" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD14" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="15">
+    <row r="15" spans="1:30" ht="15">
       <c r="A15" s="20" t="s">
         <v>93</v>
       </c>
@@ -2945,8 +3259,29 @@
       <c r="W15">
         <v>298</v>
       </c>
+      <c r="X15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB15" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC15" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD15" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" ht="15">
+    <row r="16" spans="1:30" ht="15">
       <c r="A16" s="20" t="s">
         <v>110</v>
       </c>
@@ -3018,8 +3353,29 @@
       <c r="W16">
         <v>299</v>
       </c>
+      <c r="X16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB16" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC16" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD16" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" ht="15">
+    <row r="17" spans="1:30" ht="15">
       <c r="A17" s="20" t="s">
         <v>110</v>
       </c>
@@ -3087,8 +3443,29 @@
       <c r="W17">
         <v>300</v>
       </c>
+      <c r="X17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB17" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC17" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD17" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" s="38" customFormat="1" ht="14.25">
+    <row r="18" spans="1:30" s="38" customFormat="1" ht="15">
       <c r="A18" s="38" t="s">
         <v>110</v>
       </c>
@@ -3158,8 +3535,29 @@
       <c r="W18" s="38">
         <v>301</v>
       </c>
+      <c r="X18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB18" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC18" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD18" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" s="38" customFormat="1" ht="14.25">
+    <row r="19" spans="1:30" s="38" customFormat="1" ht="15">
       <c r="A19" s="38" t="s">
         <v>110</v>
       </c>
@@ -3229,8 +3627,29 @@
       <c r="W19" s="38">
         <v>301</v>
       </c>
+      <c r="X19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB19" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC19" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD19" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" ht="15">
+    <row r="20" spans="1:30" ht="15">
       <c r="A20" s="20" t="s">
         <v>127</v>
       </c>
@@ -3303,8 +3722,29 @@
       <c r="W20">
         <v>302</v>
       </c>
+      <c r="X20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y20" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB20" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC20" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD20" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" ht="15">
+    <row r="21" spans="1:30" ht="15">
       <c r="A21" s="20" t="s">
         <v>127</v>
       </c>
@@ -3377,8 +3817,29 @@
       <c r="W21">
         <v>303</v>
       </c>
+      <c r="X21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB21" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC21" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD21" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" ht="15">
+    <row r="22" spans="1:30" ht="15">
       <c r="A22" s="20" t="s">
         <v>138</v>
       </c>
@@ -3451,8 +3912,29 @@
       <c r="W22">
         <v>304</v>
       </c>
+      <c r="X22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y22" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB22" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC22" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD22" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" ht="15">
+    <row r="23" spans="1:30" ht="15">
       <c r="A23" s="20" t="s">
         <v>138</v>
       </c>
@@ -3524,8 +4006,29 @@
       <c r="W23">
         <v>305</v>
       </c>
+      <c r="X23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y23" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC23" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD23" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" s="16" customFormat="1" ht="15">
+    <row r="24" spans="1:30" s="16" customFormat="1" ht="15">
       <c r="A24" s="20" t="s">
         <v>150</v>
       </c>
@@ -3597,8 +4100,29 @@
       <c r="W24">
         <v>306</v>
       </c>
+      <c r="X24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y24" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB24" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC24" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD24" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" s="16" customFormat="1" ht="15">
+    <row r="25" spans="1:30" s="16" customFormat="1" ht="15">
       <c r="A25" s="20" t="s">
         <v>150</v>
       </c>
@@ -3671,8 +4195,29 @@
       <c r="W25">
         <v>307</v>
       </c>
+      <c r="X25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB25" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC25" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD25" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" ht="15">
+    <row r="26" spans="1:30" ht="15">
       <c r="A26" s="20" t="s">
         <v>161</v>
       </c>
@@ -3745,8 +4290,29 @@
       <c r="W26">
         <v>308</v>
       </c>
+      <c r="X26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB26" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC26" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD26" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" ht="15">
+    <row r="27" spans="1:30" ht="15">
       <c r="A27" s="20" t="s">
         <v>161</v>
       </c>
@@ -3819,8 +4385,29 @@
       <c r="W27">
         <v>309</v>
       </c>
+      <c r="X27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB27" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC27" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD27" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" s="17" customFormat="1" ht="14.25">
+    <row r="28" spans="1:30" s="17" customFormat="1" ht="15">
       <c r="A28" s="17" t="s">
         <v>171</v>
       </c>
@@ -3892,8 +4479,29 @@
       <c r="W28">
         <v>310</v>
       </c>
+      <c r="X28" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB28" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC28" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD28" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" ht="15">
+    <row r="29" spans="1:30" ht="15">
       <c r="A29" s="20" t="s">
         <v>171</v>
       </c>
@@ -3964,8 +4572,29 @@
       <c r="W29">
         <v>311</v>
       </c>
+      <c r="X29" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y29" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB29" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC29" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD29" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" ht="15">
+    <row r="30" spans="1:30" ht="15">
       <c r="A30" s="20" t="s">
         <v>181</v>
       </c>
@@ -4038,8 +4667,29 @@
       <c r="W30">
         <v>312</v>
       </c>
+      <c r="X30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y30" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB30" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC30" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD30" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" ht="15">
+    <row r="31" spans="1:30" ht="15">
       <c r="A31" s="20" t="s">
         <v>181</v>
       </c>
@@ -4110,8 +4760,29 @@
       <c r="W31">
         <v>313</v>
       </c>
+      <c r="X31" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y31" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB31" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC31" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD31" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" s="17" customFormat="1" ht="14.25">
+    <row r="32" spans="1:30" s="17" customFormat="1" ht="15">
       <c r="A32" s="17" t="s">
         <v>193</v>
       </c>
@@ -4183,8 +4854,29 @@
       <c r="W32">
         <v>314</v>
       </c>
+      <c r="X32" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y32" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB32" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC32" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD32" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" ht="15">
+    <row r="33" spans="1:30" ht="15">
       <c r="A33" s="20" t="s">
         <v>193</v>
       </c>
@@ -4255,8 +4947,29 @@
       <c r="W33">
         <v>315</v>
       </c>
+      <c r="X33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y33" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB33" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC33" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD33" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" ht="15">
+    <row r="34" spans="1:30" ht="15">
       <c r="A34" s="20" t="s">
         <v>204</v>
       </c>
@@ -4329,8 +5042,29 @@
       <c r="W34">
         <v>316</v>
       </c>
+      <c r="X34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y34" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB34" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC34" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD34" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" ht="15">
+    <row r="35" spans="1:30" ht="15">
       <c r="A35" s="20" t="s">
         <v>204</v>
       </c>
@@ -4402,8 +5136,29 @@
       <c r="W35">
         <v>317</v>
       </c>
+      <c r="X35" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y35" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB35" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC35" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD35" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" ht="15">
+    <row r="36" spans="1:30" ht="15">
       <c r="A36" s="20" t="s">
         <v>215</v>
       </c>
@@ -4475,8 +5230,29 @@
       <c r="W36">
         <v>318</v>
       </c>
+      <c r="X36" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y36" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB36" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC36" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD36" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" ht="15">
+    <row r="37" spans="1:30" ht="15">
       <c r="A37" s="20" t="s">
         <v>215</v>
       </c>
@@ -4548,8 +5324,29 @@
       <c r="W37">
         <v>319</v>
       </c>
+      <c r="X37" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y37" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB37" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC37" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD37" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" ht="15">
+    <row r="38" spans="1:30" ht="15">
       <c r="A38" s="20" t="s">
         <v>226</v>
       </c>
@@ -4619,8 +5416,29 @@
       <c r="W38">
         <v>320</v>
       </c>
+      <c r="X38" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y38" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB38" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC38" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD38" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" ht="15">
+    <row r="39" spans="1:30" ht="15">
       <c r="A39" s="20" t="s">
         <v>226</v>
       </c>
@@ -4692,8 +5510,29 @@
       <c r="W39">
         <v>321</v>
       </c>
+      <c r="X39" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y39" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB39" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC39" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD39" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" ht="15">
+    <row r="40" spans="1:30" ht="15">
       <c r="A40" s="20" t="s">
         <v>240</v>
       </c>
@@ -4766,8 +5605,29 @@
       <c r="W40">
         <v>322</v>
       </c>
+      <c r="X40" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y40" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB40" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC40" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD40" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" ht="15">
+    <row r="41" spans="1:30" ht="15">
       <c r="A41" s="20" t="s">
         <v>240</v>
       </c>
@@ -4839,8 +5699,29 @@
       <c r="W41">
         <v>323</v>
       </c>
+      <c r="X41" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y41" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB41" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC41" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD41" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" ht="15">
+    <row r="42" spans="1:30" ht="15">
       <c r="A42" s="20" t="s">
         <v>251</v>
       </c>
@@ -4912,8 +5793,29 @@
       <c r="W42">
         <v>324</v>
       </c>
+      <c r="X42" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y42" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB42" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC42" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD42" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" ht="15">
+    <row r="43" spans="1:30" ht="15">
       <c r="A43" s="20" t="s">
         <v>251</v>
       </c>
@@ -4986,8 +5888,29 @@
       <c r="W43">
         <v>325</v>
       </c>
+      <c r="X43" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y43" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB43" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC43" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD43" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" ht="15">
+    <row r="44" spans="1:30" ht="15">
       <c r="A44" s="20" t="s">
         <v>260</v>
       </c>
@@ -5060,8 +5983,29 @@
       <c r="W44">
         <v>326</v>
       </c>
+      <c r="X44" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y44" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB44" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC44" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD44" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="45" spans="1:23" ht="15">
+    <row r="45" spans="1:30" ht="15">
       <c r="A45" s="20" t="s">
         <v>260</v>
       </c>
@@ -5133,8 +6077,29 @@
       <c r="W45">
         <v>327</v>
       </c>
+      <c r="X45" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y45" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB45" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC45" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD45" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="46" spans="1:23" ht="15">
+    <row r="46" spans="1:30" ht="15">
       <c r="A46" s="20" t="s">
         <v>271</v>
       </c>
@@ -5207,8 +6172,29 @@
       <c r="W46">
         <v>328</v>
       </c>
+      <c r="X46" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y46" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB46" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC46" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD46" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="47" spans="1:23" ht="15">
+    <row r="47" spans="1:30" ht="15">
       <c r="A47" s="20" t="s">
         <v>271</v>
       </c>
@@ -5281,8 +6267,29 @@
       <c r="W47">
         <v>329</v>
       </c>
+      <c r="X47" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y47" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB47" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC47" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD47" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="48" spans="1:23" s="14" customFormat="1" ht="14.25">
+    <row r="48" spans="1:30" s="14" customFormat="1" ht="15">
       <c r="A48" s="14" t="s">
         <v>281</v>
       </c>
@@ -5354,8 +6361,29 @@
       <c r="W48">
         <v>330</v>
       </c>
+      <c r="X48" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y48" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB48" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC48" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD48" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="49" spans="1:23" ht="15">
+    <row r="49" spans="1:30" ht="15">
       <c r="A49" s="20" t="s">
         <v>281</v>
       </c>
@@ -5428,8 +6456,29 @@
       <c r="W49">
         <v>331</v>
       </c>
+      <c r="X49" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y49" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB49" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC49" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD49" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="50" spans="1:23" ht="15">
+    <row r="50" spans="1:30" ht="15">
       <c r="A50" s="20" t="s">
         <v>281</v>
       </c>
@@ -5502,8 +6551,29 @@
       <c r="W50">
         <v>332</v>
       </c>
+      <c r="X50" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y50" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB50" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC50" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD50" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="51" spans="1:23" s="18" customFormat="1" ht="14.25">
+    <row r="51" spans="1:30" s="18" customFormat="1" ht="15">
       <c r="A51" s="18" t="s">
         <v>296</v>
       </c>
@@ -5571,8 +6641,29 @@
       <c r="W51">
         <v>333</v>
       </c>
+      <c r="X51" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y51" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB51" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC51" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD51" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="52" spans="1:23" ht="15">
+    <row r="52" spans="1:30" ht="15">
       <c r="A52" s="20" t="s">
         <v>296</v>
       </c>
@@ -5644,8 +6735,29 @@
       <c r="W52">
         <v>334</v>
       </c>
+      <c r="X52" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y52" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB52" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC52" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD52" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="53" spans="1:23" ht="15">
+    <row r="53" spans="1:30" ht="15">
       <c r="A53" s="20" t="s">
         <v>308</v>
       </c>
@@ -5717,8 +6829,29 @@
       <c r="W53">
         <v>335</v>
       </c>
+      <c r="X53" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y53" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB53" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC53" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD53" s="51">
+        <v>10</v>
+      </c>
     </row>
-    <row r="54" spans="1:23" ht="15">
+    <row r="54" spans="1:30" ht="15">
       <c r="A54" s="20" t="s">
         <v>308</v>
       </c>
@@ -5789,6 +6922,27 @@
       </c>
       <c r="W54">
         <v>336</v>
+      </c>
+      <c r="X54" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y54" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="51">
+        <v>30</v>
+      </c>
+      <c r="AB54" s="51">
+        <v>70000</v>
+      </c>
+      <c r="AC54" s="51">
+        <v>500</v>
+      </c>
+      <c r="AD54" s="51">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6177,27 +7331,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="343">
   <si>
     <t>operator</t>
   </si>
@@ -419,10 +419,13 @@
     <t>.log</t>
   </si>
   <si>
+    <t>Vault.TelcobridgeKhulna</t>
+  </si>
+  <si>
+    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\bogra</t>
+  </si>
+  <si>
     <t>Vault.TelcobridgeBogra</t>
-  </si>
-  <si>
-    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\bogra</t>
   </si>
   <si>
     <t>getco</t>
@@ -2392,10 +2395,10 @@
   <sheetPr/>
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4056,10 +4059,10 @@
         <v>35</v>
       </c>
       <c r="O18" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="25">
         <v>0</v>
@@ -4160,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="T19" s="25">
         <v>1</v>
@@ -4198,7 +4201,7 @@
     </row>
     <row r="20" ht="15" spans="1:30">
       <c r="A20" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" s="23">
         <v>7</v>
@@ -4210,19 +4213,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J20" s="23">
         <v>7</v>
@@ -4255,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T20" s="23">
         <v>0</v>
@@ -4264,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W20">
         <v>302</v>
@@ -4293,7 +4296,7 @@
     </row>
     <row r="21" ht="15" spans="1:30">
       <c r="A21" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" s="23">
         <v>7</v>
@@ -4305,19 +4308,19 @@
         <v>37</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J21" s="23">
         <v>7</v>
@@ -4350,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T21" s="23">
         <v>0</v>
@@ -4359,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W21">
         <v>303</v>
@@ -4388,7 +4391,7 @@
     </row>
     <row r="22" ht="15" spans="1:30">
       <c r="A22" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" s="23">
         <v>8</v>
@@ -4400,19 +4403,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J22" s="23">
         <v>8</v>
@@ -4454,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W22">
         <v>304</v>
@@ -4483,7 +4486,7 @@
     </row>
     <row r="23" ht="15" spans="1:30">
       <c r="A23" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="23">
         <v>8</v>
@@ -4495,19 +4498,19 @@
         <v>37</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J23" s="23">
         <v>8</v>
@@ -4517,7 +4520,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M23" s="39" t="str">
         <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F35,0),1)</f>
@@ -4539,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T23" s="23">
         <v>0</v>
@@ -4548,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W23">
         <v>305</v>
@@ -4577,7 +4580,7 @@
     </row>
     <row r="24" s="18" customFormat="1" ht="15" spans="1:30">
       <c r="A24" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="23">
         <v>9</v>
@@ -4589,19 +4592,19 @@
         <v>4</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J24" s="23">
         <v>9</v>
@@ -4633,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T24" s="23">
         <v>0</v>
@@ -4642,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W24">
         <v>306</v>
@@ -4671,7 +4674,7 @@
     </row>
     <row r="25" s="18" customFormat="1" ht="15" spans="1:30">
       <c r="A25" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25" s="23">
         <v>9</v>
@@ -4683,19 +4686,19 @@
         <v>37</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J25" s="23">
         <v>9</v>
@@ -4728,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="T25" s="23">
         <v>0</v>
@@ -4737,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W25">
         <v>307</v>
@@ -4766,7 +4769,7 @@
     </row>
     <row r="26" ht="15" spans="1:30">
       <c r="A26" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" s="23">
         <v>10</v>
@@ -4778,19 +4781,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J26" s="23">
         <v>10</v>
@@ -4823,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T26" s="23">
         <v>0</v>
@@ -4832,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W26">
         <v>308</v>
@@ -4861,7 +4864,7 @@
     </row>
     <row r="27" ht="15" spans="1:30">
       <c r="A27" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" s="23">
         <v>10</v>
@@ -4873,19 +4876,19 @@
         <v>37</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J27" s="23">
         <v>10</v>
@@ -4918,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T27" s="23">
         <v>0</v>
@@ -4927,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W27">
         <v>309</v>
@@ -4956,7 +4959,7 @@
     </row>
     <row r="28" s="19" customFormat="1" ht="15" spans="1:30">
       <c r="A28" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="35">
         <v>11</v>
@@ -4968,19 +4971,19 @@
         <v>4</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>48</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J28" s="35">
         <v>11</v>
@@ -5021,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W28">
         <v>310</v>
@@ -5050,7 +5053,7 @@
     </row>
     <row r="29" ht="15" spans="1:30">
       <c r="A29" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B29" s="23">
         <v>11</v>
@@ -5062,19 +5065,19 @@
         <v>37</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J29" s="23">
         <v>11</v>
@@ -5083,7 +5086,7 @@
         <v>68</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M29" s="39" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
@@ -5114,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W29">
         <v>311</v>
@@ -5143,7 +5146,7 @@
     </row>
     <row r="30" ht="15" spans="1:30">
       <c r="A30" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B30" s="23">
         <v>24</v>
@@ -5155,19 +5158,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>61</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J30" s="23">
         <v>24</v>
@@ -5200,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T30" s="23">
         <v>0</v>
@@ -5209,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W30">
         <v>312</v>
@@ -5238,7 +5241,7 @@
     </row>
     <row r="31" ht="15" spans="1:30">
       <c r="A31" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B31" s="23">
         <v>24</v>
@@ -5250,19 +5253,19 @@
         <v>37</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J31" s="23">
         <v>24</v>
@@ -5293,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T31" s="23">
         <v>0</v>
@@ -5302,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W31">
         <v>313</v>
@@ -5331,7 +5334,7 @@
     </row>
     <row r="32" s="19" customFormat="1" ht="15" spans="1:30">
       <c r="A32" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B32" s="35">
         <v>23</v>
@@ -5343,19 +5346,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J32" s="35">
         <v>23</v>
@@ -5387,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T32" s="35">
         <v>0</v>
@@ -5396,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W32">
         <v>314</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="33" ht="15" spans="1:30">
       <c r="A33" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B33" s="23">
         <v>23</v>
@@ -5437,19 +5440,19 @@
         <v>37</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J33" s="23">
         <v>23</v>
@@ -5480,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T33" s="23">
         <v>0</v>
@@ -5489,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W33">
         <v>315</v>
@@ -5518,7 +5521,7 @@
     </row>
     <row r="34" ht="15" spans="1:30">
       <c r="A34" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B34" s="23">
         <v>15</v>
@@ -5530,19 +5533,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J34" s="23">
         <v>15</v>
@@ -5575,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T34" s="23">
         <v>0</v>
@@ -5584,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="W34">
         <v>316</v>
@@ -5613,7 +5616,7 @@
     </row>
     <row r="35" ht="15" spans="1:30">
       <c r="A35" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B35" s="23">
         <v>15</v>
@@ -5625,19 +5628,19 @@
         <v>37</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J35" s="23">
         <v>15</v>
@@ -5647,7 +5650,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M35" s="39" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
@@ -5678,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="W35">
         <v>317</v>
@@ -5707,7 +5710,7 @@
     </row>
     <row r="36" ht="15" spans="1:30">
       <c r="A36" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B36" s="23">
         <v>16</v>
@@ -5719,19 +5722,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J36" s="23">
         <v>16</v>
@@ -5772,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="W36">
         <v>318</v>
@@ -5801,7 +5804,7 @@
     </row>
     <row r="37" ht="15" spans="1:30">
       <c r="A37" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B37" s="23">
         <v>16</v>
@@ -5813,19 +5816,19 @@
         <v>37</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J37" s="23">
         <v>16</v>
@@ -5835,7 +5838,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M37" s="39" t="str">
         <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F47,0),1)</f>
@@ -5857,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T37" s="23">
         <v>0</v>
@@ -5866,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="W37">
         <v>319</v>
@@ -5895,7 +5898,7 @@
     </row>
     <row r="38" ht="15" spans="1:30">
       <c r="A38" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B38" s="23">
         <v>17</v>
@@ -5907,19 +5910,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J38" s="23">
         <v>17</v>
@@ -5931,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>35</v>
@@ -5949,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T38" s="23">
         <v>0</v>
@@ -5958,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="W38">
         <v>320</v>
@@ -5987,7 +5990,7 @@
     </row>
     <row r="39" ht="15" spans="1:30">
       <c r="A39" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B39" s="23">
         <v>17</v>
@@ -5999,19 +6002,19 @@
         <v>37</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J39" s="23">
         <v>17</v>
@@ -6021,7 +6024,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M39" s="39" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
@@ -6043,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T39" s="23">
         <v>0</v>
@@ -6052,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="W39">
         <v>321</v>
@@ -6081,7 +6084,7 @@
     </row>
     <row r="40" ht="15" spans="1:30">
       <c r="A40" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B40" s="23">
         <v>20</v>
@@ -6093,19 +6096,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J40" s="23">
         <v>20</v>
@@ -6138,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T40" s="23">
         <v>0</v>
@@ -6147,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W40">
         <v>322</v>
@@ -6176,7 +6179,7 @@
     </row>
     <row r="41" ht="15" spans="1:30">
       <c r="A41" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B41" s="23">
         <v>20</v>
@@ -6188,19 +6191,19 @@
         <v>37</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J41" s="23">
         <v>20</v>
@@ -6210,7 +6213,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M41" s="39" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
@@ -6241,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W41">
         <v>323</v>
@@ -6270,7 +6273,7 @@
     </row>
     <row r="42" ht="15" spans="1:30">
       <c r="A42" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B42" s="23">
         <v>21</v>
@@ -6282,19 +6285,19 @@
         <v>4</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J42" s="23">
         <v>21</v>
@@ -6335,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W42">
         <v>324</v>
@@ -6364,7 +6367,7 @@
     </row>
     <row r="43" ht="15" spans="1:30">
       <c r="A43" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B43" s="23">
         <v>21</v>
@@ -6376,19 +6379,19 @@
         <v>37</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J43" s="23">
         <v>21</v>
@@ -6430,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W43">
         <v>325</v>
@@ -6459,7 +6462,7 @@
     </row>
     <row r="44" ht="15" spans="1:30">
       <c r="A44" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B44" s="23">
         <v>19</v>
@@ -6471,19 +6474,19 @@
         <v>4</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J44" s="23">
         <v>19</v>
@@ -6525,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W44">
         <v>326</v>
@@ -6554,7 +6557,7 @@
     </row>
     <row r="45" ht="15" spans="1:30">
       <c r="A45" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B45" s="23">
         <v>19</v>
@@ -6566,19 +6569,19 @@
         <v>37</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J45" s="23">
         <v>19</v>
@@ -6588,7 +6591,7 @@
         <v>3</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M45" s="39" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
@@ -6610,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T45" s="23">
         <v>0</v>
@@ -6619,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W45">
         <v>327</v>
@@ -6648,7 +6651,7 @@
     </row>
     <row r="46" ht="15" spans="1:30">
       <c r="A46" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B46" s="23">
         <v>26</v>
@@ -6660,19 +6663,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>61</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J46" s="23">
         <v>26</v>
@@ -6714,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W46">
         <v>328</v>
@@ -6743,7 +6746,7 @@
     </row>
     <row r="47" ht="15" spans="1:30">
       <c r="A47" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B47" s="23">
         <v>26</v>
@@ -6755,19 +6758,19 @@
         <v>37</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J47" s="23">
         <v>26</v>
@@ -6800,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T47" s="23">
         <v>0</v>
@@ -6809,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W47">
         <v>329</v>
@@ -6838,7 +6841,7 @@
     </row>
     <row r="48" s="15" customFormat="1" ht="15" spans="1:30">
       <c r="A48" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B48" s="25">
         <v>22</v>
@@ -6850,19 +6853,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>48</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J48" s="25">
         <v>22</v>
@@ -6903,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W48">
         <v>330</v>
@@ -6932,7 +6935,7 @@
     </row>
     <row r="49" ht="15" spans="1:30">
       <c r="A49" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B49" s="23">
         <v>22</v>
@@ -6944,19 +6947,19 @@
         <v>37</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J49" s="23">
         <v>22</v>
@@ -6989,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T49" s="23">
         <v>0</v>
@@ -6998,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W49">
         <v>331</v>
@@ -7027,7 +7030,7 @@
     </row>
     <row r="50" ht="15" spans="1:30">
       <c r="A50" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B50" s="23">
         <v>22</v>
@@ -7039,19 +7042,19 @@
         <v>37</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>112</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J50" s="23">
         <v>22</v>
@@ -7084,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T50" s="23">
         <v>0</v>
@@ -7093,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W50">
         <v>332</v>
@@ -7122,7 +7125,7 @@
     </row>
     <row r="51" s="20" customFormat="1" ht="15" spans="1:30">
       <c r="A51" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B51" s="36">
         <v>25</v>
@@ -7134,19 +7137,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J51" s="36">
         <v>25</v>
@@ -7174,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T51" s="36">
         <v>0</v>
@@ -7183,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W51">
         <v>333</v>
@@ -7212,7 +7215,7 @@
     </row>
     <row r="52" ht="15" spans="1:30">
       <c r="A52" s="22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B52" s="23">
         <v>25</v>
@@ -7224,19 +7227,19 @@
         <v>37</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J52" s="23">
         <v>25</v>
@@ -7268,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T52" s="23">
         <v>0</v>
@@ -7277,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W52">
         <v>334</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="53" ht="15" spans="1:30">
       <c r="A53" s="22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B53" s="23">
         <v>27</v>
@@ -7318,19 +7321,19 @@
         <v>4</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J53" s="23">
         <v>27</v>
@@ -7362,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T53" s="23">
         <v>0</v>
@@ -7371,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W53">
         <v>335</v>
@@ -7400,7 +7403,7 @@
     </row>
     <row r="54" ht="15" spans="1:30">
       <c r="A54" s="22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B54" s="23">
         <v>27</v>
@@ -7412,19 +7415,19 @@
         <v>37</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J54" s="23">
         <v>27</v>
@@ -7456,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T54" s="23">
         <v>0</v>
@@ -7465,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W54">
         <v>336</v>
@@ -7521,24 +7524,24 @@
     <row r="1" ht="12.75" customHeight="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7560,14 +7563,14 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>67</v>
@@ -7582,14 +7585,14 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="2:9">
       <c r="B3" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>40</v>
@@ -7604,14 +7607,14 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="2:9">
       <c r="B4" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>48</v>
@@ -7626,36 +7629,36 @@
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="6">
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>32</v>
@@ -7670,36 +7673,36 @@
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="2:9">
       <c r="B7" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>61</v>
@@ -7714,7 +7717,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="2:9">
       <c r="B9" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>112</v>
@@ -7739,41 +7742,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="2:9">
       <c r="B11" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="2:9">
@@ -7881,7 +7884,7 @@
     <row r="24" ht="12.75" customHeight="1"/>
     <row r="25" ht="12.75" customHeight="1" spans="3:3">
       <c r="C25" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="346">
   <si>
     <t>operator</t>
   </si>
@@ -407,6 +407,9 @@
     <t>gaziNetworks_tdm1</t>
   </si>
   <si>
+    <t>TELCOBRIDGE_KHULNA</t>
+  </si>
+  <si>
     <t>RitUtipi9Ras25je</t>
   </si>
   <si>
@@ -420,6 +423,12 @@
   </si>
   <si>
     <t>Vault.TelcobridgeKhulna</t>
+  </si>
+  <si>
+    <t>telcobridge</t>
+  </si>
+  <si>
+    <t>TELCOBRIDGE_BOGRA</t>
   </si>
   <si>
     <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\bogra</t>
@@ -1763,7 +1772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1876,6 +1885,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2395,10 +2405,10 @@
   <sheetPr/>
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2407,7 +2417,7 @@
     <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="13.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="19.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="16.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="67" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -4035,13 +4045,13 @@
         <v>128</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J18" s="25">
         <v>6</v>
@@ -4050,10 +4060,10 @@
         <v>57</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N18" s="17" t="s">
         <v>35</v>
@@ -4071,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T18" s="25">
         <v>1</v>
@@ -4085,8 +4095,8 @@
       <c r="W18" s="17">
         <v>301</v>
       </c>
-      <c r="X18" s="22" t="s">
-        <v>35</v>
+      <c r="X18" s="52" t="s">
+        <v>135</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -4127,13 +4137,13 @@
         <v>128</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J19" s="25">
         <v>6</v>
@@ -4142,10 +4152,10 @@
         <v>57</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>35</v>
@@ -4163,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="T19" s="25">
         <v>1</v>
@@ -4177,8 +4187,8 @@
       <c r="W19" s="17">
         <v>301</v>
       </c>
-      <c r="X19" s="22" t="s">
-        <v>35</v>
+      <c r="X19" s="52" t="s">
+        <v>135</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -4201,7 +4211,7 @@
     </row>
     <row r="20" ht="15" spans="1:30">
       <c r="A20" s="22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B20" s="23">
         <v>7</v>
@@ -4213,19 +4223,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J20" s="23">
         <v>7</v>
@@ -4258,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="T20" s="23">
         <v>0</v>
@@ -4267,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W20">
         <v>302</v>
@@ -4296,7 +4306,7 @@
     </row>
     <row r="21" ht="15" spans="1:30">
       <c r="A21" s="22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B21" s="23">
         <v>7</v>
@@ -4308,19 +4318,19 @@
         <v>37</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J21" s="23">
         <v>7</v>
@@ -4353,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="T21" s="23">
         <v>0</v>
@@ -4362,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W21">
         <v>303</v>
@@ -4391,7 +4401,7 @@
     </row>
     <row r="22" ht="15" spans="1:30">
       <c r="A22" s="22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B22" s="23">
         <v>8</v>
@@ -4403,19 +4413,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J22" s="23">
         <v>8</v>
@@ -4457,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="W22">
         <v>304</v>
@@ -4486,7 +4496,7 @@
     </row>
     <row r="23" ht="15" spans="1:30">
       <c r="A23" s="22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B23" s="23">
         <v>8</v>
@@ -4498,19 +4508,19 @@
         <v>37</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J23" s="23">
         <v>8</v>
@@ -4520,7 +4530,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M23" s="39" t="str">
         <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F35,0),1)</f>
@@ -4542,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T23" s="23">
         <v>0</v>
@@ -4551,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="W23">
         <v>305</v>
@@ -4580,7 +4590,7 @@
     </row>
     <row r="24" s="18" customFormat="1" ht="15" spans="1:30">
       <c r="A24" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B24" s="23">
         <v>9</v>
@@ -4592,19 +4602,19 @@
         <v>4</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J24" s="23">
         <v>9</v>
@@ -4636,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="T24" s="23">
         <v>0</v>
@@ -4645,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="W24">
         <v>306</v>
@@ -4674,7 +4684,7 @@
     </row>
     <row r="25" s="18" customFormat="1" ht="15" spans="1:30">
       <c r="A25" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B25" s="23">
         <v>9</v>
@@ -4686,19 +4696,19 @@
         <v>37</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J25" s="23">
         <v>9</v>
@@ -4731,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="T25" s="23">
         <v>0</v>
@@ -4740,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="W25">
         <v>307</v>
@@ -4769,7 +4779,7 @@
     </row>
     <row r="26" ht="15" spans="1:30">
       <c r="A26" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B26" s="23">
         <v>10</v>
@@ -4781,19 +4791,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J26" s="23">
         <v>10</v>
@@ -4826,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="T26" s="23">
         <v>0</v>
@@ -4835,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="W26">
         <v>308</v>
@@ -4864,7 +4874,7 @@
     </row>
     <row r="27" ht="15" spans="1:30">
       <c r="A27" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B27" s="23">
         <v>10</v>
@@ -4876,19 +4886,19 @@
         <v>37</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J27" s="23">
         <v>10</v>
@@ -4921,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="T27" s="23">
         <v>0</v>
@@ -4930,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="W27">
         <v>309</v>
@@ -4959,7 +4969,7 @@
     </row>
     <row r="28" s="19" customFormat="1" ht="15" spans="1:30">
       <c r="A28" s="19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B28" s="35">
         <v>11</v>
@@ -4971,19 +4981,19 @@
         <v>4</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>48</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J28" s="35">
         <v>11</v>
@@ -5024,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="W28">
         <v>310</v>
@@ -5053,7 +5063,7 @@
     </row>
     <row r="29" ht="15" spans="1:30">
       <c r="A29" s="22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B29" s="23">
         <v>11</v>
@@ -5065,19 +5075,19 @@
         <v>37</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J29" s="23">
         <v>11</v>
@@ -5086,7 +5096,7 @@
         <v>68</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M29" s="39" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
@@ -5117,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="W29">
         <v>311</v>
@@ -5146,7 +5156,7 @@
     </row>
     <row r="30" ht="15" spans="1:30">
       <c r="A30" s="22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B30" s="23">
         <v>24</v>
@@ -5158,19 +5168,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>61</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J30" s="23">
         <v>24</v>
@@ -5203,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="T30" s="23">
         <v>0</v>
@@ -5212,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="W30">
         <v>312</v>
@@ -5241,7 +5251,7 @@
     </row>
     <row r="31" ht="15" spans="1:30">
       <c r="A31" s="22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B31" s="23">
         <v>24</v>
@@ -5253,19 +5263,19 @@
         <v>37</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J31" s="23">
         <v>24</v>
@@ -5296,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="T31" s="23">
         <v>0</v>
@@ -5305,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="W31">
         <v>313</v>
@@ -5334,7 +5344,7 @@
     </row>
     <row r="32" s="19" customFormat="1" ht="15" spans="1:30">
       <c r="A32" s="19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B32" s="35">
         <v>23</v>
@@ -5346,19 +5356,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J32" s="35">
         <v>23</v>
@@ -5390,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T32" s="35">
         <v>0</v>
@@ -5399,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="W32">
         <v>314</v>
@@ -5428,7 +5438,7 @@
     </row>
     <row r="33" ht="15" spans="1:30">
       <c r="A33" s="22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B33" s="23">
         <v>23</v>
@@ -5440,19 +5450,19 @@
         <v>37</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J33" s="23">
         <v>23</v>
@@ -5483,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="22" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="T33" s="23">
         <v>0</v>
@@ -5492,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="W33">
         <v>315</v>
@@ -5521,7 +5531,7 @@
     </row>
     <row r="34" ht="15" spans="1:30">
       <c r="A34" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B34" s="23">
         <v>15</v>
@@ -5533,19 +5543,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J34" s="23">
         <v>15</v>
@@ -5578,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="22" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="T34" s="23">
         <v>0</v>
@@ -5587,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W34">
         <v>316</v>
@@ -5616,7 +5626,7 @@
     </row>
     <row r="35" ht="15" spans="1:30">
       <c r="A35" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B35" s="23">
         <v>15</v>
@@ -5628,19 +5638,19 @@
         <v>37</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J35" s="23">
         <v>15</v>
@@ -5650,7 +5660,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M35" s="39" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
@@ -5681,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W35">
         <v>317</v>
@@ -5710,7 +5720,7 @@
     </row>
     <row r="36" ht="15" spans="1:30">
       <c r="A36" s="22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B36" s="23">
         <v>16</v>
@@ -5722,19 +5732,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J36" s="23">
         <v>16</v>
@@ -5775,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="W36">
         <v>318</v>
@@ -5804,7 +5814,7 @@
     </row>
     <row r="37" ht="15" spans="1:30">
       <c r="A37" s="22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B37" s="23">
         <v>16</v>
@@ -5816,19 +5826,19 @@
         <v>37</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J37" s="23">
         <v>16</v>
@@ -5838,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M37" s="39" t="str">
         <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F47,0),1)</f>
@@ -5860,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="22" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="T37" s="23">
         <v>0</v>
@@ -5869,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="W37">
         <v>319</v>
@@ -5898,7 +5908,7 @@
     </row>
     <row r="38" ht="15" spans="1:30">
       <c r="A38" s="22" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B38" s="23">
         <v>17</v>
@@ -5910,19 +5920,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J38" s="23">
         <v>17</v>
@@ -5934,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="39" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>35</v>
@@ -5952,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="22" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T38" s="23">
         <v>0</v>
@@ -5961,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="22" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="W38">
         <v>320</v>
@@ -5990,7 +6000,7 @@
     </row>
     <row r="39" ht="15" spans="1:30">
       <c r="A39" s="22" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B39" s="23">
         <v>17</v>
@@ -6002,19 +6012,19 @@
         <v>37</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J39" s="23">
         <v>17</v>
@@ -6024,7 +6034,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M39" s="39" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
@@ -6046,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="T39" s="23">
         <v>0</v>
@@ -6055,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="22" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="W39">
         <v>321</v>
@@ -6084,7 +6094,7 @@
     </row>
     <row r="40" ht="15" spans="1:30">
       <c r="A40" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B40" s="23">
         <v>20</v>
@@ -6096,19 +6106,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J40" s="23">
         <v>20</v>
@@ -6141,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="22" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="T40" s="23">
         <v>0</v>
@@ -6150,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="W40">
         <v>322</v>
@@ -6179,7 +6189,7 @@
     </row>
     <row r="41" ht="15" spans="1:30">
       <c r="A41" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B41" s="23">
         <v>20</v>
@@ -6191,19 +6201,19 @@
         <v>37</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J41" s="23">
         <v>20</v>
@@ -6213,7 +6223,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M41" s="39" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
@@ -6244,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="W41">
         <v>323</v>
@@ -6273,7 +6283,7 @@
     </row>
     <row r="42" ht="15" spans="1:30">
       <c r="A42" s="22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B42" s="23">
         <v>21</v>
@@ -6285,19 +6295,19 @@
         <v>4</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J42" s="23">
         <v>21</v>
@@ -6338,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="W42">
         <v>324</v>
@@ -6367,7 +6377,7 @@
     </row>
     <row r="43" ht="15" spans="1:30">
       <c r="A43" s="22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B43" s="23">
         <v>21</v>
@@ -6379,19 +6389,19 @@
         <v>37</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J43" s="23">
         <v>21</v>
@@ -6433,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="W43">
         <v>325</v>
@@ -6462,7 +6472,7 @@
     </row>
     <row r="44" ht="15" spans="1:30">
       <c r="A44" s="22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B44" s="23">
         <v>19</v>
@@ -6474,19 +6484,19 @@
         <v>4</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J44" s="23">
         <v>19</v>
@@ -6528,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="W44">
         <v>326</v>
@@ -6557,7 +6567,7 @@
     </row>
     <row r="45" ht="15" spans="1:30">
       <c r="A45" s="22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B45" s="23">
         <v>19</v>
@@ -6569,19 +6579,19 @@
         <v>37</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J45" s="23">
         <v>19</v>
@@ -6591,7 +6601,7 @@
         <v>3</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M45" s="39" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
@@ -6613,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="22" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="T45" s="23">
         <v>0</v>
@@ -6622,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="W45">
         <v>327</v>
@@ -6651,7 +6661,7 @@
     </row>
     <row r="46" ht="15" spans="1:30">
       <c r="A46" s="22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B46" s="23">
         <v>26</v>
@@ -6663,19 +6673,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>61</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J46" s="23">
         <v>26</v>
@@ -6717,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="W46">
         <v>328</v>
@@ -6746,7 +6756,7 @@
     </row>
     <row r="47" ht="15" spans="1:30">
       <c r="A47" s="22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B47" s="23">
         <v>26</v>
@@ -6758,19 +6768,19 @@
         <v>37</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="J47" s="23">
         <v>26</v>
@@ -6803,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="22" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="T47" s="23">
         <v>0</v>
@@ -6812,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="W47">
         <v>329</v>
@@ -6841,7 +6851,7 @@
     </row>
     <row r="48" s="15" customFormat="1" ht="15" spans="1:30">
       <c r="A48" s="15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B48" s="25">
         <v>22</v>
@@ -6853,19 +6863,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>48</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J48" s="25">
         <v>22</v>
@@ -6906,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="W48">
         <v>330</v>
@@ -6935,7 +6945,7 @@
     </row>
     <row r="49" ht="15" spans="1:30">
       <c r="A49" s="22" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B49" s="23">
         <v>22</v>
@@ -6947,19 +6957,19 @@
         <v>37</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J49" s="23">
         <v>22</v>
@@ -6992,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="22" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="T49" s="23">
         <v>0</v>
@@ -7001,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="22" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="W49">
         <v>331</v>
@@ -7030,7 +7040,7 @@
     </row>
     <row r="50" ht="15" spans="1:30">
       <c r="A50" s="22" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B50" s="23">
         <v>22</v>
@@ -7042,19 +7052,19 @@
         <v>37</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>112</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J50" s="23">
         <v>22</v>
@@ -7087,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="22" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="T50" s="23">
         <v>0</v>
@@ -7096,13 +7106,13 @@
         <v>0</v>
       </c>
       <c r="V50" s="22" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="W50">
         <v>332</v>
       </c>
-      <c r="X50" s="22" t="s">
-        <v>35</v>
+      <c r="X50" s="52" t="s">
+        <v>135</v>
       </c>
       <c r="Y50">
         <v>1</v>
@@ -7125,7 +7135,7 @@
     </row>
     <row r="51" s="20" customFormat="1" ht="15" spans="1:30">
       <c r="A51" s="20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B51" s="36">
         <v>25</v>
@@ -7137,19 +7147,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="J51" s="36">
         <v>25</v>
@@ -7177,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="20" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="T51" s="36">
         <v>0</v>
@@ -7186,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="W51">
         <v>333</v>
@@ -7215,7 +7225,7 @@
     </row>
     <row r="52" ht="15" spans="1:30">
       <c r="A52" s="22" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B52" s="23">
         <v>25</v>
@@ -7227,19 +7237,19 @@
         <v>37</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J52" s="23">
         <v>25</v>
@@ -7271,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="22" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="T52" s="23">
         <v>0</v>
@@ -7280,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="22" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="W52">
         <v>334</v>
@@ -7309,7 +7319,7 @@
     </row>
     <row r="53" ht="15" spans="1:30">
       <c r="A53" s="22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B53" s="23">
         <v>27</v>
@@ -7321,19 +7331,19 @@
         <v>4</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J53" s="23">
         <v>27</v>
@@ -7365,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T53" s="23">
         <v>0</v>
@@ -7374,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="W53">
         <v>335</v>
@@ -7403,7 +7413,7 @@
     </row>
     <row r="54" ht="15" spans="1:30">
       <c r="A54" s="22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B54" s="23">
         <v>27</v>
@@ -7415,19 +7425,19 @@
         <v>37</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J54" s="23">
         <v>27</v>
@@ -7459,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="22" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="T54" s="23">
         <v>0</v>
@@ -7468,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="W54">
         <v>336</v>
@@ -7524,24 +7534,24 @@
     <row r="1" ht="12.75" customHeight="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7563,14 +7573,14 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>67</v>
@@ -7585,14 +7595,14 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="2:9">
       <c r="B3" s="6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>40</v>
@@ -7607,14 +7617,14 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="2:9">
       <c r="B4" s="6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>48</v>
@@ -7629,36 +7639,36 @@
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="6">
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>32</v>
@@ -7673,36 +7683,36 @@
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="2:9">
       <c r="B7" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>61</v>
@@ -7717,14 +7727,14 @@
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="2:9">
       <c r="B9" s="11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>112</v>
@@ -7742,41 +7752,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="2:9">
       <c r="B11" s="11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="2:9">
@@ -7884,7 +7894,7 @@
     <row r="24" ht="12.75" customHeight="1"/>
     <row r="25" ht="12.75" customHeight="1" spans="3:3">
       <c r="C25" s="14" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\allDeployment\cas\_helper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1061,14 +1066,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1080,66 +1079,66 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1147,26 +1146,26 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1179,132 +1178,17 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1343,7 +1227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,164 +1255,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1566,213 +1294,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1811,22 +1342,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="19"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,19 +1363,19 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1857,7 +1385,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1867,88 +1395,53 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NE automation data"/>
@@ -1964,16 +1457,12 @@
           <cell r="C2" t="str">
             <v>HUWAEI</v>
           </cell>
-        </row>
-        <row r="2">
           <cell r="E2" t="str">
             <v>.dat</v>
           </cell>
           <cell r="F2" t="str">
             <v>HUWAEI</v>
           </cell>
-        </row>
-        <row r="2">
           <cell r="H2">
             <v>3</v>
           </cell>
@@ -1988,16 +1477,12 @@
           <cell r="C3" t="str">
             <v>GENBAND</v>
           </cell>
-        </row>
-        <row r="3">
           <cell r="E3" t="str">
             <v>.gz</v>
           </cell>
           <cell r="F3" t="str">
             <v>GENBAND</v>
           </cell>
-        </row>
-        <row r="3">
           <cell r="H3">
             <v>31</v>
           </cell>
@@ -2012,16 +1497,12 @@
           <cell r="C4" t="str">
             <v>CATALEYA</v>
           </cell>
-        </row>
-        <row r="4">
           <cell r="E4" t="str">
             <v>.txt</v>
           </cell>
           <cell r="F4" t="str">
             <v>CATALEYA</v>
           </cell>
-        </row>
-        <row r="4">
           <cell r="H4">
             <v>25</v>
           </cell>
@@ -2036,16 +1517,12 @@
           <cell r="C5" t="str">
             <v>ZTE</v>
           </cell>
-        </row>
-        <row r="5">
           <cell r="E5" t="str">
             <v>.DAT</v>
           </cell>
           <cell r="F5" t="str">
             <v>ZTE</v>
           </cell>
-        </row>
-        <row r="5">
           <cell r="H5">
             <v>17</v>
           </cell>
@@ -2060,16 +1537,12 @@
           <cell r="C6" t="str">
             <v>REVE</v>
           </cell>
-        </row>
-        <row r="6">
           <cell r="E6" t="str">
             <v>.csv</v>
           </cell>
           <cell r="F6" t="str">
             <v>REVE</v>
           </cell>
-        </row>
-        <row r="6">
           <cell r="H6">
             <v>28</v>
           </cell>
@@ -2084,16 +1557,12 @@
           <cell r="C7" t="str">
             <v>NOKIA</v>
           </cell>
-        </row>
-        <row r="7">
           <cell r="E7" t="str">
             <v>.DAT</v>
           </cell>
           <cell r="F7" t="str">
             <v>NOKIA</v>
           </cell>
-        </row>
-        <row r="7">
           <cell r="H7">
             <v>36</v>
           </cell>
@@ -2108,16 +1577,12 @@
           <cell r="C8" t="str">
             <v>DIALOGIC</v>
           </cell>
-        </row>
-        <row r="8">
           <cell r="E8" t="str">
             <v>.gz</v>
           </cell>
           <cell r="F8" t="str">
             <v>DIALOGIC</v>
           </cell>
-        </row>
-        <row r="8">
           <cell r="H8">
             <v>27</v>
           </cell>
@@ -2132,16 +1597,12 @@
           <cell r="C9" t="str">
             <v>TELCOBRIDGE</v>
           </cell>
-        </row>
-        <row r="9">
           <cell r="E9" t="str">
             <v>.log</v>
           </cell>
           <cell r="F9" t="str">
             <v>TELCOBRIDGE</v>
           </cell>
-        </row>
-        <row r="9">
           <cell r="H9">
             <v>37</v>
           </cell>
@@ -2156,13 +1617,9 @@
           <cell r="C10" t="str">
             <v>WTL</v>
           </cell>
-        </row>
-        <row r="10">
           <cell r="F10" t="str">
             <v>WTL</v>
           </cell>
-        </row>
-        <row r="10">
           <cell r="H10">
             <v>38</v>
           </cell>
@@ -2177,16 +1634,12 @@
           <cell r="C11" t="str">
             <v>GNEW</v>
           </cell>
-        </row>
-        <row r="11">
           <cell r="E11" t="str">
             <v>.csv</v>
           </cell>
           <cell r="F11" t="str">
             <v>GNEW</v>
           </cell>
-        </row>
-        <row r="11">
           <cell r="H11">
             <v>39</v>
           </cell>
@@ -2397,213 +1850,212 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="13.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="19.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="67" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.7142857142857" customWidth="1"/>
-    <col min="13" max="13" width="14.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="8.57142857142857" customWidth="1"/>
-    <col min="15" max="15" width="15.5714285714286" customWidth="1"/>
-    <col min="16" max="17" width="18.5714285714286" customWidth="1"/>
-    <col min="18" max="18" width="16.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
     <col min="19" max="19" width="43" customWidth="1"/>
-    <col min="20" max="20" width="19.8571428571429" customWidth="1"/>
-    <col min="21" max="21" width="11.2857142857143" customWidth="1"/>
-    <col min="22" max="22" width="25.4285714285714" customWidth="1"/>
-    <col min="23" max="23" width="31.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" customWidth="1"/>
+    <col min="22" max="22" width="25.42578125" customWidth="1"/>
+    <col min="23" max="23" width="31.7109375" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="27" max="27" width="48.5714285714286" customWidth="1"/>
-    <col min="28" max="28" width="45.7142857142857" customWidth="1"/>
-    <col min="29" max="29" width="46.5714285714286" customWidth="1"/>
-    <col min="30" max="30" width="32.7142857142857" customWidth="1"/>
+    <col min="27" max="27" width="48.5703125" customWidth="1"/>
+    <col min="28" max="28" width="45.7109375" customWidth="1"/>
+    <col min="29" max="29" width="46.5703125" customWidth="1"/>
+    <col min="30" max="30" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:30">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:30" ht="15">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:30">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:30" ht="15">
+      <c r="A2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="23">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="23">
-        <v>1</v>
-      </c>
-      <c r="K2" s="37">
+      <c r="J2" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2" s="36">
         <v>29</v>
       </c>
-      <c r="L2" s="38" t="str">
+      <c r="L2" s="37" t="str">
         <f t="array" ref="L2">INDEX(Sheet2!$B$2:$C$21,MATCH(G2,Sheet2!$C$2:C21,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M2" s="39" t="str">
+      <c r="M2" s="38" t="str">
         <f t="array" ref="M2">INDEX(Sheet2!$E$2:$F$21,MATCH(G2,Sheet2!$F$2:F21,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="23">
-        <v>0</v>
-      </c>
-      <c r="P2" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="23">
-        <v>1</v>
-      </c>
-      <c r="R2" s="23">
-        <v>1</v>
-      </c>
-      <c r="S2" s="22" t="s">
+      <c r="N2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>1</v>
+      </c>
+      <c r="R2" s="22">
+        <v>1</v>
+      </c>
+      <c r="S2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="23">
-        <v>0</v>
-      </c>
-      <c r="U2" s="23">
-        <v>0</v>
-      </c>
-      <c r="V2" s="22" t="s">
+      <c r="T2" s="22">
+        <v>0</v>
+      </c>
+      <c r="U2" s="22">
+        <v>0</v>
+      </c>
+      <c r="V2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="W2">
         <v>285</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y2">
@@ -2625,80 +2077,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:30">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:30" ht="15">
+      <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="23">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="23">
-        <v>1</v>
-      </c>
-      <c r="K3" s="37">
+      <c r="J3" s="22">
+        <v>1</v>
+      </c>
+      <c r="K3" s="36">
         <f t="array" ref="K3">INDEX(Sheet2!$H$2:$I$21,MATCH(G3,Sheet2!$I$2:I7,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L3" s="38" t="str">
+      <c r="L3" s="37" t="str">
         <f t="array" ref="L3">INDEX(Sheet2!$B$2:$C$21,MATCH(G3,Sheet2!$C$2:C22,0),1)</f>
         <v>VCDR</v>
       </c>
-      <c r="M3" s="39" t="str">
+      <c r="M3" s="38" t="str">
         <f t="array" ref="M3">INDEX(Sheet2!$E$2:$F$21,MATCH(G3,Sheet2!$F$2:F22,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="23">
-        <v>1</v>
-      </c>
-      <c r="P3" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="23">
-        <v>1</v>
-      </c>
-      <c r="R3" s="23">
-        <v>1</v>
-      </c>
-      <c r="S3" s="22" t="s">
+      <c r="O3" s="22">
+        <v>1</v>
+      </c>
+      <c r="P3" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>1</v>
+      </c>
+      <c r="R3" s="22">
+        <v>1</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="23">
-        <v>0</v>
-      </c>
-      <c r="U3" s="23">
-        <v>0</v>
-      </c>
-      <c r="V3" s="22" t="s">
+      <c r="T3" s="22">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0</v>
+      </c>
+      <c r="V3" s="21" t="s">
         <v>29</v>
       </c>
       <c r="W3">
         <v>286</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y3">
@@ -2720,79 +2172,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:30">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:30" ht="15">
+      <c r="A4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>3</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>2</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>3</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="36">
         <v>690</v>
       </c>
-      <c r="L4" s="38" t="str">
+      <c r="L4" s="37" t="str">
         <f t="array" ref="L4">INDEX(Sheet2!$B$2:$C$21,MATCH(G4,Sheet2!$C$2:C25,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M4" s="39" t="str">
+      <c r="M4" s="38" t="str">
         <f t="array" ref="M4">INDEX(Sheet2!$E$2:$F$21,MATCH(G4,Sheet2!$F$2:F25,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="23">
-        <v>0</v>
-      </c>
-      <c r="P4" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>1</v>
-      </c>
-      <c r="R4" s="23">
-        <v>1</v>
-      </c>
-      <c r="S4" s="22" t="s">
+      <c r="N4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>1</v>
+      </c>
+      <c r="R4" s="22">
+        <v>1</v>
+      </c>
+      <c r="S4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="23">
-        <v>0</v>
-      </c>
-      <c r="U4" s="23">
-        <v>0</v>
-      </c>
-      <c r="V4" s="22" t="s">
+      <c r="T4" s="22">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22">
+        <v>0</v>
+      </c>
+      <c r="V4" s="21" t="s">
         <v>45</v>
       </c>
       <c r="W4">
         <v>287</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y4">
@@ -2814,75 +2266,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:30">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:30" ht="15">
+      <c r="A5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>3</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="36">
         <v>49</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="23">
-        <v>1</v>
-      </c>
-      <c r="P5" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>1</v>
-      </c>
-      <c r="R5" s="23">
-        <v>1</v>
-      </c>
-      <c r="S5" s="22" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="22">
+        <v>1</v>
+      </c>
+      <c r="P5" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>1</v>
+      </c>
+      <c r="R5" s="22">
+        <v>1</v>
+      </c>
+      <c r="S5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="23">
-        <v>0</v>
-      </c>
-      <c r="U5" s="23">
-        <v>0</v>
-      </c>
-      <c r="V5" s="22" t="s">
+      <c r="T5" s="22">
+        <v>0</v>
+      </c>
+      <c r="U5" s="22">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21" t="s">
         <v>45</v>
       </c>
       <c r="W5">
         <v>288</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y5">
@@ -2904,80 +2356,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:30">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:30" ht="15">
+      <c r="A6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>10</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>2</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="36">
         <f t="array" ref="K6">INDEX(Sheet2!$H$2:$I$21,MATCH(G6,Sheet2!$I$2:I8,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L6" s="38" t="str">
+      <c r="L6" s="37" t="str">
         <f t="array" ref="L6">INDEX(Sheet2!$B$2:$C$21,MATCH(G6,Sheet2!$C$2:C23,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M6" s="39" t="str">
+      <c r="M6" s="38" t="str">
         <f t="array" ref="M6">INDEX(Sheet2!$E$2:$F$21,MATCH(G6,Sheet2!$F$2:F23,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="23">
-        <v>0</v>
-      </c>
-      <c r="P6" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>0</v>
-      </c>
-      <c r="R6" s="23">
-        <v>1</v>
-      </c>
-      <c r="S6" s="22" t="s">
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>1</v>
+      </c>
+      <c r="S6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="23">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23">
-        <v>0</v>
-      </c>
-      <c r="V6" s="22" t="s">
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0</v>
+      </c>
+      <c r="V6" s="21" t="s">
         <v>58</v>
       </c>
       <c r="W6">
         <v>289</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y6">
@@ -2999,80 +2451,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:30">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:30" ht="15">
+      <c r="A7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>9</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>2</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="36">
         <f t="array" ref="K7">INDEX(Sheet2!$H$2:$I$21,MATCH(G7,Sheet2!$I$2:I9,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L7" s="38" t="str">
+      <c r="L7" s="37" t="str">
         <f t="array" ref="L7">INDEX(Sheet2!$B$2:$C$21,MATCH(G7,Sheet2!$C$2:C24,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M7" s="39" t="str">
+      <c r="M7" s="38" t="str">
         <f t="array" ref="M7">INDEX(Sheet2!$E$2:$F$21,MATCH(G7,Sheet2!$F$2:F24,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="23">
-        <v>1</v>
-      </c>
-      <c r="P7" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>1</v>
-      </c>
-      <c r="R7" s="23">
-        <v>1</v>
-      </c>
-      <c r="S7" s="22" t="s">
+      <c r="N7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="22">
+        <v>1</v>
+      </c>
+      <c r="P7" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>1</v>
+      </c>
+      <c r="R7" s="22">
+        <v>1</v>
+      </c>
+      <c r="S7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="T7" s="23">
-        <v>0</v>
-      </c>
-      <c r="U7" s="23">
-        <v>0</v>
-      </c>
-      <c r="V7" s="22" t="s">
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="21" t="s">
         <v>58</v>
       </c>
       <c r="W7">
         <v>290</v>
       </c>
-      <c r="X7" s="22" t="s">
+      <c r="X7" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y7">
@@ -3094,79 +2546,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="1" ht="15" spans="1:30">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:30" s="14" customFormat="1" ht="15">
+      <c r="A8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>4</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>4</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <v>71</v>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L8" s="16" t="str">
         <f t="array" ref="L8">INDEX(Sheet2!$B$2:$C$21,MATCH(G8,Sheet2!$C$2:C27,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M8" s="40" t="str">
+      <c r="M8" s="39" t="str">
         <f t="array" ref="M8">INDEX(Sheet2!$E$2:$F$21,MATCH(G8,Sheet2!$F$2:F27,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="25">
-        <v>0</v>
-      </c>
-      <c r="P8" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>1</v>
-      </c>
-      <c r="R8" s="25">
-        <v>1</v>
-      </c>
-      <c r="S8" s="15" t="s">
+      <c r="N8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>1</v>
+      </c>
+      <c r="R8" s="24">
+        <v>1</v>
+      </c>
+      <c r="S8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="T8" s="25">
-        <v>0</v>
-      </c>
-      <c r="U8" s="25">
-        <v>0</v>
-      </c>
-      <c r="V8" s="15" t="s">
+      <c r="T8" s="24">
+        <v>0</v>
+      </c>
+      <c r="U8" s="24">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>71</v>
       </c>
       <c r="W8">
         <v>291</v>
       </c>
-      <c r="X8" s="22" t="s">
+      <c r="X8" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y8">
@@ -3188,80 +2640,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:30">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:30" ht="15">
+      <c r="A9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>4</v>
       </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>4</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="36">
         <f t="array" ref="K9">INDEX(Sheet2!$H$2:$I$21,MATCH(G9,Sheet2!$I$2:I13,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L9" s="38" t="str">
+      <c r="L9" s="37" t="str">
         <f t="array" ref="L9">INDEX(Sheet2!$B$2:$C$21,MATCH(G9,Sheet2!$C$2:C28,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M9" s="39" t="str">
+      <c r="M9" s="38" t="str">
         <f t="array" ref="M9">INDEX(Sheet2!$E$2:$F$21,MATCH(G9,Sheet2!$F$2:F28,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="23">
-        <v>1</v>
-      </c>
-      <c r="P9" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>1</v>
-      </c>
-      <c r="R9" s="23">
-        <v>1</v>
-      </c>
-      <c r="S9" s="22" t="s">
+      <c r="N9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="22">
+        <v>1</v>
+      </c>
+      <c r="P9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>1</v>
+      </c>
+      <c r="R9" s="22">
+        <v>1</v>
+      </c>
+      <c r="S9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="23">
-        <v>0</v>
-      </c>
-      <c r="U9" s="23">
-        <v>0</v>
-      </c>
-      <c r="V9" s="22" t="s">
+      <c r="T9" s="22">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <v>0</v>
+      </c>
+      <c r="V9" s="21" t="s">
         <v>71</v>
       </c>
       <c r="W9">
         <v>292</v>
       </c>
-      <c r="X9" s="22" t="s">
+      <c r="X9" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y9">
@@ -3283,75 +2735,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:30">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:30" ht="15">
+      <c r="A10" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>12</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>3</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <v>12</v>
       </c>
-      <c r="K10" s="41">
-        <v>0</v>
-      </c>
-      <c r="L10" s="42">
-        <v>0</v>
-      </c>
-      <c r="M10" s="43">
-        <v>0</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="23">
-        <v>0</v>
-      </c>
-      <c r="P10" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>1</v>
-      </c>
-      <c r="R10" s="27">
-        <v>1</v>
-      </c>
-      <c r="S10" s="26" t="s">
+      <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="41">
+        <v>0</v>
+      </c>
+      <c r="M10" s="42">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>1</v>
+      </c>
+      <c r="R10" s="26">
+        <v>1</v>
+      </c>
+      <c r="S10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="T10" s="27">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23">
-        <v>0</v>
-      </c>
-      <c r="V10" s="26" t="s">
+      <c r="T10" s="26">
+        <v>0</v>
+      </c>
+      <c r="U10" s="22">
+        <v>0</v>
+      </c>
+      <c r="V10" s="25" t="s">
         <v>82</v>
       </c>
       <c r="W10">
         <v>293</v>
       </c>
-      <c r="X10" s="22" t="s">
+      <c r="X10" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y10">
@@ -3373,76 +2825,76 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:30">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:30" ht="15">
+      <c r="A11" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>12</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>2</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <v>12</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="40">
         <v>68</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="39" t="str">
+      <c r="M11" s="38" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="23">
-        <v>1</v>
-      </c>
-      <c r="P11" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>1</v>
-      </c>
-      <c r="R11" s="27">
-        <v>1</v>
-      </c>
-      <c r="S11" s="22" t="s">
+      <c r="N11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="22">
+        <v>1</v>
+      </c>
+      <c r="P11" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>1</v>
+      </c>
+      <c r="R11" s="26">
+        <v>1</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="T11" s="27">
-        <v>0</v>
-      </c>
-      <c r="U11" s="23">
-        <v>0</v>
-      </c>
-      <c r="V11" s="26" t="s">
+      <c r="T11" s="26">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0</v>
+      </c>
+      <c r="V11" s="25" t="s">
         <v>82</v>
       </c>
       <c r="W11">
         <v>294</v>
       </c>
-      <c r="X11" s="22" t="s">
+      <c r="X11" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y11">
@@ -3464,78 +2916,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:30">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:30" ht="15">
+      <c r="A12" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>12</v>
       </c>
-      <c r="C12" s="23">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>12</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="36">
         <v>68</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="39" t="str">
+      <c r="M12" s="38" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="23">
-        <v>0</v>
-      </c>
-      <c r="P12" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="23">
-        <v>1</v>
-      </c>
-      <c r="R12" s="23">
-        <v>1</v>
-      </c>
-      <c r="S12" s="22" t="s">
+      <c r="N12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>1</v>
+      </c>
+      <c r="R12" s="22">
+        <v>1</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="T12" s="23">
-        <v>0</v>
-      </c>
-      <c r="U12" s="23">
-        <v>0</v>
-      </c>
-      <c r="V12" s="22" t="s">
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0</v>
+      </c>
+      <c r="V12" s="21" t="s">
         <v>82</v>
       </c>
       <c r="W12">
         <v>295</v>
       </c>
-      <c r="X12" s="22" t="s">
+      <c r="X12" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y12">
@@ -3557,79 +3009,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" s="16" customFormat="1" ht="15" spans="1:30">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:30" s="15" customFormat="1" ht="15">
+      <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>18</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>3</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="30">
         <v>18</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="43">
         <v>40</v>
       </c>
-      <c r="L13" s="45" t="str">
+      <c r="L13" s="44" t="str">
         <f t="array" ref="L13">INDEX(Sheet2!$B$2:$C$21,MATCH(G13,Sheet2!$C$2:C50,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M13" s="46" t="str">
+      <c r="M13" s="45" t="str">
         <f t="array" ref="M13">INDEX(Sheet2!$E$2:$F$21,MATCH(G13,Sheet2!$F$2:F50,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N13" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="31">
-        <v>0</v>
-      </c>
-      <c r="P13" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="31">
-        <v>1</v>
-      </c>
-      <c r="R13" s="31">
-        <v>1</v>
-      </c>
-      <c r="S13" s="30" t="s">
+      <c r="N13" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="30">
+        <v>0</v>
+      </c>
+      <c r="P13" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>1</v>
+      </c>
+      <c r="R13" s="30">
+        <v>1</v>
+      </c>
+      <c r="S13" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="T13" s="31">
-        <v>0</v>
-      </c>
-      <c r="U13" s="31">
-        <v>0</v>
-      </c>
-      <c r="V13" s="30" t="s">
+      <c r="T13" s="30">
+        <v>0</v>
+      </c>
+      <c r="U13" s="30">
+        <v>0</v>
+      </c>
+      <c r="V13" s="29" t="s">
         <v>99</v>
       </c>
       <c r="W13">
         <v>296</v>
       </c>
-      <c r="X13" s="22" t="s">
+      <c r="X13" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y13">
@@ -3651,80 +3103,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:30">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:30" ht="15">
+      <c r="A14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>18</v>
       </c>
-      <c r="C14" s="23">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>18</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="36">
         <f t="array" ref="K14">INDEX(Sheet2!$H$2:$I$21,MATCH(G14,Sheet2!$I$2:I36,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L14" s="38" t="str">
+      <c r="L14" s="37" t="str">
         <f t="array" ref="L14">INDEX(Sheet2!$B$2:$C$21,MATCH(G14,Sheet2!$C$2:C51,0),1)</f>
         <v>VCDR</v>
       </c>
-      <c r="M14" s="39" t="str">
+      <c r="M14" s="38" t="str">
         <f t="array" ref="M14">INDEX(Sheet2!$E$2:$F$21,MATCH(G14,Sheet2!$F$2:F51,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="23">
-        <v>1</v>
-      </c>
-      <c r="P14" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="23">
-        <v>1</v>
-      </c>
-      <c r="R14" s="23">
-        <v>1</v>
-      </c>
-      <c r="S14" s="22" t="s">
+      <c r="N14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="22">
+        <v>1</v>
+      </c>
+      <c r="P14" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>1</v>
+      </c>
+      <c r="R14" s="22">
+        <v>1</v>
+      </c>
+      <c r="S14" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="T14" s="23">
-        <v>0</v>
-      </c>
-      <c r="U14" s="23">
-        <v>0</v>
-      </c>
-      <c r="V14" s="22" t="s">
+      <c r="T14" s="22">
+        <v>0</v>
+      </c>
+      <c r="U14" s="22">
+        <v>0</v>
+      </c>
+      <c r="V14" s="21" t="s">
         <v>99</v>
       </c>
       <c r="W14">
         <v>297</v>
       </c>
-      <c r="X14" s="22" t="s">
+      <c r="X14" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y14">
@@ -3746,80 +3198,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:30">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:30" ht="15">
+      <c r="A15" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>18</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>2</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>18</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="36">
         <f t="array" ref="K15">INDEX(Sheet2!$H$2:$I$21,MATCH(G15,Sheet2!$I$2:I37,0),1)</f>
         <v>37</v>
       </c>
-      <c r="L15" s="38" t="str">
+      <c r="L15" s="37" t="str">
         <f t="array" ref="L15">INDEX(Sheet2!$B$2:$C$21,MATCH(G15,Sheet2!$C$2:C52,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M15" s="39" t="str">
+      <c r="M15" s="38" t="str">
         <f t="array" ref="M15">INDEX(Sheet2!$E$2:$F$21,MATCH(G15,Sheet2!$F$2:F52,0),1)</f>
         <v>.log</v>
       </c>
-      <c r="N15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="23">
-        <v>1</v>
-      </c>
-      <c r="P15" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>0</v>
-      </c>
-      <c r="R15" s="23">
-        <v>1</v>
-      </c>
-      <c r="S15" s="22" t="s">
+      <c r="N15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="22">
+        <v>1</v>
+      </c>
+      <c r="P15" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22">
+        <v>1</v>
+      </c>
+      <c r="S15" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="T15" s="23">
-        <v>0</v>
-      </c>
-      <c r="U15" s="23">
-        <v>0</v>
-      </c>
-      <c r="V15" s="22" t="s">
+      <c r="T15" s="22">
+        <v>0</v>
+      </c>
+      <c r="U15" s="22">
+        <v>0</v>
+      </c>
+      <c r="V15" s="21" t="s">
         <v>99</v>
       </c>
       <c r="W15">
         <v>298</v>
       </c>
-      <c r="X15" s="22" t="s">
+      <c r="X15" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y15">
@@ -3841,79 +3293,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:30">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:30" ht="15">
+      <c r="A16" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>6</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>3</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>6</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="36">
         <v>32</v>
       </c>
-      <c r="L16" s="38" t="str">
+      <c r="L16" s="37" t="str">
         <f t="array" ref="L16">INDEX(Sheet2!$B$2:$C$21,MATCH(G16,Sheet2!$C$2:C29,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M16" s="39" t="str">
+      <c r="M16" s="38" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F29,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="23">
-        <v>1</v>
-      </c>
-      <c r="P16" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>1</v>
-      </c>
-      <c r="R16" s="23">
-        <v>1</v>
-      </c>
-      <c r="S16" s="22" t="s">
+      <c r="N16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="22">
+        <v>1</v>
+      </c>
+      <c r="P16" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>1</v>
+      </c>
+      <c r="R16" s="22">
+        <v>1</v>
+      </c>
+      <c r="S16" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="23">
-        <v>0</v>
-      </c>
-      <c r="U16" s="23">
-        <v>0</v>
-      </c>
-      <c r="V16" s="22" t="s">
+      <c r="T16" s="22">
+        <v>0</v>
+      </c>
+      <c r="U16" s="22">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21" t="s">
         <v>116</v>
       </c>
       <c r="W16">
         <v>299</v>
       </c>
-      <c r="X16" s="22" t="s">
+      <c r="X16" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y16">
@@ -3935,75 +3387,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:30">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:30" ht="15">
+      <c r="A17" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>6</v>
       </c>
-      <c r="C17" s="23">
-        <v>1</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="22">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>6</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="36">
         <v>70</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="23">
-        <v>1</v>
-      </c>
-      <c r="P17" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>1</v>
-      </c>
-      <c r="R17" s="23">
-        <v>1</v>
-      </c>
-      <c r="S17" s="22" t="s">
+      <c r="M17" s="38"/>
+      <c r="N17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="22">
+        <v>1</v>
+      </c>
+      <c r="P17" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>1</v>
+      </c>
+      <c r="R17" s="22">
+        <v>1</v>
+      </c>
+      <c r="S17" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="23">
-        <v>0</v>
-      </c>
-      <c r="U17" s="23">
-        <v>0</v>
-      </c>
-      <c r="V17" s="22" t="s">
+      <c r="T17" s="22">
+        <v>0</v>
+      </c>
+      <c r="U17" s="22">
+        <v>0</v>
+      </c>
+      <c r="V17" s="21" t="s">
         <v>116</v>
       </c>
       <c r="W17">
         <v>300</v>
       </c>
-      <c r="X17" s="22" t="s">
+      <c r="X17" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y17">
@@ -4025,77 +3477,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" ht="15" spans="1:30">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:30" s="16" customFormat="1" ht="15">
+      <c r="A18" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>6</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>4</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
         <v>6</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="24">
         <v>57</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="N18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" s="25">
-        <v>1</v>
-      </c>
-      <c r="P18" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>0</v>
-      </c>
-      <c r="R18" s="25">
-        <v>1</v>
-      </c>
-      <c r="S18" s="17" t="s">
+      <c r="N18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="24">
+        <v>1</v>
+      </c>
+      <c r="P18" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>0</v>
+      </c>
+      <c r="R18" s="24">
+        <v>1</v>
+      </c>
+      <c r="S18" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="T18" s="25">
-        <v>1</v>
-      </c>
-      <c r="U18" s="25">
-        <v>0</v>
-      </c>
-      <c r="V18" s="17" t="s">
+      <c r="T18" s="24">
+        <v>1</v>
+      </c>
+      <c r="U18" s="24">
+        <v>0</v>
+      </c>
+      <c r="V18" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18" s="16">
         <v>301</v>
       </c>
-      <c r="X18" s="52" t="s">
+      <c r="X18" s="51" t="s">
         <v>135</v>
       </c>
       <c r="Y18">
@@ -4117,77 +3569,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" ht="15" spans="1:30">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:30" s="16" customFormat="1" ht="15">
+      <c r="A19" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>6</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <v>6</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="24">
         <v>57</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="40" t="s">
+      <c r="M19" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="N19" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="25">
-        <v>0</v>
-      </c>
-      <c r="P19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>0</v>
-      </c>
-      <c r="R19" s="25">
-        <v>1</v>
-      </c>
-      <c r="S19" s="17" t="s">
+      <c r="N19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="24">
+        <v>0</v>
+      </c>
+      <c r="P19" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>0</v>
+      </c>
+      <c r="R19" s="24">
+        <v>1</v>
+      </c>
+      <c r="S19" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="T19" s="25">
-        <v>1</v>
-      </c>
-      <c r="U19" s="25">
-        <v>0</v>
-      </c>
-      <c r="V19" s="17" t="s">
+      <c r="T19" s="24">
+        <v>1</v>
+      </c>
+      <c r="U19" s="24">
+        <v>0</v>
+      </c>
+      <c r="V19" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="16">
         <v>301</v>
       </c>
-      <c r="X19" s="52" t="s">
+      <c r="X19" s="51" t="s">
         <v>135</v>
       </c>
       <c r="Y19">
@@ -4209,80 +3661,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:30">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:30" ht="15">
+      <c r="A20" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>7</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>2</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>7</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="36">
         <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I17,0),1)</f>
         <v>28</v>
       </c>
-      <c r="L20" s="38" t="str">
+      <c r="L20" s="37" t="str">
         <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C32,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M20" s="39" t="str">
+      <c r="M20" s="38" t="str">
         <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F32,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N20" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="23">
-        <v>1</v>
-      </c>
-      <c r="P20" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="23">
-        <v>1</v>
-      </c>
-      <c r="R20" s="23">
-        <v>1</v>
-      </c>
-      <c r="S20" s="22" t="s">
+      <c r="N20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="22">
+        <v>1</v>
+      </c>
+      <c r="P20" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>1</v>
+      </c>
+      <c r="R20" s="22">
+        <v>1</v>
+      </c>
+      <c r="S20" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="T20" s="23">
-        <v>0</v>
-      </c>
-      <c r="U20" s="23">
-        <v>0</v>
-      </c>
-      <c r="V20" s="22" t="s">
+      <c r="T20" s="22">
+        <v>0</v>
+      </c>
+      <c r="U20" s="22">
+        <v>0</v>
+      </c>
+      <c r="V20" s="21" t="s">
         <v>139</v>
       </c>
       <c r="W20">
         <v>302</v>
       </c>
-      <c r="X20" s="22" t="s">
+      <c r="X20" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y20">
@@ -4304,80 +3756,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:30">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:30" ht="15">
+      <c r="A21" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>7</v>
       </c>
-      <c r="C21" s="23">
-        <v>1</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>7</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="36">
         <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I18,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L21" s="38" t="str">
+      <c r="L21" s="37" t="str">
         <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C33,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M21" s="39" t="str">
+      <c r="M21" s="38" t="str">
         <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F33,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="23">
-        <v>1</v>
-      </c>
-      <c r="P21" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="23">
-        <v>1</v>
-      </c>
-      <c r="R21" s="23">
-        <v>1</v>
-      </c>
-      <c r="S21" s="22" t="s">
+      <c r="N21" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="22">
+        <v>1</v>
+      </c>
+      <c r="P21" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>1</v>
+      </c>
+      <c r="R21" s="22">
+        <v>1</v>
+      </c>
+      <c r="S21" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="T21" s="23">
-        <v>0</v>
-      </c>
-      <c r="U21" s="23">
-        <v>0</v>
-      </c>
-      <c r="V21" s="22" t="s">
+      <c r="T21" s="22">
+        <v>0</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0</v>
+      </c>
+      <c r="V21" s="21" t="s">
         <v>139</v>
       </c>
       <c r="W21">
         <v>303</v>
       </c>
-      <c r="X21" s="22" t="s">
+      <c r="X21" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y21">
@@ -4399,80 +3851,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:30">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:30" ht="15">
+      <c r="A22" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>8</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>2</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>8</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="36">
         <f t="array" ref="K22">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G22,[1]Sheet2!$I$2:I19,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L22" s="38" t="str">
+      <c r="L22" s="37" t="str">
         <f t="array" ref="L22">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G22,[1]Sheet2!$C$2:C34,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M22" s="39" t="str">
+      <c r="M22" s="38" t="str">
         <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F34,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N22" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" s="23">
-        <v>0</v>
-      </c>
-      <c r="P22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>1</v>
-      </c>
-      <c r="R22" s="23">
-        <v>1</v>
-      </c>
-      <c r="S22" s="22" t="s">
+      <c r="N22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="22">
+        <v>1</v>
+      </c>
+      <c r="S22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="T22" s="23">
-        <v>0</v>
-      </c>
-      <c r="U22" s="23">
-        <v>0</v>
-      </c>
-      <c r="V22" s="22" t="s">
+      <c r="T22" s="22">
+        <v>0</v>
+      </c>
+      <c r="U22" s="22">
+        <v>0</v>
+      </c>
+      <c r="V22" s="21" t="s">
         <v>150</v>
       </c>
       <c r="W22">
         <v>304</v>
       </c>
-      <c r="X22" s="22" t="s">
+      <c r="X22" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y22">
@@ -4494,79 +3946,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:30">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:30" ht="15">
+      <c r="A23" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>8</v>
       </c>
-      <c r="C23" s="23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="22">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>8</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="36">
         <f t="array" ref="K23">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G23,[1]Sheet2!$I$2:I20,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="M23" s="39" t="str">
+      <c r="M23" s="38" t="str">
         <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F35,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="23">
-        <v>0</v>
-      </c>
-      <c r="P23" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="23">
-        <v>1</v>
-      </c>
-      <c r="R23" s="23">
-        <v>1</v>
-      </c>
-      <c r="S23" s="22" t="s">
+      <c r="N23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="22">
+        <v>0</v>
+      </c>
+      <c r="P23" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>1</v>
+      </c>
+      <c r="R23" s="22">
+        <v>1</v>
+      </c>
+      <c r="S23" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="T23" s="23">
-        <v>0</v>
-      </c>
-      <c r="U23" s="23">
-        <v>0</v>
-      </c>
-      <c r="V23" s="22" t="s">
+      <c r="T23" s="22">
+        <v>0</v>
+      </c>
+      <c r="U23" s="22">
+        <v>0</v>
+      </c>
+      <c r="V23" s="21" t="s">
         <v>150</v>
       </c>
       <c r="W23">
         <v>305</v>
       </c>
-      <c r="X23" s="22" t="s">
+      <c r="X23" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y23">
@@ -4588,79 +4040,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" s="18" customFormat="1" ht="15" spans="1:30">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:30" s="17" customFormat="1" ht="15">
+      <c r="A24" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>9</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="33">
         <v>18</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>9</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="36">
         <v>30</v>
       </c>
-      <c r="L24" s="38" t="str">
+      <c r="L24" s="37" t="str">
         <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C36,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M24" s="39" t="str">
+      <c r="M24" s="38" t="str">
         <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F36,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N24" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="23">
-        <v>0</v>
-      </c>
-      <c r="P24" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="23">
-        <v>1</v>
-      </c>
-      <c r="R24" s="23">
-        <v>1</v>
-      </c>
-      <c r="S24" s="22" t="s">
+      <c r="N24" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="22">
+        <v>0</v>
+      </c>
+      <c r="P24" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>1</v>
+      </c>
+      <c r="R24" s="22">
+        <v>1</v>
+      </c>
+      <c r="S24" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="T24" s="23">
-        <v>0</v>
-      </c>
-      <c r="U24" s="23">
-        <v>0</v>
-      </c>
-      <c r="V24" s="22" t="s">
+      <c r="T24" s="22">
+        <v>0</v>
+      </c>
+      <c r="U24" s="22">
+        <v>0</v>
+      </c>
+      <c r="V24" s="21" t="s">
         <v>162</v>
       </c>
       <c r="W24">
         <v>306</v>
       </c>
-      <c r="X24" s="22" t="s">
+      <c r="X24" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y24">
@@ -4682,80 +4134,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" s="18" customFormat="1" ht="15" spans="1:30">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:30" s="17" customFormat="1" ht="15">
+      <c r="A25" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>9</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="33">
         <v>7</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>9</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="36">
         <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I22,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L25" s="38" t="str">
+      <c r="L25" s="37" t="str">
         <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C37,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M25" s="39" t="str">
+      <c r="M25" s="38" t="str">
         <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F37,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N25" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="23">
-        <v>1</v>
-      </c>
-      <c r="P25" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="23">
-        <v>1</v>
-      </c>
-      <c r="R25" s="23">
-        <v>1</v>
-      </c>
-      <c r="S25" s="22" t="s">
+      <c r="N25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="22">
+        <v>1</v>
+      </c>
+      <c r="P25" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>1</v>
+      </c>
+      <c r="R25" s="22">
+        <v>1</v>
+      </c>
+      <c r="S25" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="T25" s="23">
-        <v>0</v>
-      </c>
-      <c r="U25" s="23">
-        <v>0</v>
-      </c>
-      <c r="V25" s="22" t="s">
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="22">
+        <v>0</v>
+      </c>
+      <c r="V25" s="21" t="s">
         <v>162</v>
       </c>
       <c r="W25">
         <v>307</v>
       </c>
-      <c r="X25" s="22" t="s">
+      <c r="X25" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y25">
@@ -4777,80 +4229,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:30">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:30" ht="15">
+      <c r="A26" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>10</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>2</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>10</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="36">
         <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I23,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L26" s="38" t="str">
+      <c r="L26" s="37" t="str">
         <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C38,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M26" s="39" t="str">
+      <c r="M26" s="38" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F38,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N26" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" s="23">
-        <v>1</v>
-      </c>
-      <c r="P26" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="23">
-        <v>1</v>
-      </c>
-      <c r="R26" s="23">
-        <v>1</v>
-      </c>
-      <c r="S26" s="22" t="s">
+      <c r="N26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="22">
+        <v>1</v>
+      </c>
+      <c r="P26" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>1</v>
+      </c>
+      <c r="R26" s="22">
+        <v>1</v>
+      </c>
+      <c r="S26" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="T26" s="23">
-        <v>0</v>
-      </c>
-      <c r="U26" s="23">
-        <v>0</v>
-      </c>
-      <c r="V26" s="22" t="s">
+      <c r="T26" s="22">
+        <v>0</v>
+      </c>
+      <c r="U26" s="22">
+        <v>0</v>
+      </c>
+      <c r="V26" s="21" t="s">
         <v>173</v>
       </c>
       <c r="W26">
         <v>308</v>
       </c>
-      <c r="X26" s="22" t="s">
+      <c r="X26" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y26">
@@ -4872,80 +4324,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:30">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:30" ht="15">
+      <c r="A27" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>10</v>
       </c>
-      <c r="C27" s="23">
-        <v>1</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>10</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="36">
         <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I24,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L27" s="38" t="str">
+      <c r="L27" s="37" t="str">
         <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C39,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M27" s="39" t="str">
+      <c r="M27" s="38" t="str">
         <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F39,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N27" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" s="23">
-        <v>1</v>
-      </c>
-      <c r="P27" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="23">
-        <v>1</v>
-      </c>
-      <c r="R27" s="23">
-        <v>1</v>
-      </c>
-      <c r="S27" s="22" t="s">
+      <c r="N27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="22">
+        <v>1</v>
+      </c>
+      <c r="P27" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>1</v>
+      </c>
+      <c r="R27" s="22">
+        <v>1</v>
+      </c>
+      <c r="S27" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="T27" s="23">
-        <v>0</v>
-      </c>
-      <c r="U27" s="23">
-        <v>0</v>
-      </c>
-      <c r="V27" s="22" t="s">
+      <c r="T27" s="22">
+        <v>0</v>
+      </c>
+      <c r="U27" s="22">
+        <v>0</v>
+      </c>
+      <c r="V27" s="21" t="s">
         <v>173</v>
       </c>
       <c r="W27">
         <v>309</v>
       </c>
-      <c r="X27" s="22" t="s">
+      <c r="X27" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y27">
@@ -4967,79 +4419,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" s="19" customFormat="1" ht="15" spans="1:30">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:30" s="18" customFormat="1" ht="15">
+      <c r="A28" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="34">
         <v>11</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="34">
         <v>2</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="34">
         <v>11</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="34">
         <v>730</v>
       </c>
-      <c r="L28" s="47" t="str">
+      <c r="L28" s="46" t="str">
         <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C40,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M28" s="48" t="str">
+      <c r="M28" s="47" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F40,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N28" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28" s="35">
-        <v>0</v>
-      </c>
-      <c r="P28" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="35">
-        <v>1</v>
-      </c>
-      <c r="R28" s="35">
-        <v>1</v>
-      </c>
-      <c r="S28" s="19" t="s">
+      <c r="N28" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="34">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="34">
+        <v>1</v>
+      </c>
+      <c r="R28" s="34">
+        <v>1</v>
+      </c>
+      <c r="S28" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="T28" s="35">
-        <v>0</v>
-      </c>
-      <c r="U28" s="35">
-        <v>0</v>
-      </c>
-      <c r="V28" s="19" t="s">
+      <c r="T28" s="34">
+        <v>0</v>
+      </c>
+      <c r="U28" s="34">
+        <v>0</v>
+      </c>
+      <c r="V28" s="18" t="s">
         <v>183</v>
       </c>
       <c r="W28">
         <v>310</v>
       </c>
-      <c r="X28" s="22" t="s">
+      <c r="X28" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y28">
@@ -5061,78 +4513,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:30">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:30" ht="15">
+      <c r="A29" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>11</v>
       </c>
-      <c r="C29" s="23">
-        <v>1</v>
-      </c>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="22">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>11</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="36">
         <v>68</v>
       </c>
-      <c r="L29" s="38" t="s">
+      <c r="L29" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="M29" s="39" t="str">
+      <c r="M29" s="38" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N29" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O29" s="23">
-        <v>0</v>
-      </c>
-      <c r="P29" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="23">
-        <v>1</v>
-      </c>
-      <c r="R29" s="23">
-        <v>1</v>
-      </c>
-      <c r="S29" s="22" t="s">
+      <c r="N29" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="22">
+        <v>0</v>
+      </c>
+      <c r="P29" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>1</v>
+      </c>
+      <c r="R29" s="22">
+        <v>1</v>
+      </c>
+      <c r="S29" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="T29" s="23">
-        <v>0</v>
-      </c>
-      <c r="U29" s="23">
-        <v>0</v>
-      </c>
-      <c r="V29" s="22" t="s">
+      <c r="T29" s="22">
+        <v>0</v>
+      </c>
+      <c r="U29" s="22">
+        <v>0</v>
+      </c>
+      <c r="V29" s="21" t="s">
         <v>183</v>
       </c>
       <c r="W29">
         <v>311</v>
       </c>
-      <c r="X29" s="22" t="s">
+      <c r="X29" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y29">
@@ -5154,80 +4606,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:30">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:30" ht="15">
+      <c r="A30" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>24</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>2</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>24</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="36">
         <f t="array" ref="K30">INDEX(Sheet2!$H$2:$I$21,MATCH(G30,Sheet2!$I$2:I49,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L30" s="38" t="str">
+      <c r="L30" s="37" t="str">
         <f t="array" ref="L30">INDEX(Sheet2!$B$2:$C$21,MATCH(G30,Sheet2!$C$2:C64,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M30" s="39" t="str">
+      <c r="M30" s="38" t="str">
         <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F64,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N30" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" s="23">
-        <v>1</v>
-      </c>
-      <c r="P30" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="23">
-        <v>0</v>
-      </c>
-      <c r="R30" s="23">
-        <v>1</v>
-      </c>
-      <c r="S30" s="22" t="s">
+      <c r="N30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="22">
+        <v>1</v>
+      </c>
+      <c r="P30" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>0</v>
+      </c>
+      <c r="R30" s="22">
+        <v>1</v>
+      </c>
+      <c r="S30" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="T30" s="23">
-        <v>0</v>
-      </c>
-      <c r="U30" s="23">
-        <v>0</v>
-      </c>
-      <c r="V30" s="22" t="s">
+      <c r="T30" s="22">
+        <v>0</v>
+      </c>
+      <c r="U30" s="22">
+        <v>0</v>
+      </c>
+      <c r="V30" s="21" t="s">
         <v>193</v>
       </c>
       <c r="W30">
         <v>312</v>
       </c>
-      <c r="X30" s="22" t="s">
+      <c r="X30" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y30">
@@ -5249,78 +4701,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:30">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:30" ht="15">
+      <c r="A31" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>24</v>
       </c>
-      <c r="C31" s="23">
-        <v>1</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="22">
+        <v>1</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>24</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="36">
         <v>74</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="39" t="str">
+      <c r="M31" s="38" t="str">
         <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N31" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="23">
-        <v>0</v>
-      </c>
-      <c r="P31" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="23">
-        <v>1</v>
-      </c>
-      <c r="R31" s="23">
-        <v>1</v>
-      </c>
-      <c r="S31" s="22" t="s">
+      <c r="N31" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="22">
+        <v>0</v>
+      </c>
+      <c r="P31" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>1</v>
+      </c>
+      <c r="R31" s="22">
+        <v>1</v>
+      </c>
+      <c r="S31" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="T31" s="23">
-        <v>0</v>
-      </c>
-      <c r="U31" s="23">
-        <v>0</v>
-      </c>
-      <c r="V31" s="22" t="s">
+      <c r="T31" s="22">
+        <v>0</v>
+      </c>
+      <c r="U31" s="22">
+        <v>0</v>
+      </c>
+      <c r="V31" s="21" t="s">
         <v>193</v>
       </c>
       <c r="W31">
         <v>313</v>
       </c>
-      <c r="X31" s="22" t="s">
+      <c r="X31" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y31">
@@ -5342,79 +4794,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" s="19" customFormat="1" ht="15" spans="1:30">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:30" s="18" customFormat="1" ht="15">
+      <c r="A32" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="34">
         <v>23</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="34">
         <v>2</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="34">
         <v>23</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="34">
         <v>29</v>
       </c>
-      <c r="L32" s="47" t="str">
+      <c r="L32" s="46" t="str">
         <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C62,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M32" s="48" t="str">
+      <c r="M32" s="47" t="str">
         <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F62,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O32" s="35">
-        <v>0</v>
-      </c>
-      <c r="P32" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="35">
-        <v>1</v>
-      </c>
-      <c r="R32" s="35">
-        <v>1</v>
-      </c>
-      <c r="S32" s="19" t="s">
+      <c r="N32" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="34">
+        <v>0</v>
+      </c>
+      <c r="P32" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="34">
+        <v>1</v>
+      </c>
+      <c r="R32" s="34">
+        <v>1</v>
+      </c>
+      <c r="S32" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="T32" s="35">
-        <v>0</v>
-      </c>
-      <c r="U32" s="35">
-        <v>0</v>
-      </c>
-      <c r="V32" s="19" t="s">
+      <c r="T32" s="34">
+        <v>0</v>
+      </c>
+      <c r="U32" s="34">
+        <v>0</v>
+      </c>
+      <c r="V32" s="18" t="s">
         <v>205</v>
       </c>
       <c r="W32">
         <v>314</v>
       </c>
-      <c r="X32" s="22" t="s">
+      <c r="X32" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y32">
@@ -5436,78 +4888,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:30">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:30" ht="15">
+      <c r="A33" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <v>23</v>
       </c>
-      <c r="C33" s="23">
-        <v>1</v>
-      </c>
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="22">
+        <v>1</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <v>23</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="36">
         <v>75</v>
       </c>
-      <c r="L33" s="38" t="s">
+      <c r="L33" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="M33" s="39" t="str">
+      <c r="M33" s="38" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N33" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="23">
-        <v>0</v>
-      </c>
-      <c r="P33" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="23">
-        <v>1</v>
-      </c>
-      <c r="R33" s="23">
-        <v>1</v>
-      </c>
-      <c r="S33" s="22" t="s">
+      <c r="N33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="22">
+        <v>0</v>
+      </c>
+      <c r="P33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>1</v>
+      </c>
+      <c r="R33" s="22">
+        <v>1</v>
+      </c>
+      <c r="S33" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="T33" s="23">
-        <v>0</v>
-      </c>
-      <c r="U33" s="23">
-        <v>0</v>
-      </c>
-      <c r="V33" s="22" t="s">
+      <c r="T33" s="22">
+        <v>0</v>
+      </c>
+      <c r="U33" s="22">
+        <v>0</v>
+      </c>
+      <c r="V33" s="21" t="s">
         <v>205</v>
       </c>
       <c r="W33">
         <v>315</v>
       </c>
-      <c r="X33" s="22" t="s">
+      <c r="X33" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y33">
@@ -5529,80 +4981,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:30">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:30" ht="15">
+      <c r="A34" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <v>15</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>2</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>15</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="36">
         <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I29,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L34" s="38" t="str">
+      <c r="L34" s="37" t="str">
         <f t="array" ref="L34">INDEX(Sheet2!$B$2:$C$21,MATCH(G34,Sheet2!$C$2:C44,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M34" s="39" t="str">
+      <c r="M34" s="38" t="str">
         <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F44,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N34" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" s="23">
-        <v>1</v>
-      </c>
-      <c r="P34" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="23">
-        <v>1</v>
-      </c>
-      <c r="R34" s="23">
-        <v>1</v>
-      </c>
-      <c r="S34" s="22" t="s">
+      <c r="N34" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="22">
+        <v>1</v>
+      </c>
+      <c r="P34" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>1</v>
+      </c>
+      <c r="R34" s="22">
+        <v>1</v>
+      </c>
+      <c r="S34" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="T34" s="23">
-        <v>0</v>
-      </c>
-      <c r="U34" s="23">
-        <v>0</v>
-      </c>
-      <c r="V34" s="22" t="s">
+      <c r="T34" s="22">
+        <v>0</v>
+      </c>
+      <c r="U34" s="22">
+        <v>0</v>
+      </c>
+      <c r="V34" s="21" t="s">
         <v>216</v>
       </c>
       <c r="W34">
         <v>316</v>
       </c>
-      <c r="X34" s="22" t="s">
+      <c r="X34" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y34">
@@ -5624,79 +5076,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:30">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:30" ht="15">
+      <c r="A35" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>15</v>
       </c>
-      <c r="C35" s="23">
-        <v>1</v>
-      </c>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="22">
+        <v>1</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>15</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="36">
         <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I30,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L35" s="38" t="s">
+      <c r="L35" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="M35" s="39" t="str">
+      <c r="M35" s="38" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N35" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O35" s="23">
-        <v>0</v>
-      </c>
-      <c r="P35" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="23">
-        <v>1</v>
-      </c>
-      <c r="R35" s="23">
-        <v>1</v>
-      </c>
-      <c r="S35" s="22" t="s">
+      <c r="N35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="22">
+        <v>0</v>
+      </c>
+      <c r="P35" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>1</v>
+      </c>
+      <c r="R35" s="22">
+        <v>1</v>
+      </c>
+      <c r="S35" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="T35" s="23">
-        <v>0</v>
-      </c>
-      <c r="U35" s="23">
-        <v>0</v>
-      </c>
-      <c r="V35" s="22" t="s">
+      <c r="T35" s="22">
+        <v>0</v>
+      </c>
+      <c r="U35" s="22">
+        <v>0</v>
+      </c>
+      <c r="V35" s="21" t="s">
         <v>216</v>
       </c>
       <c r="W35">
         <v>317</v>
       </c>
-      <c r="X35" s="22" t="s">
+      <c r="X35" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y35">
@@ -5718,79 +5170,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:30">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:30" ht="15">
+      <c r="A36" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="22">
         <v>16</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <v>3</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>16</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="36">
         <v>30</v>
       </c>
-      <c r="L36" s="38" t="str">
+      <c r="L36" s="37" t="str">
         <f t="array" ref="L36">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G36,[1]Sheet2!$C$2:C46,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M36" s="39" t="str">
+      <c r="M36" s="38" t="str">
         <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F46,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N36" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O36" s="23">
-        <v>0</v>
-      </c>
-      <c r="P36" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="23">
-        <v>1</v>
-      </c>
-      <c r="R36" s="23">
-        <v>1</v>
-      </c>
-      <c r="S36" s="22" t="s">
+      <c r="N36" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="22">
+        <v>0</v>
+      </c>
+      <c r="P36" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="22">
+        <v>1</v>
+      </c>
+      <c r="R36" s="22">
+        <v>1</v>
+      </c>
+      <c r="S36" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="T36" s="23">
-        <v>0</v>
-      </c>
-      <c r="U36" s="23">
-        <v>0</v>
-      </c>
-      <c r="V36" s="22" t="s">
+      <c r="T36" s="22">
+        <v>0</v>
+      </c>
+      <c r="U36" s="22">
+        <v>0</v>
+      </c>
+      <c r="V36" s="21" t="s">
         <v>227</v>
       </c>
       <c r="W36">
         <v>318</v>
       </c>
-      <c r="X36" s="22" t="s">
+      <c r="X36" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y36">
@@ -5812,79 +5264,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:30">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:30" ht="15">
+      <c r="A37" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="22">
         <v>16</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <v>2</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>16</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="36">
         <f t="array" ref="K37">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G37,[1]Sheet2!$I$2:I32,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L37" s="38" t="s">
+      <c r="L37" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="M37" s="39" t="str">
+      <c r="M37" s="38" t="str">
         <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F47,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N37" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O37" s="23">
-        <v>0</v>
-      </c>
-      <c r="P37" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="23">
-        <v>1</v>
-      </c>
-      <c r="R37" s="23">
-        <v>1</v>
-      </c>
-      <c r="S37" s="22" t="s">
+      <c r="N37" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="22">
+        <v>0</v>
+      </c>
+      <c r="P37" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="22">
+        <v>1</v>
+      </c>
+      <c r="R37" s="22">
+        <v>1</v>
+      </c>
+      <c r="S37" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="T37" s="23">
-        <v>0</v>
-      </c>
-      <c r="U37" s="23">
-        <v>0</v>
-      </c>
-      <c r="V37" s="22" t="s">
+      <c r="T37" s="22">
+        <v>0</v>
+      </c>
+      <c r="U37" s="22">
+        <v>0</v>
+      </c>
+      <c r="V37" s="21" t="s">
         <v>227</v>
       </c>
       <c r="W37">
         <v>319</v>
       </c>
-      <c r="X37" s="22" t="s">
+      <c r="X37" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y37">
@@ -5906,77 +5358,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:30">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:30" ht="15">
+      <c r="A38" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="22">
         <v>17</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="22">
         <v>2</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>17</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="36">
         <v>56</v>
       </c>
-      <c r="L38" s="38">
-        <v>0</v>
-      </c>
-      <c r="M38" s="39" t="s">
+      <c r="L38" s="37">
+        <v>0</v>
+      </c>
+      <c r="M38" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="N38" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O38" s="23">
-        <v>0</v>
-      </c>
-      <c r="P38" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="23">
-        <v>1</v>
-      </c>
-      <c r="R38" s="23">
-        <v>1</v>
-      </c>
-      <c r="S38" s="22" t="s">
+      <c r="N38" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="22">
+        <v>0</v>
+      </c>
+      <c r="P38" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>1</v>
+      </c>
+      <c r="R38" s="22">
+        <v>1</v>
+      </c>
+      <c r="S38" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="T38" s="23">
-        <v>0</v>
-      </c>
-      <c r="U38" s="23">
-        <v>0</v>
-      </c>
-      <c r="V38" s="22" t="s">
+      <c r="T38" s="22">
+        <v>0</v>
+      </c>
+      <c r="U38" s="22">
+        <v>0</v>
+      </c>
+      <c r="V38" s="21" t="s">
         <v>238</v>
       </c>
       <c r="W38">
         <v>320</v>
       </c>
-      <c r="X38" s="22" t="s">
+      <c r="X38" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y38">
@@ -5998,79 +5450,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:30">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:30" ht="15">
+      <c r="A39" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <v>17</v>
       </c>
-      <c r="C39" s="23">
-        <v>1</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="22">
+        <v>1</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>17</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="36">
         <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I34,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L39" s="38" t="s">
+      <c r="L39" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="M39" s="39" t="str">
+      <c r="M39" s="38" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N39" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O39" s="23">
-        <v>1</v>
-      </c>
-      <c r="P39" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="23">
-        <v>1</v>
-      </c>
-      <c r="R39" s="23">
-        <v>1</v>
-      </c>
-      <c r="S39" s="22" t="s">
+      <c r="N39" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="22">
+        <v>1</v>
+      </c>
+      <c r="P39" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>1</v>
+      </c>
+      <c r="R39" s="22">
+        <v>1</v>
+      </c>
+      <c r="S39" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="T39" s="23">
-        <v>0</v>
-      </c>
-      <c r="U39" s="23">
-        <v>0</v>
-      </c>
-      <c r="V39" s="22" t="s">
+      <c r="T39" s="22">
+        <v>0</v>
+      </c>
+      <c r="U39" s="22">
+        <v>0</v>
+      </c>
+      <c r="V39" s="21" t="s">
         <v>238</v>
       </c>
       <c r="W39">
         <v>321</v>
       </c>
-      <c r="X39" s="22" t="s">
+      <c r="X39" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y39">
@@ -6092,80 +5544,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:30">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:30" ht="15">
+      <c r="A40" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="22">
         <v>20</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <v>2</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>20</v>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="36">
         <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I40,0),1)</f>
         <v>28</v>
       </c>
-      <c r="L40" s="38" t="str">
+      <c r="L40" s="37" t="str">
         <f t="array" ref="L40">INDEX(Sheet2!$B$2:$C$21,MATCH(G40,Sheet2!$C$2:C55,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M40" s="39" t="str">
+      <c r="M40" s="38" t="str">
         <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F55,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N40" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O40" s="23">
-        <v>1</v>
-      </c>
-      <c r="P40" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="23">
-        <v>1</v>
-      </c>
-      <c r="R40" s="23">
-        <v>1</v>
-      </c>
-      <c r="S40" s="22" t="s">
+      <c r="N40" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="22">
+        <v>1</v>
+      </c>
+      <c r="P40" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="22">
+        <v>1</v>
+      </c>
+      <c r="R40" s="22">
+        <v>1</v>
+      </c>
+      <c r="S40" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="T40" s="23">
-        <v>0</v>
-      </c>
-      <c r="U40" s="23">
-        <v>0</v>
-      </c>
-      <c r="V40" s="22" t="s">
+      <c r="T40" s="22">
+        <v>0</v>
+      </c>
+      <c r="U40" s="22">
+        <v>0</v>
+      </c>
+      <c r="V40" s="21" t="s">
         <v>252</v>
       </c>
       <c r="W40">
         <v>322</v>
       </c>
-      <c r="X40" s="22" t="s">
+      <c r="X40" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y40">
@@ -6187,79 +5639,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:30">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:30" ht="15">
+      <c r="A41" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="22">
         <v>20</v>
       </c>
-      <c r="C41" s="23">
-        <v>1</v>
-      </c>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="22">
+        <v>1</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>20</v>
       </c>
-      <c r="K41" s="37">
+      <c r="K41" s="36">
         <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I41,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L41" s="38" t="s">
+      <c r="L41" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="M41" s="39" t="str">
+      <c r="M41" s="38" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N41" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O41" s="23">
-        <v>0</v>
-      </c>
-      <c r="P41" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="23">
-        <v>1</v>
-      </c>
-      <c r="R41" s="23">
-        <v>1</v>
-      </c>
-      <c r="S41" s="22" t="s">
+      <c r="N41" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="22">
+        <v>0</v>
+      </c>
+      <c r="P41" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>1</v>
+      </c>
+      <c r="R41" s="22">
+        <v>1</v>
+      </c>
+      <c r="S41" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="T41" s="23">
-        <v>0</v>
-      </c>
-      <c r="U41" s="23">
-        <v>0</v>
-      </c>
-      <c r="V41" s="22" t="s">
+      <c r="T41" s="22">
+        <v>0</v>
+      </c>
+      <c r="U41" s="22">
+        <v>0</v>
+      </c>
+      <c r="V41" s="21" t="s">
         <v>252</v>
       </c>
       <c r="W41">
         <v>323</v>
       </c>
-      <c r="X41" s="22" t="s">
+      <c r="X41" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y41">
@@ -6281,79 +5733,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:30">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:30" ht="15">
+      <c r="A42" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="22">
         <v>21</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>2</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>21</v>
       </c>
-      <c r="K42" s="37">
+      <c r="K42" s="36">
         <v>30</v>
       </c>
-      <c r="L42" s="38" t="str">
+      <c r="L42" s="37" t="str">
         <f t="array" ref="L42">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G42,[1]Sheet2!$C$2:C57,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M42" s="39" t="str">
+      <c r="M42" s="38" t="str">
         <f t="array" ref="M42">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G42,[1]Sheet2!$F$2:F57,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N42" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O42" s="23">
-        <v>0</v>
-      </c>
-      <c r="P42" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="23">
-        <v>1</v>
-      </c>
-      <c r="R42" s="23">
-        <v>1</v>
-      </c>
-      <c r="S42" s="22" t="s">
+      <c r="N42" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="22">
+        <v>0</v>
+      </c>
+      <c r="P42" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="22">
+        <v>1</v>
+      </c>
+      <c r="R42" s="22">
+        <v>1</v>
+      </c>
+      <c r="S42" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="T42" s="23">
-        <v>0</v>
-      </c>
-      <c r="U42" s="23">
-        <v>0</v>
-      </c>
-      <c r="V42" s="22" t="s">
+      <c r="T42" s="22">
+        <v>0</v>
+      </c>
+      <c r="U42" s="22">
+        <v>0</v>
+      </c>
+      <c r="V42" s="21" t="s">
         <v>263</v>
       </c>
       <c r="W42">
         <v>324</v>
       </c>
-      <c r="X42" s="22" t="s">
+      <c r="X42" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y42">
@@ -6375,80 +5827,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:30">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:30" ht="15">
+      <c r="A43" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="22">
         <v>21</v>
       </c>
-      <c r="C43" s="23">
-        <v>1</v>
-      </c>
-      <c r="D43" s="22" t="s">
+      <c r="C43" s="22">
+        <v>1</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>21</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="36">
         <f t="array" ref="K43">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G43,[1]Sheet2!$I$2:I43,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L43" s="38" t="str">
+      <c r="L43" s="37" t="str">
         <f t="array" ref="L43">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G43,[1]Sheet2!$C$2:C58,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M43" s="39" t="str">
+      <c r="M43" s="38" t="str">
         <f t="array" ref="M43">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G43,[1]Sheet2!$F$2:F58,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N43" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O43" s="23">
-        <v>0</v>
-      </c>
-      <c r="P43" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="23">
-        <v>1</v>
-      </c>
-      <c r="R43" s="23">
-        <v>1</v>
-      </c>
-      <c r="S43" s="22" t="s">
+      <c r="N43" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="22">
+        <v>0</v>
+      </c>
+      <c r="P43" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="22">
+        <v>1</v>
+      </c>
+      <c r="R43" s="22">
+        <v>1</v>
+      </c>
+      <c r="S43" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="T43" s="23">
-        <v>0</v>
-      </c>
-      <c r="U43" s="23">
-        <v>0</v>
-      </c>
-      <c r="V43" s="22" t="s">
+      <c r="T43" s="22">
+        <v>0</v>
+      </c>
+      <c r="U43" s="22">
+        <v>0</v>
+      </c>
+      <c r="V43" s="21" t="s">
         <v>263</v>
       </c>
       <c r="W43">
         <v>325</v>
       </c>
-      <c r="X43" s="22" t="s">
+      <c r="X43" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y43">
@@ -6470,80 +5922,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:30">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:30" ht="15">
+      <c r="A44" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="22">
         <v>19</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="33">
         <v>2</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>19</v>
       </c>
-      <c r="K44" s="37">
+      <c r="K44" s="36">
         <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I38,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L44" s="38" t="str">
+      <c r="L44" s="37" t="str">
         <f t="array" ref="L44">INDEX(Sheet2!$B$2:$C$21,MATCH(G44,Sheet2!$C$2:C53,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M44" s="39" t="str">
+      <c r="M44" s="38" t="str">
         <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F53,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N44" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O44" s="23">
-        <v>1</v>
-      </c>
-      <c r="P44" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="23">
-        <v>1</v>
-      </c>
-      <c r="R44" s="23">
-        <v>1</v>
-      </c>
-      <c r="S44" s="22" t="s">
+      <c r="N44" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="22">
+        <v>1</v>
+      </c>
+      <c r="P44" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="22">
+        <v>1</v>
+      </c>
+      <c r="R44" s="22">
+        <v>1</v>
+      </c>
+      <c r="S44" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="T44" s="23">
-        <v>0</v>
-      </c>
-      <c r="U44" s="23">
-        <v>0</v>
-      </c>
-      <c r="V44" s="22" t="s">
+      <c r="T44" s="22">
+        <v>0</v>
+      </c>
+      <c r="U44" s="22">
+        <v>0</v>
+      </c>
+      <c r="V44" s="21" t="s">
         <v>272</v>
       </c>
       <c r="W44">
         <v>326</v>
       </c>
-      <c r="X44" s="22" t="s">
+      <c r="X44" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y44">
@@ -6565,79 +6017,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:30">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:30" ht="15">
+      <c r="A45" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="22">
         <v>19</v>
       </c>
-      <c r="C45" s="34">
-        <v>1</v>
-      </c>
-      <c r="D45" s="22" t="s">
+      <c r="C45" s="33">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>19</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="36">
         <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I39,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L45" s="38" t="s">
+      <c r="L45" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="M45" s="39" t="str">
+      <c r="M45" s="38" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N45" s="22" t="s">
+      <c r="N45" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="23">
-        <v>0</v>
-      </c>
-      <c r="P45" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="23">
-        <v>1</v>
-      </c>
-      <c r="R45" s="23">
-        <v>1</v>
-      </c>
-      <c r="S45" s="22" t="s">
+      <c r="O45" s="22">
+        <v>0</v>
+      </c>
+      <c r="P45" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="22">
+        <v>1</v>
+      </c>
+      <c r="R45" s="22">
+        <v>1</v>
+      </c>
+      <c r="S45" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="T45" s="23">
-        <v>0</v>
-      </c>
-      <c r="U45" s="23">
-        <v>0</v>
-      </c>
-      <c r="V45" s="22" t="s">
+      <c r="T45" s="22">
+        <v>0</v>
+      </c>
+      <c r="U45" s="22">
+        <v>0</v>
+      </c>
+      <c r="V45" s="21" t="s">
         <v>272</v>
       </c>
       <c r="W45">
         <v>327</v>
       </c>
-      <c r="X45" s="22" t="s">
+      <c r="X45" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y45">
@@ -6659,80 +6111,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:30">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:30" ht="15">
+      <c r="A46" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="22">
         <v>26</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="33">
         <v>10</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="I46" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>26</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="36">
         <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I53,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L46" s="38" t="str">
+      <c r="L46" s="37" t="str">
         <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C68,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M46" s="39" t="str">
+      <c r="M46" s="38" t="str">
         <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F68,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N46" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O46" s="23">
-        <v>1</v>
-      </c>
-      <c r="P46" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="23">
-        <v>0</v>
-      </c>
-      <c r="R46" s="23">
-        <v>1</v>
-      </c>
-      <c r="S46" s="22" t="s">
+      <c r="N46" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="22">
+        <v>1</v>
+      </c>
+      <c r="P46" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="22">
+        <v>0</v>
+      </c>
+      <c r="R46" s="22">
+        <v>1</v>
+      </c>
+      <c r="S46" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="T46" s="23">
-        <v>0</v>
-      </c>
-      <c r="U46" s="23">
-        <v>0</v>
-      </c>
-      <c r="V46" s="22" t="s">
+      <c r="T46" s="22">
+        <v>0</v>
+      </c>
+      <c r="U46" s="22">
+        <v>0</v>
+      </c>
+      <c r="V46" s="21" t="s">
         <v>283</v>
       </c>
       <c r="W46">
         <v>328</v>
       </c>
-      <c r="X46" s="22" t="s">
+      <c r="X46" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y46">
@@ -6754,80 +6206,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:30">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:30" ht="15">
+      <c r="A47" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <v>26</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="33">
         <v>9</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I47" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>26</v>
       </c>
-      <c r="K47" s="37">
+      <c r="K47" s="36">
         <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I54,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L47" s="38" t="str">
+      <c r="L47" s="37" t="str">
         <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C69,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M47" s="39" t="str">
+      <c r="M47" s="38" t="str">
         <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F69,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N47" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O47" s="23">
-        <v>0</v>
-      </c>
-      <c r="P47" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="23">
-        <v>1</v>
-      </c>
-      <c r="R47" s="23">
-        <v>1</v>
-      </c>
-      <c r="S47" s="22" t="s">
+      <c r="N47" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="22">
+        <v>0</v>
+      </c>
+      <c r="P47" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="22">
+        <v>1</v>
+      </c>
+      <c r="R47" s="22">
+        <v>1</v>
+      </c>
+      <c r="S47" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="T47" s="23">
-        <v>0</v>
-      </c>
-      <c r="U47" s="23">
-        <v>0</v>
-      </c>
-      <c r="V47" s="22" t="s">
+      <c r="T47" s="22">
+        <v>0</v>
+      </c>
+      <c r="U47" s="22">
+        <v>0</v>
+      </c>
+      <c r="V47" s="21" t="s">
         <v>283</v>
       </c>
       <c r="W47">
         <v>329</v>
       </c>
-      <c r="X47" s="22" t="s">
+      <c r="X47" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y47">
@@ -6849,79 +6301,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" s="15" customFormat="1" ht="15" spans="1:30">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:30" s="14" customFormat="1" ht="15">
+      <c r="A48" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="24">
         <v>22</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C48" s="24">
         <v>3</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="24">
         <v>22</v>
       </c>
-      <c r="K48" s="25">
+      <c r="K48" s="24">
         <v>72</v>
       </c>
-      <c r="L48" s="17" t="str">
+      <c r="L48" s="16" t="str">
         <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C59,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M48" s="40" t="str">
+      <c r="M48" s="39" t="str">
         <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F59,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N48" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O48" s="25">
-        <v>0</v>
-      </c>
-      <c r="P48" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="25">
-        <v>1</v>
-      </c>
-      <c r="R48" s="25">
-        <v>1</v>
-      </c>
-      <c r="S48" s="15" t="s">
+      <c r="N48" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="24">
+        <v>0</v>
+      </c>
+      <c r="P48" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>1</v>
+      </c>
+      <c r="R48" s="24">
+        <v>1</v>
+      </c>
+      <c r="S48" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T48" s="25">
-        <v>0</v>
-      </c>
-      <c r="U48" s="25">
-        <v>0</v>
-      </c>
-      <c r="V48" s="15" t="s">
+      <c r="T48" s="24">
+        <v>0</v>
+      </c>
+      <c r="U48" s="24">
+        <v>1</v>
+      </c>
+      <c r="V48" s="14" t="s">
         <v>293</v>
       </c>
       <c r="W48">
         <v>330</v>
       </c>
-      <c r="X48" s="22" t="s">
+      <c r="X48" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y48">
@@ -6943,80 +6395,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:30">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:30" ht="15">
+      <c r="A49" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="22">
         <v>22</v>
       </c>
-      <c r="C49" s="23">
-        <v>1</v>
-      </c>
-      <c r="D49" s="22" t="s">
+      <c r="C49" s="22">
+        <v>1</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="F49" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="G49" s="24" t="s">
+      <c r="F49" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="I49" s="22" t="s">
+      <c r="I49" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>22</v>
       </c>
-      <c r="K49" s="37">
+      <c r="K49" s="36">
         <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I45,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L49" s="38" t="str">
+      <c r="L49" s="37" t="str">
         <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C60,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M49" s="39" t="str">
+      <c r="M49" s="38" t="str">
         <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F60,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N49" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O49" s="23">
-        <v>1</v>
-      </c>
-      <c r="P49" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="23">
-        <v>1</v>
-      </c>
-      <c r="R49" s="23">
-        <v>1</v>
-      </c>
-      <c r="S49" s="22" t="s">
+      <c r="N49" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="22">
+        <v>1</v>
+      </c>
+      <c r="P49" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="22">
+        <v>1</v>
+      </c>
+      <c r="R49" s="22">
+        <v>1</v>
+      </c>
+      <c r="S49" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="T49" s="23">
-        <v>0</v>
-      </c>
-      <c r="U49" s="23">
-        <v>0</v>
-      </c>
-      <c r="V49" s="22" t="s">
+      <c r="T49" s="22">
+        <v>0</v>
+      </c>
+      <c r="U49" s="22">
+        <v>1</v>
+      </c>
+      <c r="V49" s="21" t="s">
         <v>293</v>
       </c>
       <c r="W49">
         <v>331</v>
       </c>
-      <c r="X49" s="22" t="s">
+      <c r="X49" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y49">
@@ -7038,80 +6490,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:30">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:30" ht="15">
+      <c r="A50" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="22">
         <v>22</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="22">
         <v>2</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="F50" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="G50" s="33" t="s">
+      <c r="F50" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="G50" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>22</v>
       </c>
-      <c r="K50" s="37">
-        <f t="array" ref="K50">INDEX(Sheet2!$H$2:$I$21,MATCH(G50,Sheet2!$I$2:I46,0),1)</f>
-        <v>37</v>
-      </c>
-      <c r="L50" s="38" t="str">
+      <c r="K50" s="36">
+        <v>570</v>
+      </c>
+      <c r="L50" s="37" t="str">
         <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C61,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M50" s="39" t="str">
+      <c r="M50" s="38" t="str">
         <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F61,0),1)</f>
         <v>.log</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O50" s="23">
-        <v>1</v>
-      </c>
-      <c r="P50" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="23">
-        <v>0</v>
-      </c>
-      <c r="R50" s="23">
-        <v>1</v>
-      </c>
-      <c r="S50" s="22" t="s">
+      <c r="O50" s="22">
+        <v>0</v>
+      </c>
+      <c r="P50" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="22">
+        <v>0</v>
+      </c>
+      <c r="R50" s="22">
+        <v>1</v>
+      </c>
+      <c r="S50" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="T50" s="23">
-        <v>0</v>
-      </c>
-      <c r="U50" s="23">
-        <v>0</v>
-      </c>
-      <c r="V50" s="22" t="s">
+      <c r="T50" s="22">
+        <v>0</v>
+      </c>
+      <c r="U50" s="22">
+        <v>0</v>
+      </c>
+      <c r="V50" s="21" t="s">
         <v>293</v>
       </c>
       <c r="W50">
         <v>332</v>
       </c>
-      <c r="X50" s="52" t="s">
+      <c r="X50" s="51" t="s">
         <v>135</v>
       </c>
       <c r="Y50">
@@ -7133,75 +6584,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" s="20" customFormat="1" ht="15" spans="1:30">
-      <c r="A51" s="20" t="s">
+    <row r="51" spans="1:30" s="19" customFormat="1" ht="15">
+      <c r="A51" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="35">
         <v>25</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="35">
         <v>2</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="35">
         <v>25</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K51" s="35">
         <v>73</v>
       </c>
-      <c r="L51" s="49">
+      <c r="L51" s="48">
         <v>20</v>
       </c>
-      <c r="M51" s="50"/>
-      <c r="N51" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="O51" s="36">
-        <v>0</v>
-      </c>
-      <c r="P51" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="36">
-        <v>1</v>
-      </c>
-      <c r="R51" s="36">
-        <v>1</v>
-      </c>
-      <c r="S51" s="20" t="s">
+      <c r="M51" s="49"/>
+      <c r="N51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="35">
+        <v>0</v>
+      </c>
+      <c r="P51" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="35">
+        <v>1</v>
+      </c>
+      <c r="R51" s="35">
+        <v>1</v>
+      </c>
+      <c r="S51" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="T51" s="36">
-        <v>0</v>
-      </c>
-      <c r="U51" s="36">
-        <v>0</v>
-      </c>
-      <c r="V51" s="20" t="s">
+      <c r="T51" s="35">
+        <v>0</v>
+      </c>
+      <c r="U51" s="35">
+        <v>0</v>
+      </c>
+      <c r="V51" s="19" t="s">
         <v>315</v>
       </c>
       <c r="W51">
         <v>333</v>
       </c>
-      <c r="X51" s="22" t="s">
+      <c r="X51" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y51">
@@ -7223,79 +6674,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:30">
-      <c r="A52" s="22" t="s">
+    <row r="52" spans="1:30" ht="15">
+      <c r="A52" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="22">
         <v>25</v>
       </c>
-      <c r="C52" s="23">
-        <v>1</v>
-      </c>
-      <c r="D52" s="22" t="s">
+      <c r="C52" s="22">
+        <v>1</v>
+      </c>
+      <c r="D52" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I52" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>25</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="36">
         <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I52,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L52" s="38">
+      <c r="L52" s="37">
         <v>2</v>
       </c>
-      <c r="M52" s="39" t="str">
+      <c r="M52" s="38" t="str">
         <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F67,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N52" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O52" s="23">
-        <v>0</v>
-      </c>
-      <c r="P52" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="23">
-        <v>1</v>
-      </c>
-      <c r="R52" s="23">
-        <v>1</v>
-      </c>
-      <c r="S52" s="22" t="s">
+      <c r="N52" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="22">
+        <v>0</v>
+      </c>
+      <c r="P52" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="22">
+        <v>1</v>
+      </c>
+      <c r="R52" s="22">
+        <v>1</v>
+      </c>
+      <c r="S52" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="T52" s="23">
-        <v>0</v>
-      </c>
-      <c r="U52" s="23">
-        <v>0</v>
-      </c>
-      <c r="V52" s="22" t="s">
+      <c r="T52" s="22">
+        <v>0</v>
+      </c>
+      <c r="U52" s="22">
+        <v>0</v>
+      </c>
+      <c r="V52" s="21" t="s">
         <v>315</v>
       </c>
       <c r="W52">
         <v>334</v>
       </c>
-      <c r="X52" s="22" t="s">
+      <c r="X52" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y52">
@@ -7317,79 +6768,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:30">
-      <c r="A53" s="22" t="s">
+    <row r="53" spans="1:30" ht="15">
+      <c r="A53" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="22">
         <v>27</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="22">
         <v>2</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>27</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="36">
         <v>29</v>
       </c>
-      <c r="L53" s="38" t="str">
+      <c r="L53" s="37" t="str">
         <f t="array" ref="L53">INDEX(Sheet2!$B$2:$C$21,MATCH(G53,Sheet2!$C$2:C70,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M53" s="39" t="str">
+      <c r="M53" s="38" t="str">
         <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F70,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N53" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O53" s="23">
-        <v>0</v>
-      </c>
-      <c r="P53" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="23">
-        <v>1</v>
-      </c>
-      <c r="R53" s="23">
-        <v>1</v>
-      </c>
-      <c r="S53" s="22" t="s">
+      <c r="N53" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" s="22">
+        <v>0</v>
+      </c>
+      <c r="P53" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="22">
+        <v>1</v>
+      </c>
+      <c r="R53" s="22">
+        <v>1</v>
+      </c>
+      <c r="S53" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="T53" s="23">
-        <v>0</v>
-      </c>
-      <c r="U53" s="23">
-        <v>0</v>
-      </c>
-      <c r="V53" s="22" t="s">
+      <c r="T53" s="22">
+        <v>0</v>
+      </c>
+      <c r="U53" s="22">
+        <v>0</v>
+      </c>
+      <c r="V53" s="21" t="s">
         <v>320</v>
       </c>
       <c r="W53">
         <v>335</v>
       </c>
-      <c r="X53" s="22" t="s">
+      <c r="X53" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y53">
@@ -7411,79 +6862,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:30">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:30" ht="15">
+      <c r="A54" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="22">
         <v>27</v>
       </c>
-      <c r="C54" s="23">
-        <v>1</v>
-      </c>
-      <c r="D54" s="22" t="s">
+      <c r="C54" s="22">
+        <v>1</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="I54" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>27</v>
       </c>
-      <c r="K54" s="37">
+      <c r="K54" s="36">
         <f t="array" ref="K54">INDEX(Sheet2!$H$2:$I$21,MATCH(G54,Sheet2!$I$2:I56,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L54" s="51">
+      <c r="L54" s="50">
         <v>2</v>
       </c>
-      <c r="M54" s="39" t="str">
+      <c r="M54" s="38" t="str">
         <f t="array" ref="M54">INDEX(Sheet2!$E$2:$F$21,MATCH(G54,Sheet2!$F$2:F71,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N54" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O54" s="23">
-        <v>1</v>
-      </c>
-      <c r="P54" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="23">
-        <v>1</v>
-      </c>
-      <c r="R54" s="23">
-        <v>0</v>
-      </c>
-      <c r="S54" s="22" t="s">
+      <c r="N54" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" s="22">
+        <v>1</v>
+      </c>
+      <c r="P54" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="22">
+        <v>1</v>
+      </c>
+      <c r="R54" s="22">
+        <v>0</v>
+      </c>
+      <c r="S54" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="T54" s="23">
-        <v>0</v>
-      </c>
-      <c r="U54" s="23">
-        <v>0</v>
-      </c>
-      <c r="V54" s="22" t="s">
+      <c r="T54" s="22">
+        <v>0</v>
+      </c>
+      <c r="U54" s="22">
+        <v>0</v>
+      </c>
+      <c r="V54" s="21" t="s">
         <v>320</v>
       </c>
       <c r="W54">
         <v>336</v>
       </c>
-      <c r="X54" s="22" t="s">
+      <c r="X54" s="21" t="s">
         <v>35</v>
       </c>
       <c r="Y54">
@@ -7510,28 +6961,26 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7142857142857" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.71428571428571" customWidth="1"/>
-    <col min="8" max="8" width="10.7142857142857" customWidth="1"/>
-    <col min="9" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="1" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>329</v>
@@ -7571,7 +7020,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="2:9">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>333</v>
       </c>
@@ -7593,7 +7042,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" spans="2:9">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>335</v>
       </c>
@@ -7615,7 +7064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" spans="2:9">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>337</v>
       </c>
@@ -7637,7 +7086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" spans="2:9">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>262</v>
       </c>
@@ -7659,7 +7108,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" spans="2:9">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>340</v>
       </c>
@@ -7681,7 +7130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" spans="2:9">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="9" t="s">
         <v>342</v>
       </c>
@@ -7703,7 +7152,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="2:9">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>343</v>
       </c>
@@ -7725,7 +7174,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" spans="2:9">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>340</v>
       </c>
@@ -7747,7 +7196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" spans="2:9">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="B10" s="11">
         <v>2</v>
       </c>
@@ -7767,7 +7216,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" spans="2:9">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>344</v>
       </c>
@@ -7789,7 +7238,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" spans="2:9">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -7799,7 +7248,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="2:9">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -7809,7 +7258,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1" spans="2:9">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -7819,7 +7268,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1" spans="2:9">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
@@ -7829,7 +7278,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="2:9">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -7839,7 +7288,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1" spans="2:9">
+    <row r="17" spans="2:9" ht="12.75" customHeight="1">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -7849,7 +7298,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1" spans="2:9">
+    <row r="18" spans="2:9" ht="12.75" customHeight="1">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -7859,7 +7308,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1" spans="2:9">
+    <row r="19" spans="2:9" ht="12.75" customHeight="1">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
@@ -7869,7 +7318,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1" spans="2:9">
+    <row r="20" spans="2:9" ht="12.75" customHeight="1">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -7879,7 +7328,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1" spans="2:9">
+    <row r="21" spans="2:9" ht="12.75" customHeight="1">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -7889,21 +7338,37 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1" spans="3:3">
-      <c r="C25" s="14" t="s">
+    <row r="22" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="25" spans="2:9" ht="12.75" customHeight="1">
+      <c r="C25" s="52" t="s">
         <v>345</v>
       </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="26" spans="2:9" ht="12.75" customHeight="1">
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="2:9" ht="12.75" customHeight="1">
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="29" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="30" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="31" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="32" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -8878,7 +8343,6 @@
     <mergeCell ref="C25:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/allDeployment/cas/_helper/casOperatorInfo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\allDeployment\cas\_helper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -922,22 +917,22 @@
     <t>10.154.150.53</t>
   </si>
   <si>
+    <t>teleExchange_tdm</t>
+  </si>
+  <si>
+    <t>102UQ1a&amp;5*nY</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm</t>
+  </si>
+  <si>
+    <t>teleExchange_10.154.150.53_HUWAEI</t>
+  </si>
+  <si>
+    <t>10.154.150.60</t>
+  </si>
+  <si>
     <t>teleExchange_tdm1</t>
-  </si>
-  <si>
-    <t>102UQ1a&amp;5*nY</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm</t>
-  </si>
-  <si>
-    <t>teleExchange_10.154.150.53_HUWAEI</t>
-  </si>
-  <si>
-    <t>10.154.150.60</t>
-  </si>
-  <si>
-    <t>teleExchange_tdm</t>
   </si>
   <si>
     <t>9I+wLs=CrUf#6fl</t>
@@ -1066,8 +1061,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1079,66 +1080,66 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1146,26 +1147,26 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1178,17 +1179,132 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1227,7 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,8 +1371,164 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1294,16 +1566,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1342,19 +1811,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="19"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1363,19 +1835,19 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="23"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1385,7 +1857,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1395,53 +1867,88 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Bad" xfId="4" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NE automation data"/>
@@ -1457,12 +1964,16 @@
           <cell r="C2" t="str">
             <v>HUWAEI</v>
           </cell>
+        </row>
+        <row r="2">
           <cell r="E2" t="str">
             <v>.dat</v>
           </cell>
           <cell r="F2" t="str">
             <v>HUWAEI</v>
           </cell>
+        </row>
+        <row r="2">
           <cell r="H2">
             <v>3</v>
           </cell>
@@ -1477,12 +1988,16 @@
           <cell r="C3" t="str">
             <v>GENBAND</v>
           </cell>
+        </row>
+        <row r="3">
           <cell r="E3" t="str">
             <v>.gz</v>
           </cell>
           <cell r="F3" t="str">
             <v>GENBAND</v>
           </cell>
+        </row>
+        <row r="3">
           <cell r="H3">
             <v>31</v>
           </cell>
@@ -1497,12 +2012,16 @@
           <cell r="C4" t="str">
             <v>CATALEYA</v>
           </cell>
+        </row>
+        <row r="4">
           <cell r="E4" t="str">
             <v>.txt</v>
           </cell>
           <cell r="F4" t="str">
             <v>CATALEYA</v>
           </cell>
+        </row>
+        <row r="4">
           <cell r="H4">
             <v>25</v>
           </cell>
@@ -1517,12 +2036,16 @@
           <cell r="C5" t="str">
             <v>ZTE</v>
           </cell>
+        </row>
+        <row r="5">
           <cell r="E5" t="str">
             <v>.DAT</v>
           </cell>
           <cell r="F5" t="str">
             <v>ZTE</v>
           </cell>
+        </row>
+        <row r="5">
           <cell r="H5">
             <v>17</v>
           </cell>
@@ -1537,12 +2060,16 @@
           <cell r="C6" t="str">
             <v>REVE</v>
           </cell>
+        </row>
+        <row r="6">
           <cell r="E6" t="str">
             <v>.csv</v>
           </cell>
           <cell r="F6" t="str">
             <v>REVE</v>
           </cell>
+        </row>
+        <row r="6">
           <cell r="H6">
             <v>28</v>
           </cell>
@@ -1557,12 +2084,16 @@
           <cell r="C7" t="str">
             <v>NOKIA</v>
           </cell>
+        </row>
+        <row r="7">
           <cell r="E7" t="str">
             <v>.DAT</v>
           </cell>
           <cell r="F7" t="str">
             <v>NOKIA</v>
           </cell>
+        </row>
+        <row r="7">
           <cell r="H7">
             <v>36</v>
           </cell>
@@ -1577,12 +2108,16 @@
           <cell r="C8" t="str">
             <v>DIALOGIC</v>
           </cell>
+        </row>
+        <row r="8">
           <cell r="E8" t="str">
             <v>.gz</v>
           </cell>
           <cell r="F8" t="str">
             <v>DIALOGIC</v>
           </cell>
+        </row>
+        <row r="8">
           <cell r="H8">
             <v>27</v>
           </cell>
@@ -1597,12 +2132,16 @@
           <cell r="C9" t="str">
             <v>TELCOBRIDGE</v>
           </cell>
+        </row>
+        <row r="9">
           <cell r="E9" t="str">
             <v>.log</v>
           </cell>
           <cell r="F9" t="str">
             <v>TELCOBRIDGE</v>
           </cell>
+        </row>
+        <row r="9">
           <cell r="H9">
             <v>37</v>
           </cell>
@@ -1617,9 +2156,13 @@
           <cell r="C10" t="str">
             <v>WTL</v>
           </cell>
+        </row>
+        <row r="10">
           <cell r="F10" t="str">
             <v>WTL</v>
           </cell>
+        </row>
+        <row r="10">
           <cell r="H10">
             <v>38</v>
           </cell>
@@ -1634,12 +2177,16 @@
           <cell r="C11" t="str">
             <v>GNEW</v>
           </cell>
+        </row>
+        <row r="11">
           <cell r="E11" t="str">
             <v>.csv</v>
           </cell>
           <cell r="F11" t="str">
             <v>GNEW</v>
           </cell>
+        </row>
+        <row r="11">
           <cell r="H11">
             <v>39</v>
           </cell>
@@ -1850,212 +2397,215 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="13.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="19.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="67" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="17" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="14.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="8.57142857142857" customWidth="1"/>
+    <col min="15" max="15" width="15.5714285714286" customWidth="1"/>
+    <col min="16" max="17" width="18.5714285714286" customWidth="1"/>
+    <col min="18" max="18" width="16.8571428571429" customWidth="1"/>
     <col min="19" max="19" width="43" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" customWidth="1"/>
-    <col min="22" max="22" width="25.42578125" customWidth="1"/>
-    <col min="23" max="23" width="31.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.8571428571429" customWidth="1"/>
+    <col min="21" max="21" width="11.2857142857143" customWidth="1"/>
+    <col min="22" max="22" width="25.4285714285714" customWidth="1"/>
+    <col min="23" max="23" width="31.7142857142857" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="27" max="27" width="48.5703125" customWidth="1"/>
-    <col min="28" max="28" width="45.7109375" customWidth="1"/>
-    <col min="29" max="29" width="46.5703125" customWidth="1"/>
-    <col min="30" max="30" width="32.7109375" customWidth="1"/>
+    <col min="25" max="25" width="20.5714285714286" customWidth="1"/>
+    <col min="26" max="26" width="25.4285714285714" customWidth="1"/>
+    <col min="27" max="27" width="48.5714285714286" customWidth="1"/>
+    <col min="28" max="28" width="45.7142857142857" customWidth="1"/>
+    <col min="29" max="29" width="46.5714285714286" customWidth="1"/>
+    <col min="30" max="30" width="32.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" ht="16.5" spans="1:30">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15">
-      <c r="A2" s="21" t="s">
+    <row r="2" ht="15.75" spans="1:30">
+      <c r="A2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22">
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="22">
-        <v>1</v>
-      </c>
-      <c r="K2" s="36">
+      <c r="J2" s="23">
+        <v>1</v>
+      </c>
+      <c r="K2" s="37">
         <v>29</v>
       </c>
-      <c r="L2" s="37" t="str">
+      <c r="L2" s="38" t="str">
         <f t="array" ref="L2">INDEX(Sheet2!$B$2:$C$21,MATCH(G2,Sheet2!$C$2:C21,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M2" s="38" t="str">
+      <c r="M2" s="39" t="str">
         <f t="array" ref="M2">INDEX(Sheet2!$E$2:$F$21,MATCH(G2,Sheet2!$F$2:F21,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="22">
-        <v>0</v>
-      </c>
-      <c r="P2" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="22">
-        <v>1</v>
-      </c>
-      <c r="R2" s="22">
-        <v>1</v>
-      </c>
-      <c r="S2" s="21" t="s">
+      <c r="N2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="23">
+        <v>0</v>
+      </c>
+      <c r="P2" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>1</v>
+      </c>
+      <c r="R2" s="23">
+        <v>1</v>
+      </c>
+      <c r="S2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="22">
-        <v>0</v>
-      </c>
-      <c r="U2" s="22">
-        <v>0</v>
-      </c>
-      <c r="V2" s="21" t="s">
+      <c r="T2" s="23">
+        <v>0</v>
+      </c>
+      <c r="U2" s="23">
+        <v>0</v>
+      </c>
+      <c r="V2" s="22" t="s">
         <v>29</v>
       </c>
       <c r="W2">
         <v>285</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y2">
@@ -2077,80 +2627,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15">
-      <c r="A3" s="21" t="s">
+    <row r="3" ht="15" spans="1:30">
+      <c r="A3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="22">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="22">
-        <v>1</v>
-      </c>
-      <c r="K3" s="36">
+      <c r="J3" s="23">
+        <v>1</v>
+      </c>
+      <c r="K3" s="37">
         <f t="array" ref="K3">INDEX(Sheet2!$H$2:$I$21,MATCH(G3,Sheet2!$I$2:I7,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L3" s="37" t="str">
+      <c r="L3" s="38" t="str">
         <f t="array" ref="L3">INDEX(Sheet2!$B$2:$C$21,MATCH(G3,Sheet2!$C$2:C22,0),1)</f>
         <v>VCDR</v>
       </c>
-      <c r="M3" s="38" t="str">
+      <c r="M3" s="39" t="str">
         <f t="array" ref="M3">INDEX(Sheet2!$E$2:$F$21,MATCH(G3,Sheet2!$F$2:F22,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="22">
-        <v>1</v>
-      </c>
-      <c r="P3" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>1</v>
-      </c>
-      <c r="R3" s="22">
-        <v>1</v>
-      </c>
-      <c r="S3" s="21" t="s">
+      <c r="O3" s="23">
+        <v>1</v>
+      </c>
+      <c r="P3" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>1</v>
+      </c>
+      <c r="R3" s="23">
+        <v>1</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="22">
-        <v>0</v>
-      </c>
-      <c r="U3" s="22">
-        <v>0</v>
-      </c>
-      <c r="V3" s="21" t="s">
+      <c r="T3" s="23">
+        <v>0</v>
+      </c>
+      <c r="U3" s="23">
+        <v>0</v>
+      </c>
+      <c r="V3" s="22" t="s">
         <v>29</v>
       </c>
       <c r="W3">
         <v>286</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="X3" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y3">
@@ -2172,79 +2722,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15">
-      <c r="A4" s="21" t="s">
+    <row r="4" ht="15" spans="1:30">
+      <c r="A4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="23">
         <v>3</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="23">
         <v>3</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="37">
         <v>690</v>
       </c>
-      <c r="L4" s="37" t="str">
+      <c r="L4" s="38" t="str">
         <f t="array" ref="L4">INDEX(Sheet2!$B$2:$C$21,MATCH(G4,Sheet2!$C$2:C25,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M4" s="38" t="str">
+      <c r="M4" s="39" t="str">
         <f t="array" ref="M4">INDEX(Sheet2!$E$2:$F$21,MATCH(G4,Sheet2!$F$2:F25,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="22">
-        <v>0</v>
-      </c>
-      <c r="P4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>1</v>
-      </c>
-      <c r="R4" s="22">
-        <v>1</v>
-      </c>
-      <c r="S4" s="21" t="s">
+      <c r="N4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="23">
+        <v>0</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>1</v>
+      </c>
+      <c r="R4" s="23">
+        <v>1</v>
+      </c>
+      <c r="S4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="22">
-        <v>0</v>
-      </c>
-      <c r="U4" s="22">
-        <v>0</v>
-      </c>
-      <c r="V4" s="21" t="s">
+      <c r="T4" s="23">
+        <v>0</v>
+      </c>
+      <c r="U4" s="23">
+        <v>0</v>
+      </c>
+      <c r="V4" s="22" t="s">
         <v>45</v>
       </c>
       <c r="W4">
         <v>287</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y4">
@@ -2266,75 +2816,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15">
-      <c r="A5" s="21" t="s">
+    <row r="5" ht="15" spans="1:30">
+      <c r="A5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="23">
         <v>3</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="37">
         <v>49</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="22">
-        <v>1</v>
-      </c>
-      <c r="P5" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>1</v>
-      </c>
-      <c r="R5" s="22">
-        <v>1</v>
-      </c>
-      <c r="S5" s="21" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="23">
+        <v>1</v>
+      </c>
+      <c r="P5" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>1</v>
+      </c>
+      <c r="R5" s="23">
+        <v>1</v>
+      </c>
+      <c r="S5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="22">
-        <v>0</v>
-      </c>
-      <c r="U5" s="22">
-        <v>0</v>
-      </c>
-      <c r="V5" s="21" t="s">
+      <c r="T5" s="23">
+        <v>0</v>
+      </c>
+      <c r="U5" s="23">
+        <v>0</v>
+      </c>
+      <c r="V5" s="22" t="s">
         <v>45</v>
       </c>
       <c r="W5">
         <v>288</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="X5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y5">
@@ -2356,80 +2906,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15">
-      <c r="A6" s="21" t="s">
+    <row r="6" ht="15" spans="1:30">
+      <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="23">
         <v>2</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="23">
         <v>10</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="23">
         <v>2</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="37">
         <f t="array" ref="K6">INDEX(Sheet2!$H$2:$I$21,MATCH(G6,Sheet2!$I$2:I8,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L6" s="37" t="str">
+      <c r="L6" s="38" t="str">
         <f t="array" ref="L6">INDEX(Sheet2!$B$2:$C$21,MATCH(G6,Sheet2!$C$2:C23,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M6" s="38" t="str">
+      <c r="M6" s="39" t="str">
         <f t="array" ref="M6">INDEX(Sheet2!$E$2:$F$21,MATCH(G6,Sheet2!$F$2:F23,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="22">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>0</v>
-      </c>
-      <c r="R6" s="22">
-        <v>1</v>
-      </c>
-      <c r="S6" s="21" t="s">
+      <c r="O6" s="23">
+        <v>1</v>
+      </c>
+      <c r="P6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
+        <v>1</v>
+      </c>
+      <c r="S6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="22">
-        <v>0</v>
-      </c>
-      <c r="U6" s="22">
-        <v>0</v>
-      </c>
-      <c r="V6" s="21" t="s">
+      <c r="T6" s="23">
+        <v>0</v>
+      </c>
+      <c r="U6" s="23">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22" t="s">
         <v>58</v>
       </c>
       <c r="W6">
         <v>289</v>
       </c>
-      <c r="X6" s="21" t="s">
+      <c r="X6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y6">
@@ -2451,80 +3001,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15">
-      <c r="A7" s="21" t="s">
+    <row r="7" ht="15" spans="1:30">
+      <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="23">
         <v>2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="23">
         <v>9</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="23">
         <v>2</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="37">
         <f t="array" ref="K7">INDEX(Sheet2!$H$2:$I$21,MATCH(G7,Sheet2!$I$2:I9,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L7" s="37" t="str">
+      <c r="L7" s="38" t="str">
         <f t="array" ref="L7">INDEX(Sheet2!$B$2:$C$21,MATCH(G7,Sheet2!$C$2:C24,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M7" s="38" t="str">
+      <c r="M7" s="39" t="str">
         <f t="array" ref="M7">INDEX(Sheet2!$E$2:$F$21,MATCH(G7,Sheet2!$F$2:F24,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N7" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="22">
-        <v>1</v>
-      </c>
-      <c r="P7" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>1</v>
-      </c>
-      <c r="R7" s="22">
-        <v>1</v>
-      </c>
-      <c r="S7" s="21" t="s">
+      <c r="N7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="23">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>1</v>
+      </c>
+      <c r="R7" s="23">
+        <v>1</v>
+      </c>
+      <c r="S7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="T7" s="22">
-        <v>0</v>
-      </c>
-      <c r="U7" s="22">
-        <v>0</v>
-      </c>
-      <c r="V7" s="21" t="s">
+      <c r="T7" s="23">
+        <v>0</v>
+      </c>
+      <c r="U7" s="23">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22" t="s">
         <v>58</v>
       </c>
       <c r="W7">
         <v>290</v>
       </c>
-      <c r="X7" s="21" t="s">
+      <c r="X7" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y7">
@@ -2546,79 +3096,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="14" customFormat="1" ht="15">
-      <c r="A8" s="14" t="s">
+    <row r="8" s="15" customFormat="1" ht="15" spans="1:30">
+      <c r="A8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="25">
         <v>4</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="25">
         <v>2</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="25">
         <v>4</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="25">
         <v>71</v>
       </c>
-      <c r="L8" s="16" t="str">
+      <c r="L8" s="17" t="str">
         <f t="array" ref="L8">INDEX(Sheet2!$B$2:$C$21,MATCH(G8,Sheet2!$C$2:C27,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M8" s="39" t="str">
+      <c r="M8" s="40" t="str">
         <f t="array" ref="M8">INDEX(Sheet2!$E$2:$F$21,MATCH(G8,Sheet2!$F$2:F27,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="24">
-        <v>0</v>
-      </c>
-      <c r="P8" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>1</v>
-      </c>
-      <c r="R8" s="24">
-        <v>1</v>
-      </c>
-      <c r="S8" s="14" t="s">
+      <c r="N8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>1</v>
+      </c>
+      <c r="R8" s="25">
+        <v>1</v>
+      </c>
+      <c r="S8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="T8" s="24">
-        <v>0</v>
-      </c>
-      <c r="U8" s="24">
-        <v>0</v>
-      </c>
-      <c r="V8" s="14" t="s">
+      <c r="T8" s="25">
+        <v>0</v>
+      </c>
+      <c r="U8" s="25">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15" t="s">
         <v>71</v>
       </c>
       <c r="W8">
         <v>291</v>
       </c>
-      <c r="X8" s="21" t="s">
+      <c r="X8" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y8">
@@ -2640,80 +3190,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15">
-      <c r="A9" s="21" t="s">
+    <row r="9" ht="15" spans="1:30">
+      <c r="A9" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="23">
         <v>4</v>
       </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="23">
         <v>4</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="37">
         <f t="array" ref="K9">INDEX(Sheet2!$H$2:$I$21,MATCH(G9,Sheet2!$I$2:I13,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L9" s="37" t="str">
+      <c r="L9" s="38" t="str">
         <f t="array" ref="L9">INDEX(Sheet2!$B$2:$C$21,MATCH(G9,Sheet2!$C$2:C28,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M9" s="38" t="str">
+      <c r="M9" s="39" t="str">
         <f t="array" ref="M9">INDEX(Sheet2!$E$2:$F$21,MATCH(G9,Sheet2!$F$2:F28,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="22">
-        <v>1</v>
-      </c>
-      <c r="P9" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>1</v>
-      </c>
-      <c r="R9" s="22">
-        <v>1</v>
-      </c>
-      <c r="S9" s="21" t="s">
+      <c r="N9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="23">
+        <v>1</v>
+      </c>
+      <c r="P9" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>1</v>
+      </c>
+      <c r="R9" s="23">
+        <v>1</v>
+      </c>
+      <c r="S9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="22">
-        <v>0</v>
-      </c>
-      <c r="U9" s="22">
-        <v>0</v>
-      </c>
-      <c r="V9" s="21" t="s">
+      <c r="T9" s="23">
+        <v>0</v>
+      </c>
+      <c r="U9" s="23">
+        <v>0</v>
+      </c>
+      <c r="V9" s="22" t="s">
         <v>71</v>
       </c>
       <c r="W9">
         <v>292</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="X9" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y9">
@@ -2735,75 +3285,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15">
-      <c r="A10" s="25" t="s">
+    <row r="10" ht="15" spans="1:30">
+      <c r="A10" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="27">
         <v>12</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="27">
         <v>3</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="27">
         <v>12</v>
       </c>
-      <c r="K10" s="40">
-        <v>0</v>
-      </c>
-      <c r="L10" s="41">
-        <v>0</v>
-      </c>
-      <c r="M10" s="42">
-        <v>0</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>1</v>
-      </c>
-      <c r="R10" s="26">
-        <v>1</v>
-      </c>
-      <c r="S10" s="25" t="s">
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+      <c r="L10" s="42">
+        <v>0</v>
+      </c>
+      <c r="M10" s="43">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>1</v>
+      </c>
+      <c r="R10" s="27">
+        <v>1</v>
+      </c>
+      <c r="S10" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="T10" s="26">
-        <v>0</v>
-      </c>
-      <c r="U10" s="22">
-        <v>0</v>
-      </c>
-      <c r="V10" s="25" t="s">
+      <c r="T10" s="27">
+        <v>0</v>
+      </c>
+      <c r="U10" s="23">
+        <v>0</v>
+      </c>
+      <c r="V10" s="26" t="s">
         <v>82</v>
       </c>
       <c r="W10">
         <v>293</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="X10" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y10">
@@ -2825,76 +3375,76 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15">
-      <c r="A11" s="25" t="s">
+    <row r="11" ht="15" spans="1:30">
+      <c r="A11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="27">
         <v>12</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="27">
         <v>2</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="27">
         <v>12</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="41">
         <v>68</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="38" t="str">
+      <c r="M11" s="39" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="22">
-        <v>1</v>
-      </c>
-      <c r="P11" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>1</v>
-      </c>
-      <c r="R11" s="26">
-        <v>1</v>
-      </c>
-      <c r="S11" s="21" t="s">
+      <c r="N11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="23">
+        <v>1</v>
+      </c>
+      <c r="P11" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>1</v>
+      </c>
+      <c r="R11" s="27">
+        <v>1</v>
+      </c>
+      <c r="S11" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="T11" s="26">
-        <v>0</v>
-      </c>
-      <c r="U11" s="22">
-        <v>0</v>
-      </c>
-      <c r="V11" s="25" t="s">
+      <c r="T11" s="27">
+        <v>0</v>
+      </c>
+      <c r="U11" s="23">
+        <v>0</v>
+      </c>
+      <c r="V11" s="26" t="s">
         <v>82</v>
       </c>
       <c r="W11">
         <v>294</v>
       </c>
-      <c r="X11" s="21" t="s">
+      <c r="X11" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y11">
@@ -2916,78 +3466,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15">
-      <c r="A12" s="21" t="s">
+    <row r="12" ht="15" spans="1:30">
+      <c r="A12" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="23">
         <v>12</v>
       </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="23">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="23">
         <v>12</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="37">
         <v>68</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="38" t="str">
+      <c r="M12" s="39" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>1</v>
-      </c>
-      <c r="R12" s="22">
-        <v>1</v>
-      </c>
-      <c r="S12" s="21" t="s">
+      <c r="N12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="23">
+        <v>0</v>
+      </c>
+      <c r="P12" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>1</v>
+      </c>
+      <c r="R12" s="23">
+        <v>1</v>
+      </c>
+      <c r="S12" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="T12" s="22">
-        <v>0</v>
-      </c>
-      <c r="U12" s="22">
-        <v>0</v>
-      </c>
-      <c r="V12" s="21" t="s">
+      <c r="T12" s="23">
+        <v>0</v>
+      </c>
+      <c r="U12" s="23">
+        <v>0</v>
+      </c>
+      <c r="V12" s="22" t="s">
         <v>82</v>
       </c>
       <c r="W12">
         <v>295</v>
       </c>
-      <c r="X12" s="21" t="s">
+      <c r="X12" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y12">
@@ -3009,79 +3559,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="15" customFormat="1" ht="15">
-      <c r="A13" s="29" t="s">
+    <row r="13" s="16" customFormat="1" ht="15" spans="1:30">
+      <c r="A13" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="31">
         <v>18</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="31">
         <v>3</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="31">
         <v>18</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="44">
         <v>40</v>
       </c>
-      <c r="L13" s="44" t="str">
+      <c r="L13" s="45" t="str">
         <f t="array" ref="L13">INDEX(Sheet2!$B$2:$C$21,MATCH(G13,Sheet2!$C$2:C50,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M13" s="45" t="str">
+      <c r="M13" s="46" t="str">
         <f t="array" ref="M13">INDEX(Sheet2!$E$2:$F$21,MATCH(G13,Sheet2!$F$2:F50,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N13" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="30">
-        <v>0</v>
-      </c>
-      <c r="P13" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="30">
-        <v>1</v>
-      </c>
-      <c r="R13" s="30">
-        <v>1</v>
-      </c>
-      <c r="S13" s="29" t="s">
+      <c r="N13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="31">
+        <v>0</v>
+      </c>
+      <c r="P13" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>1</v>
+      </c>
+      <c r="R13" s="31">
+        <v>1</v>
+      </c>
+      <c r="S13" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="T13" s="30">
-        <v>0</v>
-      </c>
-      <c r="U13" s="30">
-        <v>0</v>
-      </c>
-      <c r="V13" s="29" t="s">
+      <c r="T13" s="31">
+        <v>0</v>
+      </c>
+      <c r="U13" s="31">
+        <v>0</v>
+      </c>
+      <c r="V13" s="30" t="s">
         <v>99</v>
       </c>
       <c r="W13">
         <v>296</v>
       </c>
-      <c r="X13" s="21" t="s">
+      <c r="X13" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y13">
@@ -3103,80 +3653,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15">
-      <c r="A14" s="21" t="s">
+    <row r="14" ht="15" spans="1:30">
+      <c r="A14" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="23">
         <v>18</v>
       </c>
-      <c r="C14" s="22">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="23">
         <v>18</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="37">
         <f t="array" ref="K14">INDEX(Sheet2!$H$2:$I$21,MATCH(G14,Sheet2!$I$2:I36,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L14" s="37" t="str">
+      <c r="L14" s="38" t="str">
         <f t="array" ref="L14">INDEX(Sheet2!$B$2:$C$21,MATCH(G14,Sheet2!$C$2:C51,0),1)</f>
         <v>VCDR</v>
       </c>
-      <c r="M14" s="38" t="str">
+      <c r="M14" s="39" t="str">
         <f t="array" ref="M14">INDEX(Sheet2!$E$2:$F$21,MATCH(G14,Sheet2!$F$2:F51,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N14" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="22">
-        <v>1</v>
-      </c>
-      <c r="P14" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>1</v>
-      </c>
-      <c r="R14" s="22">
-        <v>1</v>
-      </c>
-      <c r="S14" s="21" t="s">
+      <c r="N14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="23">
+        <v>1</v>
+      </c>
+      <c r="P14" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>1</v>
+      </c>
+      <c r="R14" s="23">
+        <v>1</v>
+      </c>
+      <c r="S14" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="T14" s="22">
-        <v>0</v>
-      </c>
-      <c r="U14" s="22">
-        <v>0</v>
-      </c>
-      <c r="V14" s="21" t="s">
+      <c r="T14" s="23">
+        <v>0</v>
+      </c>
+      <c r="U14" s="23">
+        <v>0</v>
+      </c>
+      <c r="V14" s="22" t="s">
         <v>99</v>
       </c>
       <c r="W14">
         <v>297</v>
       </c>
-      <c r="X14" s="21" t="s">
+      <c r="X14" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y14">
@@ -3198,80 +3748,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15">
-      <c r="A15" s="21" t="s">
+    <row r="15" ht="15" spans="1:30">
+      <c r="A15" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="23">
         <v>18</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="23">
         <v>2</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="23">
         <v>18</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="37">
         <f t="array" ref="K15">INDEX(Sheet2!$H$2:$I$21,MATCH(G15,Sheet2!$I$2:I37,0),1)</f>
         <v>37</v>
       </c>
-      <c r="L15" s="37" t="str">
+      <c r="L15" s="38" t="str">
         <f t="array" ref="L15">INDEX(Sheet2!$B$2:$C$21,MATCH(G15,Sheet2!$C$2:C52,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M15" s="38" t="str">
+      <c r="M15" s="39" t="str">
         <f t="array" ref="M15">INDEX(Sheet2!$E$2:$F$21,MATCH(G15,Sheet2!$F$2:F52,0),1)</f>
         <v>.log</v>
       </c>
-      <c r="N15" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="22">
-        <v>1</v>
-      </c>
-      <c r="P15" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>0</v>
-      </c>
-      <c r="R15" s="22">
-        <v>1</v>
-      </c>
-      <c r="S15" s="21" t="s">
+      <c r="N15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="23">
+        <v>1</v>
+      </c>
+      <c r="P15" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>0</v>
+      </c>
+      <c r="R15" s="23">
+        <v>1</v>
+      </c>
+      <c r="S15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="T15" s="22">
-        <v>0</v>
-      </c>
-      <c r="U15" s="22">
-        <v>0</v>
-      </c>
-      <c r="V15" s="21" t="s">
+      <c r="T15" s="23">
+        <v>0</v>
+      </c>
+      <c r="U15" s="23">
+        <v>0</v>
+      </c>
+      <c r="V15" s="22" t="s">
         <v>99</v>
       </c>
       <c r="W15">
         <v>298</v>
       </c>
-      <c r="X15" s="21" t="s">
+      <c r="X15" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y15">
@@ -3293,79 +3843,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15">
-      <c r="A16" s="21" t="s">
+    <row r="16" ht="15" spans="1:30">
+      <c r="A16" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="23">
         <v>6</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="23">
         <v>3</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="23">
         <v>6</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="37">
         <v>32</v>
       </c>
-      <c r="L16" s="37" t="str">
+      <c r="L16" s="38" t="str">
         <f t="array" ref="L16">INDEX(Sheet2!$B$2:$C$21,MATCH(G16,Sheet2!$C$2:C29,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M16" s="38" t="str">
+      <c r="M16" s="39" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F29,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="22">
-        <v>1</v>
-      </c>
-      <c r="P16" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>1</v>
-      </c>
-      <c r="R16" s="22">
-        <v>1</v>
-      </c>
-      <c r="S16" s="21" t="s">
+      <c r="N16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="23">
+        <v>1</v>
+      </c>
+      <c r="P16" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>1</v>
+      </c>
+      <c r="R16" s="23">
+        <v>1</v>
+      </c>
+      <c r="S16" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="22">
-        <v>0</v>
-      </c>
-      <c r="U16" s="22">
-        <v>0</v>
-      </c>
-      <c r="V16" s="21" t="s">
+      <c r="T16" s="23">
+        <v>0</v>
+      </c>
+      <c r="U16" s="23">
+        <v>0</v>
+      </c>
+      <c r="V16" s="22" t="s">
         <v>116</v>
       </c>
       <c r="W16">
         <v>299</v>
       </c>
-      <c r="X16" s="21" t="s">
+      <c r="X16" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y16">
@@ -3387,75 +3937,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15">
-      <c r="A17" s="21" t="s">
+    <row r="17" ht="15" spans="1:30">
+      <c r="A17" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="23">
         <v>6</v>
       </c>
-      <c r="C17" s="22">
-        <v>1</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="23">
         <v>6</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="37">
         <v>70</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="22">
-        <v>1</v>
-      </c>
-      <c r="P17" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>1</v>
-      </c>
-      <c r="R17" s="22">
-        <v>1</v>
-      </c>
-      <c r="S17" s="21" t="s">
+      <c r="M17" s="39"/>
+      <c r="N17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="23">
+        <v>1</v>
+      </c>
+      <c r="P17" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>1</v>
+      </c>
+      <c r="R17" s="23">
+        <v>1</v>
+      </c>
+      <c r="S17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="22">
-        <v>0</v>
-      </c>
-      <c r="U17" s="22">
-        <v>0</v>
-      </c>
-      <c r="V17" s="21" t="s">
+      <c r="T17" s="23">
+        <v>0</v>
+      </c>
+      <c r="U17" s="23">
+        <v>0</v>
+      </c>
+      <c r="V17" s="22" t="s">
         <v>116</v>
       </c>
       <c r="W17">
         <v>300</v>
       </c>
-      <c r="X17" s="21" t="s">
+      <c r="X17" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y17">
@@ -3477,77 +4027,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="16" customFormat="1" ht="15">
-      <c r="A18" s="16" t="s">
+    <row r="18" s="17" customFormat="1" ht="15" spans="1:30">
+      <c r="A18" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="25">
         <v>6</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="25">
         <v>4</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="25">
         <v>6</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="25">
         <v>57</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="N18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" s="24">
-        <v>1</v>
-      </c>
-      <c r="P18" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>0</v>
-      </c>
-      <c r="R18" s="24">
-        <v>1</v>
-      </c>
-      <c r="S18" s="16" t="s">
+      <c r="N18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="25">
+        <v>1</v>
+      </c>
+      <c r="P18" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>0</v>
+      </c>
+      <c r="R18" s="25">
+        <v>1</v>
+      </c>
+      <c r="S18" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="T18" s="24">
-        <v>1</v>
-      </c>
-      <c r="U18" s="24">
-        <v>0</v>
-      </c>
-      <c r="V18" s="16" t="s">
+      <c r="T18" s="25">
+        <v>1</v>
+      </c>
+      <c r="U18" s="25">
+        <v>0</v>
+      </c>
+      <c r="V18" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="W18" s="16">
+      <c r="W18" s="17">
         <v>301</v>
       </c>
-      <c r="X18" s="51" t="s">
+      <c r="X18" s="52" t="s">
         <v>135</v>
       </c>
       <c r="Y18">
@@ -3569,77 +4119,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="16" customFormat="1" ht="15">
-      <c r="A19" s="16" t="s">
+    <row r="19" s="17" customFormat="1" ht="15" spans="1:30">
+      <c r="A19" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="25">
         <v>6</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="25">
         <v>2</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="25">
         <v>6</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="25">
         <v>57</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="N19" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="24">
-        <v>0</v>
-      </c>
-      <c r="P19" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>0</v>
-      </c>
-      <c r="R19" s="24">
-        <v>1</v>
-      </c>
-      <c r="S19" s="16" t="s">
+      <c r="N19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>0</v>
+      </c>
+      <c r="R19" s="25">
+        <v>1</v>
+      </c>
+      <c r="S19" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="T19" s="24">
-        <v>1</v>
-      </c>
-      <c r="U19" s="24">
-        <v>0</v>
-      </c>
-      <c r="V19" s="16" t="s">
+      <c r="T19" s="25">
+        <v>1</v>
+      </c>
+      <c r="U19" s="25">
+        <v>0</v>
+      </c>
+      <c r="V19" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="W19" s="16">
+      <c r="W19" s="17">
         <v>301</v>
       </c>
-      <c r="X19" s="51" t="s">
+      <c r="X19" s="52" t="s">
         <v>135</v>
       </c>
       <c r="Y19">
@@ -3661,80 +4211,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15">
-      <c r="A20" s="21" t="s">
+    <row r="20" ht="15" spans="1:30">
+      <c r="A20" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="23">
         <v>7</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="23">
         <v>2</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="23">
         <v>7</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="37">
         <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I17,0),1)</f>
         <v>28</v>
       </c>
-      <c r="L20" s="37" t="str">
+      <c r="L20" s="38" t="str">
         <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C32,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M20" s="38" t="str">
+      <c r="M20" s="39" t="str">
         <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F32,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="22">
-        <v>1</v>
-      </c>
-      <c r="P20" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>1</v>
-      </c>
-      <c r="R20" s="22">
-        <v>1</v>
-      </c>
-      <c r="S20" s="21" t="s">
+      <c r="N20" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="23">
+        <v>1</v>
+      </c>
+      <c r="P20" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>1</v>
+      </c>
+      <c r="R20" s="23">
+        <v>1</v>
+      </c>
+      <c r="S20" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="T20" s="22">
-        <v>0</v>
-      </c>
-      <c r="U20" s="22">
-        <v>0</v>
-      </c>
-      <c r="V20" s="21" t="s">
+      <c r="T20" s="23">
+        <v>0</v>
+      </c>
+      <c r="U20" s="23">
+        <v>0</v>
+      </c>
+      <c r="V20" s="22" t="s">
         <v>139</v>
       </c>
       <c r="W20">
         <v>302</v>
       </c>
-      <c r="X20" s="21" t="s">
+      <c r="X20" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y20">
@@ -3756,80 +4306,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15">
-      <c r="A21" s="21" t="s">
+    <row r="21" ht="15" spans="1:30">
+      <c r="A21" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="23">
         <v>7</v>
       </c>
-      <c r="C21" s="22">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="23">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="23">
         <v>7</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="37">
         <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I18,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L21" s="37" t="str">
+      <c r="L21" s="38" t="str">
         <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C33,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M21" s="38" t="str">
+      <c r="M21" s="39" t="str">
         <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F33,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N21" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="22">
-        <v>1</v>
-      </c>
-      <c r="P21" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="22">
-        <v>1</v>
-      </c>
-      <c r="R21" s="22">
-        <v>1</v>
-      </c>
-      <c r="S21" s="21" t="s">
+      <c r="N21" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="23">
+        <v>1</v>
+      </c>
+      <c r="P21" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>1</v>
+      </c>
+      <c r="R21" s="23">
+        <v>1</v>
+      </c>
+      <c r="S21" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="T21" s="22">
-        <v>0</v>
-      </c>
-      <c r="U21" s="22">
-        <v>0</v>
-      </c>
-      <c r="V21" s="21" t="s">
+      <c r="T21" s="23">
+        <v>0</v>
+      </c>
+      <c r="U21" s="23">
+        <v>0</v>
+      </c>
+      <c r="V21" s="22" t="s">
         <v>139</v>
       </c>
       <c r="W21">
         <v>303</v>
       </c>
-      <c r="X21" s="21" t="s">
+      <c r="X21" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y21">
@@ -3851,80 +4401,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15">
-      <c r="A22" s="21" t="s">
+    <row r="22" ht="15" spans="1:30">
+      <c r="A22" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="23">
         <v>8</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="23">
         <v>2</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="23">
         <v>8</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="37">
         <f t="array" ref="K22">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G22,[1]Sheet2!$I$2:I19,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L22" s="37" t="str">
+      <c r="L22" s="38" t="str">
         <f t="array" ref="L22">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G22,[1]Sheet2!$C$2:C34,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M22" s="38" t="str">
+      <c r="M22" s="39" t="str">
         <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F34,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" s="22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="22">
-        <v>1</v>
-      </c>
-      <c r="R22" s="22">
-        <v>1</v>
-      </c>
-      <c r="S22" s="21" t="s">
+      <c r="N22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="23">
+        <v>0</v>
+      </c>
+      <c r="P22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>1</v>
+      </c>
+      <c r="R22" s="23">
+        <v>1</v>
+      </c>
+      <c r="S22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="T22" s="22">
-        <v>0</v>
-      </c>
-      <c r="U22" s="22">
-        <v>0</v>
-      </c>
-      <c r="V22" s="21" t="s">
+      <c r="T22" s="23">
+        <v>0</v>
+      </c>
+      <c r="U22" s="23">
+        <v>0</v>
+      </c>
+      <c r="V22" s="22" t="s">
         <v>150</v>
       </c>
       <c r="W22">
         <v>304</v>
       </c>
-      <c r="X22" s="21" t="s">
+      <c r="X22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y22">
@@ -3946,79 +4496,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15">
-      <c r="A23" s="21" t="s">
+    <row r="23" ht="15" spans="1:30">
+      <c r="A23" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="23">
         <v>8</v>
       </c>
-      <c r="C23" s="22">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="23">
         <v>8</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="37">
         <f t="array" ref="K23">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G23,[1]Sheet2!$I$2:I20,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="M23" s="38" t="str">
+      <c r="M23" s="39" t="str">
         <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F35,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N23" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="22">
-        <v>0</v>
-      </c>
-      <c r="P23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="22">
-        <v>1</v>
-      </c>
-      <c r="R23" s="22">
-        <v>1</v>
-      </c>
-      <c r="S23" s="21" t="s">
+      <c r="N23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>1</v>
+      </c>
+      <c r="R23" s="23">
+        <v>1</v>
+      </c>
+      <c r="S23" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="T23" s="22">
-        <v>0</v>
-      </c>
-      <c r="U23" s="22">
-        <v>0</v>
-      </c>
-      <c r="V23" s="21" t="s">
+      <c r="T23" s="23">
+        <v>0</v>
+      </c>
+      <c r="U23" s="23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="22" t="s">
         <v>150</v>
       </c>
       <c r="W23">
         <v>305</v>
       </c>
-      <c r="X23" s="21" t="s">
+      <c r="X23" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y23">
@@ -4040,79 +4590,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="17" customFormat="1" ht="15">
-      <c r="A24" s="21" t="s">
+    <row r="24" s="18" customFormat="1" ht="15" spans="1:30">
+      <c r="A24" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="23">
         <v>9</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="34">
         <v>18</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="23">
         <v>9</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="37">
         <v>30</v>
       </c>
-      <c r="L24" s="37" t="str">
+      <c r="L24" s="38" t="str">
         <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C36,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M24" s="38" t="str">
+      <c r="M24" s="39" t="str">
         <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F36,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N24" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="22">
-        <v>0</v>
-      </c>
-      <c r="P24" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>1</v>
-      </c>
-      <c r="R24" s="22">
-        <v>1</v>
-      </c>
-      <c r="S24" s="21" t="s">
+      <c r="N24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="23">
+        <v>0</v>
+      </c>
+      <c r="P24" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>1</v>
+      </c>
+      <c r="R24" s="23">
+        <v>1</v>
+      </c>
+      <c r="S24" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="T24" s="22">
-        <v>0</v>
-      </c>
-      <c r="U24" s="22">
-        <v>0</v>
-      </c>
-      <c r="V24" s="21" t="s">
+      <c r="T24" s="23">
+        <v>0</v>
+      </c>
+      <c r="U24" s="23">
+        <v>0</v>
+      </c>
+      <c r="V24" s="22" t="s">
         <v>162</v>
       </c>
       <c r="W24">
         <v>306</v>
       </c>
-      <c r="X24" s="21" t="s">
+      <c r="X24" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y24">
@@ -4134,80 +4684,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="17" customFormat="1" ht="15">
-      <c r="A25" s="21" t="s">
+    <row r="25" s="18" customFormat="1" ht="15" spans="1:30">
+      <c r="A25" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="23">
         <v>9</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="34">
         <v>7</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="23">
         <v>9</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="37">
         <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I22,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L25" s="37" t="str">
+      <c r="L25" s="38" t="str">
         <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C37,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M25" s="38" t="str">
+      <c r="M25" s="39" t="str">
         <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F37,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N25" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="22">
-        <v>1</v>
-      </c>
-      <c r="P25" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="22">
-        <v>1</v>
-      </c>
-      <c r="R25" s="22">
-        <v>1</v>
-      </c>
-      <c r="S25" s="21" t="s">
+      <c r="N25" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="23">
+        <v>1</v>
+      </c>
+      <c r="P25" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>1</v>
+      </c>
+      <c r="R25" s="23">
+        <v>1</v>
+      </c>
+      <c r="S25" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="22">
-        <v>0</v>
-      </c>
-      <c r="V25" s="21" t="s">
+      <c r="T25" s="23">
+        <v>0</v>
+      </c>
+      <c r="U25" s="23">
+        <v>0</v>
+      </c>
+      <c r="V25" s="22" t="s">
         <v>162</v>
       </c>
       <c r="W25">
         <v>307</v>
       </c>
-      <c r="X25" s="21" t="s">
+      <c r="X25" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y25">
@@ -4229,80 +4779,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15">
-      <c r="A26" s="21" t="s">
+    <row r="26" ht="15" spans="1:30">
+      <c r="A26" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="23">
         <v>10</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="23">
         <v>2</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="23">
         <v>10</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="37">
         <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I23,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L26" s="37" t="str">
+      <c r="L26" s="38" t="str">
         <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C38,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M26" s="38" t="str">
+      <c r="M26" s="39" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F38,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N26" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" s="22">
-        <v>1</v>
-      </c>
-      <c r="P26" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="22">
-        <v>1</v>
-      </c>
-      <c r="R26" s="22">
-        <v>1</v>
-      </c>
-      <c r="S26" s="21" t="s">
+      <c r="N26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="23">
+        <v>1</v>
+      </c>
+      <c r="P26" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>1</v>
+      </c>
+      <c r="R26" s="23">
+        <v>1</v>
+      </c>
+      <c r="S26" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="T26" s="22">
-        <v>0</v>
-      </c>
-      <c r="U26" s="22">
-        <v>0</v>
-      </c>
-      <c r="V26" s="21" t="s">
+      <c r="T26" s="23">
+        <v>0</v>
+      </c>
+      <c r="U26" s="23">
+        <v>0</v>
+      </c>
+      <c r="V26" s="22" t="s">
         <v>173</v>
       </c>
       <c r="W26">
         <v>308</v>
       </c>
-      <c r="X26" s="21" t="s">
+      <c r="X26" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y26">
@@ -4324,80 +4874,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15">
-      <c r="A27" s="21" t="s">
+    <row r="27" ht="15" spans="1:30">
+      <c r="A27" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="23">
         <v>10</v>
       </c>
-      <c r="C27" s="22">
-        <v>1</v>
-      </c>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="23">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="23">
         <v>10</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="37">
         <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I24,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L27" s="37" t="str">
+      <c r="L27" s="38" t="str">
         <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C39,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M27" s="38" t="str">
+      <c r="M27" s="39" t="str">
         <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F39,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N27" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" s="22">
-        <v>1</v>
-      </c>
-      <c r="P27" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="22">
-        <v>1</v>
-      </c>
-      <c r="R27" s="22">
-        <v>1</v>
-      </c>
-      <c r="S27" s="21" t="s">
+      <c r="N27" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="23">
+        <v>1</v>
+      </c>
+      <c r="P27" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>1</v>
+      </c>
+      <c r="R27" s="23">
+        <v>1</v>
+      </c>
+      <c r="S27" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="T27" s="22">
-        <v>0</v>
-      </c>
-      <c r="U27" s="22">
-        <v>0</v>
-      </c>
-      <c r="V27" s="21" t="s">
+      <c r="T27" s="23">
+        <v>0</v>
+      </c>
+      <c r="U27" s="23">
+        <v>0</v>
+      </c>
+      <c r="V27" s="22" t="s">
         <v>173</v>
       </c>
       <c r="W27">
         <v>309</v>
       </c>
-      <c r="X27" s="21" t="s">
+      <c r="X27" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y27">
@@ -4419,79 +4969,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="18" customFormat="1" ht="15">
-      <c r="A28" s="18" t="s">
+    <row r="28" s="19" customFormat="1" ht="15" spans="1:30">
+      <c r="A28" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="35">
         <v>11</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="35">
         <v>2</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="35">
         <v>11</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="35">
         <v>730</v>
       </c>
-      <c r="L28" s="46" t="str">
+      <c r="L28" s="47" t="str">
         <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C40,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M28" s="47" t="str">
+      <c r="M28" s="48" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F40,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N28" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28" s="34">
-        <v>0</v>
-      </c>
-      <c r="P28" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="34">
-        <v>1</v>
-      </c>
-      <c r="R28" s="34">
-        <v>1</v>
-      </c>
-      <c r="S28" s="18" t="s">
+      <c r="N28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="35">
+        <v>0</v>
+      </c>
+      <c r="P28" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="35">
+        <v>1</v>
+      </c>
+      <c r="R28" s="35">
+        <v>1</v>
+      </c>
+      <c r="S28" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="T28" s="34">
-        <v>0</v>
-      </c>
-      <c r="U28" s="34">
-        <v>0</v>
-      </c>
-      <c r="V28" s="18" t="s">
+      <c r="T28" s="35">
+        <v>0</v>
+      </c>
+      <c r="U28" s="35">
+        <v>0</v>
+      </c>
+      <c r="V28" s="19" t="s">
         <v>183</v>
       </c>
       <c r="W28">
         <v>310</v>
       </c>
-      <c r="X28" s="21" t="s">
+      <c r="X28" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y28">
@@ -4513,78 +5063,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="15">
-      <c r="A29" s="21" t="s">
+    <row r="29" ht="15" spans="1:30">
+      <c r="A29" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="23">
         <v>11</v>
       </c>
-      <c r="C29" s="22">
-        <v>1</v>
-      </c>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="23">
+        <v>1</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="23">
         <v>11</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="37">
         <v>68</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="L29" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="M29" s="38" t="str">
+      <c r="M29" s="39" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N29" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O29" s="22">
-        <v>0</v>
-      </c>
-      <c r="P29" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="22">
-        <v>1</v>
-      </c>
-      <c r="R29" s="22">
-        <v>1</v>
-      </c>
-      <c r="S29" s="21" t="s">
+      <c r="N29" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="23">
+        <v>0</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="23">
+        <v>1</v>
+      </c>
+      <c r="R29" s="23">
+        <v>1</v>
+      </c>
+      <c r="S29" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="T29" s="22">
-        <v>0</v>
-      </c>
-      <c r="U29" s="22">
-        <v>0</v>
-      </c>
-      <c r="V29" s="21" t="s">
+      <c r="T29" s="23">
+        <v>0</v>
+      </c>
+      <c r="U29" s="23">
+        <v>0</v>
+      </c>
+      <c r="V29" s="22" t="s">
         <v>183</v>
       </c>
       <c r="W29">
         <v>311</v>
       </c>
-      <c r="X29" s="21" t="s">
+      <c r="X29" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y29">
@@ -4606,80 +5156,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15">
-      <c r="A30" s="21" t="s">
+    <row r="30" ht="15" spans="1:30">
+      <c r="A30" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="23">
         <v>24</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="23">
         <v>2</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="23">
         <v>24</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="37">
         <f t="array" ref="K30">INDEX(Sheet2!$H$2:$I$21,MATCH(G30,Sheet2!$I$2:I49,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L30" s="37" t="str">
+      <c r="L30" s="38" t="str">
         <f t="array" ref="L30">INDEX(Sheet2!$B$2:$C$21,MATCH(G30,Sheet2!$C$2:C64,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M30" s="38" t="str">
+      <c r="M30" s="39" t="str">
         <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F64,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N30" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" s="22">
-        <v>1</v>
-      </c>
-      <c r="P30" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="22">
-        <v>0</v>
-      </c>
-      <c r="R30" s="22">
-        <v>1</v>
-      </c>
-      <c r="S30" s="21" t="s">
+      <c r="N30" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="23">
+        <v>1</v>
+      </c>
+      <c r="P30" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>0</v>
+      </c>
+      <c r="R30" s="23">
+        <v>1</v>
+      </c>
+      <c r="S30" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="T30" s="22">
-        <v>0</v>
-      </c>
-      <c r="U30" s="22">
-        <v>0</v>
-      </c>
-      <c r="V30" s="21" t="s">
+      <c r="T30" s="23">
+        <v>0</v>
+      </c>
+      <c r="U30" s="23">
+        <v>0</v>
+      </c>
+      <c r="V30" s="22" t="s">
         <v>193</v>
       </c>
       <c r="W30">
         <v>312</v>
       </c>
-      <c r="X30" s="21" t="s">
+      <c r="X30" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y30">
@@ -4701,78 +5251,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15">
-      <c r="A31" s="21" t="s">
+    <row r="31" ht="15" spans="1:30">
+      <c r="A31" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="23">
         <v>24</v>
       </c>
-      <c r="C31" s="22">
-        <v>1</v>
-      </c>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="23">
         <v>24</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="37">
         <v>74</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="38" t="str">
+      <c r="M31" s="39" t="str">
         <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N31" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="22">
-        <v>0</v>
-      </c>
-      <c r="P31" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="22">
-        <v>1</v>
-      </c>
-      <c r="R31" s="22">
-        <v>1</v>
-      </c>
-      <c r="S31" s="21" t="s">
+      <c r="N31" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="23">
+        <v>0</v>
+      </c>
+      <c r="P31" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>1</v>
+      </c>
+      <c r="R31" s="23">
+        <v>1</v>
+      </c>
+      <c r="S31" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="T31" s="22">
-        <v>0</v>
-      </c>
-      <c r="U31" s="22">
-        <v>0</v>
-      </c>
-      <c r="V31" s="21" t="s">
+      <c r="T31" s="23">
+        <v>0</v>
+      </c>
+      <c r="U31" s="23">
+        <v>0</v>
+      </c>
+      <c r="V31" s="22" t="s">
         <v>193</v>
       </c>
       <c r="W31">
         <v>313</v>
       </c>
-      <c r="X31" s="21" t="s">
+      <c r="X31" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y31">
@@ -4794,79 +5344,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="18" customFormat="1" ht="15">
-      <c r="A32" s="18" t="s">
+    <row r="32" s="19" customFormat="1" ht="15" spans="1:30">
+      <c r="A32" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="35">
         <v>23</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="35">
         <v>2</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="35">
         <v>23</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="35">
         <v>29</v>
       </c>
-      <c r="L32" s="46" t="str">
+      <c r="L32" s="47" t="str">
         <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C62,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M32" s="47" t="str">
+      <c r="M32" s="48" t="str">
         <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F62,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N32" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O32" s="34">
-        <v>0</v>
-      </c>
-      <c r="P32" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="34">
-        <v>1</v>
-      </c>
-      <c r="R32" s="34">
-        <v>1</v>
-      </c>
-      <c r="S32" s="18" t="s">
+      <c r="N32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="35">
+        <v>0</v>
+      </c>
+      <c r="P32" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="35">
+        <v>1</v>
+      </c>
+      <c r="R32" s="35">
+        <v>1</v>
+      </c>
+      <c r="S32" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="T32" s="34">
-        <v>0</v>
-      </c>
-      <c r="U32" s="34">
-        <v>0</v>
-      </c>
-      <c r="V32" s="18" t="s">
+      <c r="T32" s="35">
+        <v>0</v>
+      </c>
+      <c r="U32" s="35">
+        <v>0</v>
+      </c>
+      <c r="V32" s="19" t="s">
         <v>205</v>
       </c>
       <c r="W32">
         <v>314</v>
       </c>
-      <c r="X32" s="21" t="s">
+      <c r="X32" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y32">
@@ -4888,78 +5438,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15">
-      <c r="A33" s="21" t="s">
+    <row r="33" ht="15" spans="1:30">
+      <c r="A33" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="23">
         <v>23</v>
       </c>
-      <c r="C33" s="22">
-        <v>1</v>
-      </c>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="23">
+        <v>1</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="23">
         <v>23</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="37">
         <v>75</v>
       </c>
-      <c r="L33" s="37" t="s">
+      <c r="L33" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="M33" s="38" t="str">
+      <c r="M33" s="39" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N33" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="22">
-        <v>0</v>
-      </c>
-      <c r="P33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>1</v>
-      </c>
-      <c r="R33" s="22">
-        <v>1</v>
-      </c>
-      <c r="S33" s="21" t="s">
+      <c r="N33" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="23">
+        <v>0</v>
+      </c>
+      <c r="P33" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>1</v>
+      </c>
+      <c r="R33" s="23">
+        <v>1</v>
+      </c>
+      <c r="S33" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="T33" s="22">
-        <v>0</v>
-      </c>
-      <c r="U33" s="22">
-        <v>0</v>
-      </c>
-      <c r="V33" s="21" t="s">
+      <c r="T33" s="23">
+        <v>0</v>
+      </c>
+      <c r="U33" s="23">
+        <v>0</v>
+      </c>
+      <c r="V33" s="22" t="s">
         <v>205</v>
       </c>
       <c r="W33">
         <v>315</v>
       </c>
-      <c r="X33" s="21" t="s">
+      <c r="X33" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y33">
@@ -4981,80 +5531,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15">
-      <c r="A34" s="21" t="s">
+    <row r="34" ht="15" spans="1:30">
+      <c r="A34" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="23">
         <v>15</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="23">
         <v>2</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="23">
         <v>15</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="37">
         <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I29,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L34" s="37" t="str">
+      <c r="L34" s="38" t="str">
         <f t="array" ref="L34">INDEX(Sheet2!$B$2:$C$21,MATCH(G34,Sheet2!$C$2:C44,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M34" s="38" t="str">
+      <c r="M34" s="39" t="str">
         <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F44,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N34" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" s="22">
-        <v>1</v>
-      </c>
-      <c r="P34" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>1</v>
-      </c>
-      <c r="R34" s="22">
-        <v>1</v>
-      </c>
-      <c r="S34" s="21" t="s">
+      <c r="N34" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="23">
+        <v>1</v>
+      </c>
+      <c r="P34" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>1</v>
+      </c>
+      <c r="R34" s="23">
+        <v>1</v>
+      </c>
+      <c r="S34" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="T34" s="22">
-        <v>0</v>
-      </c>
-      <c r="U34" s="22">
-        <v>0</v>
-      </c>
-      <c r="V34" s="21" t="s">
+      <c r="T34" s="23">
+        <v>0</v>
+      </c>
+      <c r="U34" s="23">
+        <v>0</v>
+      </c>
+      <c r="V34" s="22" t="s">
         <v>216</v>
       </c>
       <c r="W34">
         <v>316</v>
       </c>
-      <c r="X34" s="21" t="s">
+      <c r="X34" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y34">
@@ -5076,79 +5626,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15">
-      <c r="A35" s="21" t="s">
+    <row r="35" ht="15" spans="1:30">
+      <c r="A35" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="23">
         <v>15</v>
       </c>
-      <c r="C35" s="22">
-        <v>1</v>
-      </c>
-      <c r="D35" s="21" t="s">
+      <c r="C35" s="23">
+        <v>1</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="23">
         <v>15</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="37">
         <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I30,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L35" s="37" t="s">
+      <c r="L35" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="M35" s="38" t="str">
+      <c r="M35" s="39" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N35" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O35" s="22">
-        <v>0</v>
-      </c>
-      <c r="P35" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="22">
-        <v>1</v>
-      </c>
-      <c r="R35" s="22">
-        <v>1</v>
-      </c>
-      <c r="S35" s="21" t="s">
+      <c r="N35" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="23">
+        <v>0</v>
+      </c>
+      <c r="P35" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="23">
+        <v>1</v>
+      </c>
+      <c r="R35" s="23">
+        <v>1</v>
+      </c>
+      <c r="S35" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="T35" s="22">
-        <v>0</v>
-      </c>
-      <c r="U35" s="22">
-        <v>0</v>
-      </c>
-      <c r="V35" s="21" t="s">
+      <c r="T35" s="23">
+        <v>0</v>
+      </c>
+      <c r="U35" s="23">
+        <v>0</v>
+      </c>
+      <c r="V35" s="22" t="s">
         <v>216</v>
       </c>
       <c r="W35">
         <v>317</v>
       </c>
-      <c r="X35" s="21" t="s">
+      <c r="X35" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y35">
@@ -5170,79 +5720,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15">
-      <c r="A36" s="21" t="s">
+    <row r="36" ht="15" spans="1:30">
+      <c r="A36" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="23">
         <v>16</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="23">
         <v>3</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="23">
         <v>16</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="37">
         <v>30</v>
       </c>
-      <c r="L36" s="37" t="str">
+      <c r="L36" s="38" t="str">
         <f t="array" ref="L36">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G36,[1]Sheet2!$C$2:C46,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M36" s="38" t="str">
+      <c r="M36" s="39" t="str">
         <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F46,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N36" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O36" s="22">
-        <v>0</v>
-      </c>
-      <c r="P36" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="22">
-        <v>1</v>
-      </c>
-      <c r="R36" s="22">
-        <v>1</v>
-      </c>
-      <c r="S36" s="21" t="s">
+      <c r="N36" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="23">
+        <v>0</v>
+      </c>
+      <c r="P36" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>1</v>
+      </c>
+      <c r="R36" s="23">
+        <v>1</v>
+      </c>
+      <c r="S36" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="T36" s="22">
-        <v>0</v>
-      </c>
-      <c r="U36" s="22">
-        <v>0</v>
-      </c>
-      <c r="V36" s="21" t="s">
+      <c r="T36" s="23">
+        <v>0</v>
+      </c>
+      <c r="U36" s="23">
+        <v>0</v>
+      </c>
+      <c r="V36" s="22" t="s">
         <v>227</v>
       </c>
       <c r="W36">
         <v>318</v>
       </c>
-      <c r="X36" s="21" t="s">
+      <c r="X36" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y36">
@@ -5264,79 +5814,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15">
-      <c r="A37" s="21" t="s">
+    <row r="37" ht="15" spans="1:30">
+      <c r="A37" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="23">
         <v>16</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="23">
         <v>2</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="23">
         <v>16</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="37">
         <f t="array" ref="K37">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G37,[1]Sheet2!$I$2:I32,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L37" s="37" t="s">
+      <c r="L37" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="M37" s="38" t="str">
+      <c r="M37" s="39" t="str">
         <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F47,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N37" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O37" s="22">
-        <v>0</v>
-      </c>
-      <c r="P37" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="22">
-        <v>1</v>
-      </c>
-      <c r="R37" s="22">
-        <v>1</v>
-      </c>
-      <c r="S37" s="21" t="s">
+      <c r="N37" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="23">
+        <v>0</v>
+      </c>
+      <c r="P37" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>1</v>
+      </c>
+      <c r="R37" s="23">
+        <v>1</v>
+      </c>
+      <c r="S37" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="T37" s="22">
-        <v>0</v>
-      </c>
-      <c r="U37" s="22">
-        <v>0</v>
-      </c>
-      <c r="V37" s="21" t="s">
+      <c r="T37" s="23">
+        <v>0</v>
+      </c>
+      <c r="U37" s="23">
+        <v>0</v>
+      </c>
+      <c r="V37" s="22" t="s">
         <v>227</v>
       </c>
       <c r="W37">
         <v>319</v>
       </c>
-      <c r="X37" s="21" t="s">
+      <c r="X37" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y37">
@@ -5358,77 +5908,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="15">
-      <c r="A38" s="21" t="s">
+    <row r="38" ht="15" spans="1:30">
+      <c r="A38" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="23">
         <v>17</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="23">
         <v>2</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="23">
         <v>17</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="37">
         <v>56</v>
       </c>
-      <c r="L38" s="37">
-        <v>0</v>
-      </c>
-      <c r="M38" s="38" t="s">
+      <c r="L38" s="38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="N38" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O38" s="22">
-        <v>0</v>
-      </c>
-      <c r="P38" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="22">
-        <v>1</v>
-      </c>
-      <c r="R38" s="22">
-        <v>1</v>
-      </c>
-      <c r="S38" s="21" t="s">
+      <c r="N38" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="23">
+        <v>0</v>
+      </c>
+      <c r="P38" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>1</v>
+      </c>
+      <c r="R38" s="23">
+        <v>1</v>
+      </c>
+      <c r="S38" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="T38" s="22">
-        <v>0</v>
-      </c>
-      <c r="U38" s="22">
-        <v>0</v>
-      </c>
-      <c r="V38" s="21" t="s">
+      <c r="T38" s="23">
+        <v>0</v>
+      </c>
+      <c r="U38" s="23">
+        <v>0</v>
+      </c>
+      <c r="V38" s="22" t="s">
         <v>238</v>
       </c>
       <c r="W38">
         <v>320</v>
       </c>
-      <c r="X38" s="21" t="s">
+      <c r="X38" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y38">
@@ -5450,79 +6000,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="15">
-      <c r="A39" s="21" t="s">
+    <row r="39" ht="15" spans="1:30">
+      <c r="A39" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="23">
         <v>17</v>
       </c>
-      <c r="C39" s="22">
-        <v>1</v>
-      </c>
-      <c r="D39" s="21" t="s">
+      <c r="C39" s="23">
+        <v>1</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="23">
         <v>17</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="37">
         <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I34,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="L39" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="M39" s="38" t="str">
+      <c r="M39" s="39" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N39" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O39" s="22">
-        <v>1</v>
-      </c>
-      <c r="P39" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="22">
-        <v>1</v>
-      </c>
-      <c r="R39" s="22">
-        <v>1</v>
-      </c>
-      <c r="S39" s="21" t="s">
+      <c r="N39" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="23">
+        <v>1</v>
+      </c>
+      <c r="P39" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>1</v>
+      </c>
+      <c r="R39" s="23">
+        <v>1</v>
+      </c>
+      <c r="S39" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="T39" s="22">
-        <v>0</v>
-      </c>
-      <c r="U39" s="22">
-        <v>0</v>
-      </c>
-      <c r="V39" s="21" t="s">
+      <c r="T39" s="23">
+        <v>0</v>
+      </c>
+      <c r="U39" s="23">
+        <v>0</v>
+      </c>
+      <c r="V39" s="22" t="s">
         <v>238</v>
       </c>
       <c r="W39">
         <v>321</v>
       </c>
-      <c r="X39" s="21" t="s">
+      <c r="X39" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y39">
@@ -5544,80 +6094,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="15">
-      <c r="A40" s="21" t="s">
+    <row r="40" ht="15" spans="1:30">
+      <c r="A40" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="23">
         <v>20</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="23">
         <v>2</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="23">
         <v>20</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="37">
         <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I40,0),1)</f>
         <v>28</v>
       </c>
-      <c r="L40" s="37" t="str">
+      <c r="L40" s="38" t="str">
         <f t="array" ref="L40">INDEX(Sheet2!$B$2:$C$21,MATCH(G40,Sheet2!$C$2:C55,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M40" s="38" t="str">
+      <c r="M40" s="39" t="str">
         <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F55,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N40" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O40" s="22">
-        <v>1</v>
-      </c>
-      <c r="P40" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="22">
-        <v>1</v>
-      </c>
-      <c r="R40" s="22">
-        <v>1</v>
-      </c>
-      <c r="S40" s="21" t="s">
+      <c r="N40" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="23">
+        <v>1</v>
+      </c>
+      <c r="P40" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>1</v>
+      </c>
+      <c r="R40" s="23">
+        <v>1</v>
+      </c>
+      <c r="S40" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="T40" s="22">
-        <v>0</v>
-      </c>
-      <c r="U40" s="22">
-        <v>0</v>
-      </c>
-      <c r="V40" s="21" t="s">
+      <c r="T40" s="23">
+        <v>0</v>
+      </c>
+      <c r="U40" s="23">
+        <v>0</v>
+      </c>
+      <c r="V40" s="22" t="s">
         <v>252</v>
       </c>
       <c r="W40">
         <v>322</v>
       </c>
-      <c r="X40" s="21" t="s">
+      <c r="X40" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y40">
@@ -5639,79 +6189,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="15">
-      <c r="A41" s="21" t="s">
+    <row r="41" ht="15" spans="1:30">
+      <c r="A41" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="23">
         <v>20</v>
       </c>
-      <c r="C41" s="22">
-        <v>1</v>
-      </c>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="23">
+        <v>1</v>
+      </c>
+      <c r="D41" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="23">
         <v>20</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="37">
         <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I41,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L41" s="37" t="s">
+      <c r="L41" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="M41" s="38" t="str">
+      <c r="M41" s="39" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N41" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O41" s="22">
-        <v>0</v>
-      </c>
-      <c r="P41" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="22">
-        <v>1</v>
-      </c>
-      <c r="R41" s="22">
-        <v>1</v>
-      </c>
-      <c r="S41" s="21" t="s">
+      <c r="N41" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="23">
+        <v>0</v>
+      </c>
+      <c r="P41" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="23">
+        <v>1</v>
+      </c>
+      <c r="R41" s="23">
+        <v>1</v>
+      </c>
+      <c r="S41" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="T41" s="22">
-        <v>0</v>
-      </c>
-      <c r="U41" s="22">
-        <v>0</v>
-      </c>
-      <c r="V41" s="21" t="s">
+      <c r="T41" s="23">
+        <v>0</v>
+      </c>
+      <c r="U41" s="23">
+        <v>0</v>
+      </c>
+      <c r="V41" s="22" t="s">
         <v>252</v>
       </c>
       <c r="W41">
         <v>323</v>
       </c>
-      <c r="X41" s="21" t="s">
+      <c r="X41" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y41">
@@ -5733,79 +6283,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="15">
-      <c r="A42" s="21" t="s">
+    <row r="42" ht="15" spans="1:30">
+      <c r="A42" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="23">
         <v>21</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="23">
         <v>2</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I42" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="23">
         <v>21</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="37">
         <v>30</v>
       </c>
-      <c r="L42" s="37" t="str">
+      <c r="L42" s="38" t="str">
         <f t="array" ref="L42">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G42,[1]Sheet2!$C$2:C57,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M42" s="38" t="str">
+      <c r="M42" s="39" t="str">
         <f t="array" ref="M42">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G42,[1]Sheet2!$F$2:F57,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N42" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O42" s="22">
-        <v>0</v>
-      </c>
-      <c r="P42" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="22">
-        <v>1</v>
-      </c>
-      <c r="R42" s="22">
-        <v>1</v>
-      </c>
-      <c r="S42" s="21" t="s">
+      <c r="N42" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="23">
+        <v>0</v>
+      </c>
+      <c r="P42" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="23">
+        <v>1</v>
+      </c>
+      <c r="R42" s="23">
+        <v>1</v>
+      </c>
+      <c r="S42" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="T42" s="22">
-        <v>0</v>
-      </c>
-      <c r="U42" s="22">
-        <v>0</v>
-      </c>
-      <c r="V42" s="21" t="s">
+      <c r="T42" s="23">
+        <v>0</v>
+      </c>
+      <c r="U42" s="23">
+        <v>0</v>
+      </c>
+      <c r="V42" s="22" t="s">
         <v>263</v>
       </c>
       <c r="W42">
         <v>324</v>
       </c>
-      <c r="X42" s="21" t="s">
+      <c r="X42" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y42">
@@ -5827,80 +6377,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="15">
-      <c r="A43" s="21" t="s">
+    <row r="43" ht="15" spans="1:30">
+      <c r="A43" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="23">
         <v>21</v>
       </c>
-      <c r="C43" s="22">
-        <v>1</v>
-      </c>
-      <c r="D43" s="21" t="s">
+      <c r="C43" s="23">
+        <v>1</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I43" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="23">
         <v>21</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="37">
         <f t="array" ref="K43">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G43,[1]Sheet2!$I$2:I43,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L43" s="37" t="str">
+      <c r="L43" s="38" t="str">
         <f t="array" ref="L43">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G43,[1]Sheet2!$C$2:C58,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M43" s="38" t="str">
+      <c r="M43" s="39" t="str">
         <f t="array" ref="M43">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G43,[1]Sheet2!$F$2:F58,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N43" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O43" s="22">
-        <v>0</v>
-      </c>
-      <c r="P43" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="22">
-        <v>1</v>
-      </c>
-      <c r="R43" s="22">
-        <v>1</v>
-      </c>
-      <c r="S43" s="21" t="s">
+      <c r="N43" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="23">
+        <v>0</v>
+      </c>
+      <c r="P43" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="23">
+        <v>1</v>
+      </c>
+      <c r="R43" s="23">
+        <v>1</v>
+      </c>
+      <c r="S43" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="T43" s="22">
-        <v>0</v>
-      </c>
-      <c r="U43" s="22">
-        <v>0</v>
-      </c>
-      <c r="V43" s="21" t="s">
+      <c r="T43" s="23">
+        <v>0</v>
+      </c>
+      <c r="U43" s="23">
+        <v>0</v>
+      </c>
+      <c r="V43" s="22" t="s">
         <v>263</v>
       </c>
       <c r="W43">
         <v>325</v>
       </c>
-      <c r="X43" s="21" t="s">
+      <c r="X43" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y43">
@@ -5922,80 +6472,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="15">
-      <c r="A44" s="21" t="s">
+    <row r="44" ht="15" spans="1:30">
+      <c r="A44" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="23">
         <v>19</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="34">
         <v>2</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="23">
         <v>19</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="37">
         <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I38,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L44" s="37" t="str">
+      <c r="L44" s="38" t="str">
         <f t="array" ref="L44">INDEX(Sheet2!$B$2:$C$21,MATCH(G44,Sheet2!$C$2:C53,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M44" s="38" t="str">
+      <c r="M44" s="39" t="str">
         <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F53,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N44" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O44" s="22">
-        <v>1</v>
-      </c>
-      <c r="P44" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="22">
-        <v>1</v>
-      </c>
-      <c r="R44" s="22">
-        <v>1</v>
-      </c>
-      <c r="S44" s="21" t="s">
+      <c r="N44" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="23">
+        <v>1</v>
+      </c>
+      <c r="P44" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="23">
+        <v>1</v>
+      </c>
+      <c r="R44" s="23">
+        <v>1</v>
+      </c>
+      <c r="S44" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="T44" s="22">
-        <v>0</v>
-      </c>
-      <c r="U44" s="22">
-        <v>0</v>
-      </c>
-      <c r="V44" s="21" t="s">
+      <c r="T44" s="23">
+        <v>0</v>
+      </c>
+      <c r="U44" s="23">
+        <v>0</v>
+      </c>
+      <c r="V44" s="22" t="s">
         <v>272</v>
       </c>
       <c r="W44">
         <v>326</v>
       </c>
-      <c r="X44" s="21" t="s">
+      <c r="X44" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y44">
@@ -6017,79 +6567,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="15">
-      <c r="A45" s="21" t="s">
+    <row r="45" ht="15" spans="1:30">
+      <c r="A45" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="23">
         <v>19</v>
       </c>
-      <c r="C45" s="33">
-        <v>1</v>
-      </c>
-      <c r="D45" s="21" t="s">
+      <c r="C45" s="34">
+        <v>1</v>
+      </c>
+      <c r="D45" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="23">
         <v>19</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="37">
         <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I39,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L45" s="37" t="s">
+      <c r="L45" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="M45" s="38" t="str">
+      <c r="M45" s="39" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N45" s="21" t="s">
+      <c r="N45" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="22">
-        <v>0</v>
-      </c>
-      <c r="P45" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="22">
-        <v>1</v>
-      </c>
-      <c r="R45" s="22">
-        <v>1</v>
-      </c>
-      <c r="S45" s="21" t="s">
+      <c r="O45" s="23">
+        <v>0</v>
+      </c>
+      <c r="P45" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>1</v>
+      </c>
+      <c r="R45" s="23">
+        <v>1</v>
+      </c>
+      <c r="S45" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="T45" s="22">
-        <v>0</v>
-      </c>
-      <c r="U45" s="22">
-        <v>0</v>
-      </c>
-      <c r="V45" s="21" t="s">
+      <c r="T45" s="23">
+        <v>0</v>
+      </c>
+      <c r="U45" s="23">
+        <v>0</v>
+      </c>
+      <c r="V45" s="22" t="s">
         <v>272</v>
       </c>
       <c r="W45">
         <v>327</v>
       </c>
-      <c r="X45" s="21" t="s">
+      <c r="X45" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y45">
@@ -6111,80 +6661,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15">
-      <c r="A46" s="21" t="s">
+    <row r="46" ht="15" spans="1:30">
+      <c r="A46" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="23">
         <v>26</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="34">
         <v>10</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="23">
         <v>26</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="37">
         <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I53,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L46" s="37" t="str">
+      <c r="L46" s="38" t="str">
         <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C68,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M46" s="38" t="str">
+      <c r="M46" s="39" t="str">
         <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F68,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N46" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O46" s="22">
-        <v>1</v>
-      </c>
-      <c r="P46" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="22">
-        <v>0</v>
-      </c>
-      <c r="R46" s="22">
-        <v>1</v>
-      </c>
-      <c r="S46" s="21" t="s">
+      <c r="N46" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="23">
+        <v>1</v>
+      </c>
+      <c r="P46" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>0</v>
+      </c>
+      <c r="R46" s="23">
+        <v>1</v>
+      </c>
+      <c r="S46" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T46" s="22">
-        <v>0</v>
-      </c>
-      <c r="U46" s="22">
-        <v>0</v>
-      </c>
-      <c r="V46" s="21" t="s">
+      <c r="T46" s="23">
+        <v>0</v>
+      </c>
+      <c r="U46" s="23">
+        <v>0</v>
+      </c>
+      <c r="V46" s="22" t="s">
         <v>283</v>
       </c>
       <c r="W46">
         <v>328</v>
       </c>
-      <c r="X46" s="21" t="s">
+      <c r="X46" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y46">
@@ -6206,80 +6756,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15">
-      <c r="A47" s="21" t="s">
+    <row r="47" ht="15" spans="1:30">
+      <c r="A47" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="23">
         <v>26</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="34">
         <v>9</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="23">
         <v>26</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="37">
         <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I54,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L47" s="37" t="str">
+      <c r="L47" s="38" t="str">
         <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C69,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M47" s="38" t="str">
+      <c r="M47" s="39" t="str">
         <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F69,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N47" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O47" s="22">
-        <v>0</v>
-      </c>
-      <c r="P47" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="22">
-        <v>1</v>
-      </c>
-      <c r="R47" s="22">
-        <v>1</v>
-      </c>
-      <c r="S47" s="21" t="s">
+      <c r="N47" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="23">
+        <v>0</v>
+      </c>
+      <c r="P47" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>1</v>
+      </c>
+      <c r="R47" s="23">
+        <v>1</v>
+      </c>
+      <c r="S47" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="T47" s="22">
-        <v>0</v>
-      </c>
-      <c r="U47" s="22">
-        <v>0</v>
-      </c>
-      <c r="V47" s="21" t="s">
+      <c r="T47" s="23">
+        <v>0</v>
+      </c>
+      <c r="U47" s="23">
+        <v>0</v>
+      </c>
+      <c r="V47" s="22" t="s">
         <v>283</v>
       </c>
       <c r="W47">
         <v>329</v>
       </c>
-      <c r="X47" s="21" t="s">
+      <c r="X47" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y47">
@@ -6301,79 +6851,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:30" s="14" customFormat="1" ht="15">
-      <c r="A48" s="14" t="s">
+    <row r="48" s="15" customFormat="1" ht="15" spans="1:30">
+      <c r="A48" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="25">
         <v>22</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="25">
         <v>3</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="25">
         <v>22</v>
       </c>
-      <c r="K48" s="24">
+      <c r="K48" s="25">
         <v>72</v>
       </c>
-      <c r="L48" s="16" t="str">
+      <c r="L48" s="17" t="str">
         <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C59,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M48" s="39" t="str">
+      <c r="M48" s="40" t="str">
         <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F59,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N48" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O48" s="24">
-        <v>0</v>
-      </c>
-      <c r="P48" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="24">
-        <v>1</v>
-      </c>
-      <c r="R48" s="24">
-        <v>1</v>
-      </c>
-      <c r="S48" s="14" t="s">
+      <c r="N48" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="25">
+        <v>0</v>
+      </c>
+      <c r="P48" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="25">
+        <v>1</v>
+      </c>
+      <c r="R48" s="25">
+        <v>1</v>
+      </c>
+      <c r="S48" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="T48" s="24">
-        <v>0</v>
-      </c>
-      <c r="U48" s="24">
-        <v>1</v>
-      </c>
-      <c r="V48" s="14" t="s">
+      <c r="T48" s="25">
+        <v>0</v>
+      </c>
+      <c r="U48" s="25">
+        <v>1</v>
+      </c>
+      <c r="V48" s="15" t="s">
         <v>293</v>
       </c>
       <c r="W48">
         <v>330</v>
       </c>
-      <c r="X48" s="21" t="s">
+      <c r="X48" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y48">
@@ -6395,80 +6945,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15">
-      <c r="A49" s="21" t="s">
+    <row r="49" ht="15" spans="1:30">
+      <c r="A49" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="23">
         <v>22</v>
       </c>
-      <c r="C49" s="22">
-        <v>1</v>
-      </c>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="23">
+        <v>1</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G49" s="23" t="s">
+      <c r="F49" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="G49" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="H49" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="23">
         <v>22</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49" s="37">
         <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I45,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L49" s="37" t="str">
+      <c r="L49" s="38" t="str">
         <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C60,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M49" s="38" t="str">
+      <c r="M49" s="39" t="str">
         <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F60,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N49" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O49" s="22">
-        <v>1</v>
-      </c>
-      <c r="P49" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="22">
-        <v>1</v>
-      </c>
-      <c r="R49" s="22">
-        <v>1</v>
-      </c>
-      <c r="S49" s="21" t="s">
+      <c r="N49" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="23">
+        <v>1</v>
+      </c>
+      <c r="P49" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="23">
+        <v>1</v>
+      </c>
+      <c r="R49" s="23">
+        <v>1</v>
+      </c>
+      <c r="S49" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="T49" s="22">
-        <v>0</v>
-      </c>
-      <c r="U49" s="22">
-        <v>1</v>
-      </c>
-      <c r="V49" s="21" t="s">
+      <c r="T49" s="23">
+        <v>0</v>
+      </c>
+      <c r="U49" s="23">
+        <v>1</v>
+      </c>
+      <c r="V49" s="22" t="s">
         <v>293</v>
       </c>
       <c r="W49">
         <v>331</v>
       </c>
-      <c r="X49" s="21" t="s">
+      <c r="X49" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y49">
@@ -6490,79 +7040,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15">
-      <c r="A50" s="21" t="s">
+    <row r="50" ht="15" spans="1:30">
+      <c r="A50" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="23">
         <v>22</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="23">
         <v>2</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="G50" s="32" t="s">
+      <c r="F50" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="23">
         <v>22</v>
       </c>
-      <c r="K50" s="36">
+      <c r="K50" s="37">
         <v>570</v>
       </c>
-      <c r="L50" s="37" t="str">
+      <c r="L50" s="38" t="str">
         <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C61,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M50" s="38" t="str">
+      <c r="M50" s="39" t="str">
         <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F61,0),1)</f>
         <v>.log</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O50" s="22">
-        <v>0</v>
-      </c>
-      <c r="P50" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="22">
-        <v>0</v>
-      </c>
-      <c r="R50" s="22">
-        <v>1</v>
-      </c>
-      <c r="S50" s="21" t="s">
+      <c r="O50" s="23">
+        <v>0</v>
+      </c>
+      <c r="P50" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="23">
+        <v>0</v>
+      </c>
+      <c r="R50" s="23">
+        <v>1</v>
+      </c>
+      <c r="S50" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T50" s="22">
-        <v>0</v>
-      </c>
-      <c r="U50" s="22">
-        <v>0</v>
-      </c>
-      <c r="V50" s="21" t="s">
+      <c r="T50" s="23">
+        <v>0</v>
+      </c>
+      <c r="U50" s="23">
+        <v>0</v>
+      </c>
+      <c r="V50" s="22" t="s">
         <v>293</v>
       </c>
       <c r="W50">
         <v>332</v>
       </c>
-      <c r="X50" s="51" t="s">
+      <c r="X50" s="52" t="s">
         <v>135</v>
       </c>
       <c r="Y50">
@@ -6584,75 +7134,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="19" customFormat="1" ht="15">
-      <c r="A51" s="19" t="s">
+    <row r="51" s="20" customFormat="1" ht="15" spans="1:30">
+      <c r="A51" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="B51" s="35">
+      <c r="B51" s="36">
         <v>25</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="36">
         <v>2</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="J51" s="35">
+      <c r="J51" s="36">
         <v>25</v>
       </c>
-      <c r="K51" s="35">
+      <c r="K51" s="36">
         <v>73</v>
       </c>
-      <c r="L51" s="48">
+      <c r="L51" s="49">
         <v>20</v>
       </c>
-      <c r="M51" s="49"/>
-      <c r="N51" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O51" s="35">
-        <v>0</v>
-      </c>
-      <c r="P51" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="35">
-        <v>1</v>
-      </c>
-      <c r="R51" s="35">
-        <v>1</v>
-      </c>
-      <c r="S51" s="19" t="s">
+      <c r="M51" s="50"/>
+      <c r="N51" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="36">
+        <v>0</v>
+      </c>
+      <c r="P51" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="36">
+        <v>1</v>
+      </c>
+      <c r="R51" s="36">
+        <v>1</v>
+      </c>
+      <c r="S51" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="T51" s="35">
-        <v>0</v>
-      </c>
-      <c r="U51" s="35">
-        <v>0</v>
-      </c>
-      <c r="V51" s="19" t="s">
+      <c r="T51" s="36">
+        <v>0</v>
+      </c>
+      <c r="U51" s="36">
+        <v>0</v>
+      </c>
+      <c r="V51" s="20" t="s">
         <v>315</v>
       </c>
       <c r="W51">
         <v>333</v>
       </c>
-      <c r="X51" s="21" t="s">
+      <c r="X51" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y51">
@@ -6674,79 +7224,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15">
-      <c r="A52" s="21" t="s">
+    <row r="52" ht="15" spans="1:30">
+      <c r="A52" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="23">
         <v>25</v>
       </c>
-      <c r="C52" s="22">
-        <v>1</v>
-      </c>
-      <c r="D52" s="21" t="s">
+      <c r="C52" s="23">
+        <v>1</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="23">
         <v>25</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="37">
         <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I52,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L52" s="37">
+      <c r="L52" s="38">
         <v>2</v>
       </c>
-      <c r="M52" s="38" t="str">
+      <c r="M52" s="39" t="str">
         <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F67,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N52" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O52" s="22">
-        <v>0</v>
-      </c>
-      <c r="P52" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="22">
-        <v>1</v>
-      </c>
-      <c r="R52" s="22">
-        <v>1</v>
-      </c>
-      <c r="S52" s="21" t="s">
+      <c r="N52" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="23">
+        <v>0</v>
+      </c>
+      <c r="P52" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="23">
+        <v>1</v>
+      </c>
+      <c r="R52" s="23">
+        <v>1</v>
+      </c>
+      <c r="S52" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="T52" s="22">
-        <v>0</v>
-      </c>
-      <c r="U52" s="22">
-        <v>0</v>
-      </c>
-      <c r="V52" s="21" t="s">
+      <c r="T52" s="23">
+        <v>0</v>
+      </c>
+      <c r="U52" s="23">
+        <v>0</v>
+      </c>
+      <c r="V52" s="22" t="s">
         <v>315</v>
       </c>
       <c r="W52">
         <v>334</v>
       </c>
-      <c r="X52" s="21" t="s">
+      <c r="X52" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y52">
@@ -6768,79 +7318,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15">
-      <c r="A53" s="21" t="s">
+    <row r="53" ht="15" spans="1:30">
+      <c r="A53" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="23">
         <v>27</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="23">
         <v>2</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="23">
         <v>27</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="37">
         <v>29</v>
       </c>
-      <c r="L53" s="37" t="str">
+      <c r="L53" s="38" t="str">
         <f t="array" ref="L53">INDEX(Sheet2!$B$2:$C$21,MATCH(G53,Sheet2!$C$2:C70,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M53" s="38" t="str">
+      <c r="M53" s="39" t="str">
         <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F70,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N53" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O53" s="22">
-        <v>0</v>
-      </c>
-      <c r="P53" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="22">
-        <v>1</v>
-      </c>
-      <c r="R53" s="22">
-        <v>1</v>
-      </c>
-      <c r="S53" s="21" t="s">
+      <c r="N53" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" s="23">
+        <v>0</v>
+      </c>
+      <c r="P53" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="23">
+        <v>1</v>
+      </c>
+      <c r="R53" s="23">
+        <v>1</v>
+      </c>
+      <c r="S53" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="T53" s="22">
-        <v>0</v>
-      </c>
-      <c r="U53" s="22">
-        <v>0</v>
-      </c>
-      <c r="V53" s="21" t="s">
+      <c r="T53" s="23">
+        <v>0</v>
+      </c>
+      <c r="U53" s="23">
+        <v>0</v>
+      </c>
+      <c r="V53" s="22" t="s">
         <v>320</v>
       </c>
       <c r="W53">
         <v>335</v>
       </c>
-      <c r="X53" s="21" t="s">
+      <c r="X53" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y53">
@@ -6862,79 +7412,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15">
-      <c r="A54" s="21" t="s">
+    <row r="54" ht="15" spans="1:30">
+      <c r="A54" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="23">
         <v>27</v>
       </c>
-      <c r="C54" s="22">
-        <v>1</v>
-      </c>
-      <c r="D54" s="21" t="s">
+      <c r="C54" s="23">
+        <v>1</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H54" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I54" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="23">
         <v>27</v>
       </c>
-      <c r="K54" s="36">
+      <c r="K54" s="37">
         <f t="array" ref="K54">INDEX(Sheet2!$H$2:$I$21,MATCH(G54,Sheet2!$I$2:I56,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L54" s="50">
+      <c r="L54" s="51">
         <v>2</v>
       </c>
-      <c r="M54" s="38" t="str">
+      <c r="M54" s="39" t="str">
         <f t="array" ref="M54">INDEX(Sheet2!$E$2:$F$21,MATCH(G54,Sheet2!$F$2:F71,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N54" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O54" s="22">
-        <v>1</v>
-      </c>
-      <c r="P54" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="22">
-        <v>1</v>
-      </c>
-      <c r="R54" s="22">
-        <v>0</v>
-      </c>
-      <c r="S54" s="21" t="s">
+      <c r="N54" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" s="23">
+        <v>1</v>
+      </c>
+      <c r="P54" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="23">
+        <v>1</v>
+      </c>
+      <c r="R54" s="23">
+        <v>0</v>
+      </c>
+      <c r="S54" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="T54" s="22">
-        <v>0</v>
-      </c>
-      <c r="U54" s="22">
-        <v>0</v>
-      </c>
-      <c r="V54" s="21" t="s">
+      <c r="T54" s="23">
+        <v>0</v>
+      </c>
+      <c r="U54" s="23">
+        <v>0</v>
+      </c>
+      <c r="V54" s="22" t="s">
         <v>320</v>
       </c>
       <c r="W54">
         <v>336</v>
       </c>
-      <c r="X54" s="21" t="s">
+      <c r="X54" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Y54">
@@ -6961,26 +7511,28 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7142857142857" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="7" width="8.71428571428571" customWidth="1"/>
+    <col min="8" max="8" width="10.7142857142857" customWidth="1"/>
+    <col min="9" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>329</v>
@@ -7020,7 +7572,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1" spans="2:9">
       <c r="B2" s="6" t="s">
         <v>333</v>
       </c>
@@ -7042,7 +7594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1" spans="2:9">
       <c r="B3" s="6" t="s">
         <v>335</v>
       </c>
@@ -7064,7 +7616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1" spans="2:9">
       <c r="B4" s="6" t="s">
         <v>337</v>
       </c>
@@ -7086,7 +7638,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1" spans="2:9">
       <c r="B5" s="6" t="s">
         <v>262</v>
       </c>
@@ -7108,7 +7660,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
         <v>340</v>
       </c>
@@ -7130,7 +7682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="2:9">
       <c r="B7" s="9" t="s">
         <v>342</v>
       </c>
@@ -7152,7 +7704,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
         <v>343</v>
       </c>
@@ -7174,7 +7726,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1" spans="2:9">
       <c r="B9" s="11" t="s">
         <v>340</v>
       </c>
@@ -7196,7 +7748,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1" spans="2:9">
       <c r="B10" s="11">
         <v>2</v>
       </c>
@@ -7216,7 +7768,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+    <row r="11" ht="12.75" customHeight="1" spans="2:9">
       <c r="B11" s="11" t="s">
         <v>344</v>
       </c>
@@ -7238,7 +7790,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+    <row r="12" ht="12.75" customHeight="1" spans="2:9">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -7248,7 +7800,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+    <row r="13" ht="12.75" customHeight="1" spans="2:9">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -7258,7 +7810,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1">
+    <row r="14" ht="12.75" customHeight="1" spans="2:9">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -7268,7 +7820,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1">
+    <row r="15" ht="12.75" customHeight="1" spans="2:9">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
@@ -7278,7 +7830,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1">
+    <row r="16" ht="12.75" customHeight="1" spans="2:9">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -7288,7 +7840,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="2:9" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1" spans="2:9">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -7298,7 +7850,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="2:9" ht="12.75" customHeight="1">
+    <row r="18" ht="12.75" customHeight="1" spans="2:9">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -7308,7 +7860,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="2:9" ht="12.75" customHeight="1">
+    <row r="19" ht="12.75" customHeight="1" spans="2:9">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
@@ -7318,7 +7870,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:9" ht="12.75" customHeight="1">
+    <row r="20" ht="12.75" customHeight="1" spans="2:9">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -7328,7 +7880,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="2:9" ht="12.75" customHeight="1">
+    <row r="21" ht="12.75" customHeight="1" spans="2:9">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -7338,37 +7890,21 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="52" t="s">
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1" spans="3:3">
+      <c r="C25" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
     </row>
-    <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-    </row>
-    <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="29" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="30" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="31" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="32" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -8343,6 +8879,7 @@
     <mergeCell ref="C25:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>